--- a/doc/数据融合中心 数据服务API2(更新中).xlsx
+++ b/doc/数据融合中心 数据服务API2(更新中).xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{890D25F3-DB14-4E9C-B6DE-1ED0AF0A3BF6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACFF4989-4B8F-4FCA-B6A7-04F5E0D50768}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="790" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="权限" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="252">
   <si>
     <t>username</t>
   </si>
@@ -937,10 +937,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>要查询实体在指定历史下的详情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>errors</t>
   </si>
   <si>
@@ -1288,6 +1284,13 @@
   </si>
   <si>
     <t>/api2/entity/export/work/{uuid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>versionCode</t>
+  </si>
+  <si>
+    <t>指定要获取的详情的版本号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1846,7 +1849,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2069,220 +2072,19 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2319,17 +2121,221 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2619,7 +2625,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="G3" sqref="G3:G9"/>
     </sheetView>
   </sheetViews>
@@ -2635,61 +2641,61 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="78"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="100"/>
     </row>
     <row r="3" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="93" t="s">
+      <c r="B3" s="101" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="95"/>
-      <c r="G3" s="83" t="s">
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="103"/>
+      <c r="G3" s="107" t="s">
         <v>111</v>
       </c>
       <c r="H3" s="56"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B4" s="82" t="s">
+      <c r="B4" s="96" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="88" t="s">
+      <c r="D4" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="88"/>
-      <c r="G4" s="84"/>
+      <c r="E4" s="109"/>
+      <c r="G4" s="108"/>
       <c r="H4" s="56"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="82"/>
+      <c r="B5" s="96"/>
       <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="88" t="s">
+      <c r="D5" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="88"/>
-      <c r="G5" s="84"/>
+      <c r="E5" s="109"/>
+      <c r="G5" s="108"/>
       <c r="H5" s="56"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B6" s="79"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="81"/>
-      <c r="G6" s="84"/>
+      <c r="B6" s="104"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="106"/>
+      <c r="G6" s="108"/>
       <c r="H6" s="56"/>
     </row>
     <row r="7" spans="2:8" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B7" s="82" t="s">
+      <c r="B7" s="96" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -2701,11 +2707,11 @@
       <c r="E7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="84"/>
+      <c r="G7" s="108"/>
       <c r="H7" s="56"/>
     </row>
     <row r="8" spans="2:8" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="B8" s="82"/>
+      <c r="B8" s="96"/>
       <c r="C8" s="2" t="s">
         <v>4</v>
       </c>
@@ -2715,11 +2721,11 @@
       <c r="E8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="84"/>
+      <c r="G8" s="108"/>
       <c r="H8" s="56"/>
     </row>
     <row r="9" spans="2:8" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B9" s="82"/>
+      <c r="B9" s="96"/>
       <c r="C9" s="2" t="s">
         <v>10</v>
       </c>
@@ -2729,77 +2735,77 @@
       <c r="E9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="84"/>
+      <c r="G9" s="108"/>
       <c r="H9" s="56"/>
     </row>
     <row r="10" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="2:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B11" s="76" t="s">
+      <c r="B11" s="98" t="s">
+        <v>224</v>
+      </c>
+      <c r="C11" s="99"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="100"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B12" s="101" t="s">
         <v>225</v>
       </c>
-      <c r="C11" s="77"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="78"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B12" s="93" t="s">
-        <v>226</v>
-      </c>
-      <c r="C12" s="94"/>
-      <c r="D12" s="94"/>
-      <c r="E12" s="95"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="102"/>
+      <c r="E12" s="103"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B13" s="89"/>
-      <c r="C13" s="82"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="90"/>
+      <c r="B13" s="95"/>
+      <c r="C13" s="96"/>
+      <c r="D13" s="96"/>
+      <c r="E13" s="97"/>
     </row>
     <row r="14" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="50" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="D14" s="87" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="90" t="s">
         <v>227</v>
       </c>
-      <c r="D14" s="154" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="157" t="s">
-        <v>228</v>
-      </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B15" s="155"/>
-      <c r="C15" s="156"/>
-      <c r="D15" s="155"/>
-      <c r="E15" s="155"/>
+      <c r="B15" s="88"/>
+      <c r="C15" s="89"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="88"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B16" s="155"/>
-      <c r="C16" s="156"/>
-      <c r="D16" s="155"/>
-      <c r="E16" s="155"/>
+      <c r="B16" s="88"/>
+      <c r="C16" s="89"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="88"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="155"/>
-      <c r="C17" s="156"/>
-      <c r="D17" s="155"/>
-      <c r="E17" s="155"/>
+      <c r="B17" s="88"/>
+      <c r="C17" s="89"/>
+      <c r="D17" s="88"/>
+      <c r="E17" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="G3:G9"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:B9"/>
-    <mergeCell ref="G3:G9"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -2828,20 +2834,20 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="98" t="s">
+        <v>231</v>
+      </c>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="100"/>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="101" t="s">
         <v>232</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="78"/>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="93" t="s">
-        <v>233</v>
-      </c>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="95"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="103"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="48"/>
@@ -2866,56 +2872,56 @@
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="66"/>
       <c r="C6" s="66"/>
-      <c r="D6" s="158"/>
-      <c r="E6" s="159"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="92"/>
     </row>
     <row r="7" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B8" s="76" t="s">
+      <c r="B8" s="98" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="78"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="100"/>
     </row>
     <row r="9" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="93" t="s">
-        <v>235</v>
-      </c>
-      <c r="C9" s="94"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="95"/>
+      <c r="B9" s="101" t="s">
+        <v>234</v>
+      </c>
+      <c r="C9" s="102"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="103"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="104" t="s">
+      <c r="B10" s="121" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="160" t="s">
+      <c r="D10" s="149" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="161"/>
+      <c r="E10" s="150"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="106"/>
+      <c r="B11" s="123"/>
       <c r="C11" s="46" t="s">
-        <v>234</v>
-      </c>
-      <c r="D11" s="115" t="s">
-        <v>236</v>
-      </c>
-      <c r="E11" s="116"/>
+        <v>233</v>
+      </c>
+      <c r="D11" s="135" t="s">
+        <v>235</v>
+      </c>
+      <c r="E11" s="136"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="98"/>
-      <c r="C12" s="99"/>
-      <c r="D12" s="99"/>
-      <c r="E12" s="100"/>
+      <c r="B12" s="114"/>
+      <c r="C12" s="115"/>
+      <c r="D12" s="115"/>
+      <c r="E12" s="116"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="89" t="s">
+      <c r="B13" s="95" t="s">
         <v>55</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -2925,11 +2931,11 @@
         <v>63</v>
       </c>
       <c r="E13" s="33" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="89"/>
+      <c r="B14" s="95"/>
       <c r="C14" s="2" t="s">
         <v>56</v>
       </c>
@@ -2941,7 +2947,7 @@
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="89"/>
+      <c r="B15" s="95"/>
       <c r="C15" s="2" t="s">
         <v>57</v>
       </c>
@@ -2953,7 +2959,7 @@
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="89"/>
+      <c r="B16" s="95"/>
       <c r="C16" s="2" t="s">
         <v>59</v>
       </c>
@@ -2965,7 +2971,7 @@
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="89"/>
+      <c r="B17" s="95"/>
       <c r="C17" s="7" t="s">
         <v>19</v>
       </c>
@@ -2973,19 +2979,19 @@
         <v>54</v>
       </c>
       <c r="E17" s="53" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="95"/>
+      <c r="C18" s="46" t="s">
+        <v>175</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="E18" s="53" t="s">
         <v>238</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="89"/>
-      <c r="C18" s="46" t="s">
-        <v>176</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="E18" s="53" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
@@ -3009,37 +3015,37 @@
       </c>
     </row>
     <row r="23" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B23" s="143" t="s">
+      <c r="B23" s="148" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="143"/>
-      <c r="D23" s="143"/>
-      <c r="E23" s="143"/>
+      <c r="C23" s="148"/>
+      <c r="D23" s="148"/>
+      <c r="E23" s="148"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B24" s="94" t="s">
+      <c r="B24" s="102" t="s">
+        <v>240</v>
+      </c>
+      <c r="C24" s="102"/>
+      <c r="D24" s="102"/>
+      <c r="E24" s="102"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B25" s="96" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="49" t="s">
         <v>241</v>
       </c>
-      <c r="C24" s="94"/>
-      <c r="D24" s="94"/>
-      <c r="E24" s="94"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B25" s="82" t="s">
-        <v>2</v>
-      </c>
-      <c r="C25" s="49" t="s">
+      <c r="D25" s="32" t="s">
         <v>242</v>
       </c>
-      <c r="D25" s="32" t="s">
+      <c r="E25" s="93" t="s">
         <v>243</v>
       </c>
-      <c r="E25" s="162" t="s">
-        <v>244</v>
-      </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B26" s="82"/>
+      <c r="B26" s="96"/>
       <c r="C26" s="46" t="s">
         <v>103</v>
       </c>
@@ -3057,7 +3063,7 @@
       <c r="E27" s="47"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B28" s="82" t="s">
+      <c r="B28" s="96" t="s">
         <v>6</v>
       </c>
       <c r="C28" s="46" t="s">
@@ -3067,7 +3073,7 @@
       <c r="E28" s="44"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B29" s="82"/>
+      <c r="B29" s="96"/>
       <c r="C29" s="46" t="s">
         <v>69</v>
       </c>
@@ -3079,7 +3085,7 @@
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="82"/>
+      <c r="B30" s="96"/>
       <c r="C30" s="46" t="s">
         <v>70</v>
       </c>
@@ -3091,7 +3097,7 @@
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B31" s="82"/>
+      <c r="B31" s="96"/>
       <c r="C31" s="46" t="s">
         <v>71</v>
       </c>
@@ -3103,7 +3109,7 @@
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B32" s="82"/>
+      <c r="B32" s="96"/>
       <c r="C32" s="46" t="s">
         <v>72</v>
       </c>
@@ -3115,7 +3121,7 @@
       </c>
     </row>
     <row r="33" spans="2:6" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="B33" s="82"/>
+      <c r="B33" s="96"/>
       <c r="C33" s="46" t="s">
         <v>74</v>
       </c>
@@ -3127,7 +3133,7 @@
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B34" s="82"/>
+      <c r="B34" s="96"/>
       <c r="C34" s="46" t="s">
         <v>73</v>
       </c>
@@ -3151,55 +3157,55 @@
       <c r="E36" s="37"/>
     </row>
     <row r="37" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B37" s="76" t="s">
+      <c r="B37" s="98" t="s">
         <v>86</v>
       </c>
-      <c r="C37" s="77"/>
-      <c r="D37" s="77"/>
-      <c r="E37" s="78"/>
+      <c r="C37" s="99"/>
+      <c r="D37" s="99"/>
+      <c r="E37" s="100"/>
     </row>
     <row r="38" spans="2:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="117" t="s">
-        <v>248</v>
-      </c>
-      <c r="C38" s="94"/>
-      <c r="D38" s="94"/>
-      <c r="E38" s="95"/>
-      <c r="F38" s="155"/>
+      <c r="B38" s="133" t="s">
+        <v>247</v>
+      </c>
+      <c r="C38" s="102"/>
+      <c r="D38" s="102"/>
+      <c r="E38" s="103"/>
+      <c r="F38" s="88"/>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B39" s="89" t="s">
+      <c r="B39" s="95" t="s">
         <v>16</v>
       </c>
       <c r="C39" s="46" t="s">
         <v>152</v>
       </c>
-      <c r="D39" s="160" t="s">
+      <c r="D39" s="149" t="s">
         <v>87</v>
       </c>
-      <c r="E39" s="161"/>
-      <c r="F39" s="155"/>
+      <c r="E39" s="150"/>
+      <c r="F39" s="88"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B40" s="89"/>
+      <c r="B40" s="95"/>
       <c r="C40" s="46" t="s">
-        <v>245</v>
-      </c>
-      <c r="D40" s="96" t="s">
+        <v>244</v>
+      </c>
+      <c r="D40" s="112" t="s">
         <v>88</v>
       </c>
-      <c r="E40" s="97"/>
-      <c r="F40" s="155"/>
+      <c r="E40" s="113"/>
+      <c r="F40" s="88"/>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B41" s="98"/>
-      <c r="C41" s="99"/>
-      <c r="D41" s="99"/>
-      <c r="E41" s="100"/>
-      <c r="F41" s="155"/>
+      <c r="B41" s="114"/>
+      <c r="C41" s="115"/>
+      <c r="D41" s="115"/>
+      <c r="E41" s="116"/>
+      <c r="F41" s="88"/>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B42" s="89" t="s">
+      <c r="B42" s="95" t="s">
         <v>2</v>
       </c>
       <c r="C42" s="46" t="s">
@@ -3211,55 +3217,55 @@
       <c r="E42" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="F42" s="155"/>
+      <c r="F42" s="88"/>
     </row>
     <row r="43" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B43" s="89"/>
+      <c r="B43" s="95"/>
       <c r="C43" s="46" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D43" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="E43" s="139" t="s">
+        <v>195</v>
+      </c>
+      <c r="E43" s="78" t="s">
+        <v>168</v>
+      </c>
+      <c r="F43" s="94"/>
+    </row>
+    <row r="44" spans="2:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="95"/>
+      <c r="C44" s="46" t="s">
+        <v>245</v>
+      </c>
+      <c r="D44" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="E44" s="78" t="s">
         <v>169</v>
       </c>
-      <c r="F43" s="163"/>
-    </row>
-    <row r="44" spans="2:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="89"/>
-      <c r="C44" s="46" t="s">
+      <c r="F44" s="94"/>
+    </row>
+    <row r="45" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B45" s="95"/>
+      <c r="C45" s="46" t="s">
+        <v>213</v>
+      </c>
+      <c r="D45" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="E45" s="33" t="s">
         <v>246</v>
       </c>
-      <c r="D44" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="E44" s="139" t="s">
-        <v>170</v>
-      </c>
-      <c r="F44" s="163"/>
-    </row>
-    <row r="45" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B45" s="89"/>
-      <c r="C45" s="46" t="s">
-        <v>214</v>
-      </c>
-      <c r="D45" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="E45" s="33" t="s">
-        <v>247</v>
-      </c>
-      <c r="F45" s="155"/>
+      <c r="F45" s="88"/>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B46" s="111"/>
-      <c r="C46" s="88"/>
-      <c r="D46" s="88"/>
-      <c r="E46" s="112"/>
+      <c r="B46" s="127"/>
+      <c r="C46" s="109"/>
+      <c r="D46" s="109"/>
+      <c r="E46" s="128"/>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B47" s="89" t="s">
+      <c r="B47" s="95" t="s">
         <v>6</v>
       </c>
       <c r="C47" s="46" t="s">
@@ -3273,7 +3279,7 @@
       </c>
     </row>
     <row r="48" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="107"/>
+      <c r="B48" s="120"/>
       <c r="C48" s="15" t="s">
         <v>67</v>
       </c>
@@ -3297,20 +3303,20 @@
       <c r="E50" s="37"/>
     </row>
     <row r="51" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B51" s="118" t="s">
+      <c r="B51" s="151" t="s">
         <v>81</v>
       </c>
-      <c r="C51" s="119"/>
-      <c r="D51" s="119"/>
-      <c r="E51" s="120"/>
+      <c r="C51" s="152"/>
+      <c r="D51" s="152"/>
+      <c r="E51" s="153"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B52" s="124" t="s">
-        <v>249</v>
-      </c>
-      <c r="C52" s="125"/>
-      <c r="D52" s="125"/>
-      <c r="E52" s="126"/>
+      <c r="B52" s="154" t="s">
+        <v>248</v>
+      </c>
+      <c r="C52" s="155"/>
+      <c r="D52" s="155"/>
+      <c r="E52" s="156"/>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B53" s="17" t="s">
@@ -3336,11 +3342,11 @@
       <c r="B55" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C55" s="133" t="s">
+      <c r="C55" s="157" t="s">
         <v>82</v>
       </c>
-      <c r="D55" s="134"/>
-      <c r="E55" s="135"/>
+      <c r="D55" s="158"/>
+      <c r="E55" s="159"/>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B56" s="10"/>
@@ -3350,20 +3356,20 @@
     </row>
     <row r="57" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="58" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B58" s="118" t="s">
+      <c r="B58" s="151" t="s">
         <v>93</v>
       </c>
-      <c r="C58" s="119"/>
-      <c r="D58" s="119"/>
-      <c r="E58" s="120"/>
+      <c r="C58" s="152"/>
+      <c r="D58" s="152"/>
+      <c r="E58" s="153"/>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B59" s="124" t="s">
-        <v>250</v>
-      </c>
-      <c r="C59" s="125"/>
-      <c r="D59" s="125"/>
-      <c r="E59" s="126"/>
+      <c r="B59" s="154" t="s">
+        <v>249</v>
+      </c>
+      <c r="C59" s="155"/>
+      <c r="D59" s="155"/>
+      <c r="E59" s="156"/>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B60" s="17" t="s">
@@ -3386,7 +3392,7 @@
       <c r="E61" s="27"/>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B62" s="89" t="s">
+      <c r="B62" s="95" t="s">
         <v>6</v>
       </c>
       <c r="C62" s="2" t="s">
@@ -3400,7 +3406,7 @@
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B63" s="89"/>
+      <c r="B63" s="95"/>
       <c r="C63" s="2" t="s">
         <v>95</v>
       </c>
@@ -3412,7 +3418,7 @@
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B64" s="104"/>
+      <c r="B64" s="121"/>
       <c r="C64" s="30" t="s">
         <v>67</v>
       </c>
@@ -3422,7 +3428,7 @@
       <c r="E64" s="31"/>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B65" s="104"/>
+      <c r="B65" s="121"/>
       <c r="C65" s="30" t="s">
         <v>58</v>
       </c>
@@ -3434,7 +3440,7 @@
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B66" s="104"/>
+      <c r="B66" s="121"/>
       <c r="C66" s="30" t="s">
         <v>56</v>
       </c>
@@ -3446,7 +3452,7 @@
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B67" s="104"/>
+      <c r="B67" s="121"/>
       <c r="C67" s="30" t="s">
         <v>57</v>
       </c>
@@ -3458,7 +3464,7 @@
       </c>
     </row>
     <row r="68" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="107"/>
+      <c r="B68" s="120"/>
       <c r="C68" s="15" t="s">
         <v>96</v>
       </c>
@@ -3471,6 +3477,24 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="B62:B68"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="B28:B34"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B42:B45"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B23:E23"/>
@@ -3481,24 +3505,6 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B28:B34"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="B62:B68"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="C55:E55"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3550,19 +3556,19 @@
   <sheetData>
     <row r="2" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B3" s="118"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="120"/>
+      <c r="B3" s="151"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="153"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="130"/>
-      <c r="C4" s="131"/>
-      <c r="D4" s="131"/>
-      <c r="E4" s="132"/>
+      <c r="B4" s="160"/>
+      <c r="C4" s="161"/>
+      <c r="D4" s="161"/>
+      <c r="E4" s="162"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="123" t="s">
+      <c r="B5" s="163" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="28"/>
@@ -3570,19 +3576,19 @@
       <c r="E5" s="29"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="137"/>
+      <c r="B6" s="164"/>
       <c r="C6" s="2"/>
       <c r="D6" s="32"/>
       <c r="E6" s="34"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="98"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="100"/>
+      <c r="B7" s="114"/>
+      <c r="C7" s="115"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="116"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="104" t="s">
+      <c r="B8" s="121" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="6"/>
@@ -3590,7 +3596,7 @@
       <c r="E8" s="25"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="106"/>
+      <c r="B9" s="123"/>
       <c r="C9" s="2"/>
       <c r="D9" s="8"/>
       <c r="E9" s="12"/>
@@ -3602,7 +3608,7 @@
       <c r="E10" s="27"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="104" t="s">
+      <c r="B11" s="121" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="2"/>
@@ -3610,7 +3616,7 @@
       <c r="E11" s="14"/>
     </row>
     <row r="12" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="136"/>
+      <c r="B12" s="137"/>
       <c r="C12" s="15"/>
       <c r="D12" s="21"/>
       <c r="E12" s="20"/>
@@ -3646,36 +3652,36 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="98" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="78"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="100"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="93" t="s">
+      <c r="B3" s="101" t="s">
         <v>112</v>
       </c>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="95"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="103"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="91" t="s">
+      <c r="C4" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="91"/>
-      <c r="E4" s="92"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="111"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="89"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="90"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="97"/>
     </row>
     <row r="6" spans="2:5" ht="159" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18" t="s">
@@ -3722,20 +3728,20 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="98" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="78"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="100"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="93" t="s">
+      <c r="B3" s="101" t="s">
         <v>123</v>
       </c>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="95"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="103"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="42" t="s">
@@ -3744,19 +3750,19 @@
       <c r="C4" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="96" t="s">
+      <c r="D4" s="112" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="97"/>
+      <c r="E4" s="113"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="98"/>
-      <c r="C5" s="99"/>
-      <c r="D5" s="99"/>
-      <c r="E5" s="100"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="116"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="89" t="s">
+      <c r="B6" s="95" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="38" t="s">
@@ -3770,7 +3776,7 @@
       </c>
     </row>
     <row r="7" spans="2:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B7" s="89"/>
+      <c r="B7" s="95"/>
       <c r="C7" s="7" t="s">
         <v>20</v>
       </c>
@@ -3782,13 +3788,13 @@
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="101"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="103"/>
+      <c r="B8" s="117"/>
+      <c r="C8" s="118"/>
+      <c r="D8" s="118"/>
+      <c r="E8" s="119"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="82" t="s">
+      <c r="B9" s="96" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="38" t="s">
@@ -3802,7 +3808,7 @@
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="82"/>
+      <c r="B10" s="96"/>
       <c r="C10" s="38" t="s">
         <v>25</v>
       </c>
@@ -3814,7 +3820,7 @@
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="82"/>
+      <c r="B11" s="96"/>
       <c r="C11" s="38" t="s">
         <v>114</v>
       </c>
@@ -3826,7 +3832,7 @@
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="82"/>
+      <c r="B12" s="96"/>
       <c r="C12" s="38" t="s">
         <v>115</v>
       </c>
@@ -3838,7 +3844,7 @@
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="82"/>
+      <c r="B13" s="96"/>
       <c r="C13" s="38" t="s">
         <v>116</v>
       </c>
@@ -3850,7 +3856,7 @@
       </c>
     </row>
     <row r="14" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B14" s="82"/>
+      <c r="B14" s="96"/>
       <c r="C14" s="38" t="s">
         <v>117</v>
       </c>
@@ -3898,20 +3904,20 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="98" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="78"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="100"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="93" t="s">
+      <c r="B3" s="101" t="s">
         <v>124</v>
       </c>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="95"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="103"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="42" t="s">
@@ -3920,19 +3926,19 @@
       <c r="C4" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="96" t="s">
+      <c r="D4" s="112" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="97"/>
+      <c r="E4" s="113"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="98"/>
-      <c r="C5" s="99"/>
-      <c r="D5" s="99"/>
-      <c r="E5" s="100"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="116"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="89" t="s">
+      <c r="B6" s="95" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="38" t="s">
@@ -3946,7 +3952,7 @@
       </c>
     </row>
     <row r="7" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B7" s="89"/>
+      <c r="B7" s="95"/>
       <c r="C7" s="7" t="s">
         <v>20</v>
       </c>
@@ -3958,13 +3964,13 @@
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="101"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="103"/>
+      <c r="B8" s="117"/>
+      <c r="C8" s="118"/>
+      <c r="D8" s="118"/>
+      <c r="E8" s="119"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="89" t="s">
+      <c r="B9" s="95" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="38" t="s">
@@ -3978,7 +3984,7 @@
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="89"/>
+      <c r="B10" s="95"/>
       <c r="C10" s="38" t="s">
         <v>25</v>
       </c>
@@ -3990,7 +3996,7 @@
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="89"/>
+      <c r="B11" s="95"/>
       <c r="C11" s="38" t="s">
         <v>114</v>
       </c>
@@ -4002,7 +4008,7 @@
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="89"/>
+      <c r="B12" s="95"/>
       <c r="C12" s="38" t="s">
         <v>115</v>
       </c>
@@ -4014,7 +4020,7 @@
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="89"/>
+      <c r="B13" s="95"/>
       <c r="C13" s="38" t="s">
         <v>116</v>
       </c>
@@ -4026,7 +4032,7 @@
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="89"/>
+      <c r="B14" s="95"/>
       <c r="C14" s="38" t="s">
         <v>130</v>
       </c>
@@ -4038,7 +4044,7 @@
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="89"/>
+      <c r="B15" s="95"/>
       <c r="C15" s="38" t="s">
         <v>126</v>
       </c>
@@ -4050,7 +4056,7 @@
       </c>
     </row>
     <row r="16" spans="2:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="107"/>
+      <c r="B16" s="120"/>
       <c r="C16" s="15" t="s">
         <v>117</v>
       </c>
@@ -4063,54 +4069,54 @@
     </row>
     <row r="18" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B19" s="76" t="s">
+      <c r="B19" s="98" t="s">
         <v>135</v>
       </c>
-      <c r="C19" s="77"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="78"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="99"/>
+      <c r="E19" s="100"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="93" t="s">
+      <c r="B20" s="101" t="s">
         <v>137</v>
       </c>
-      <c r="C20" s="94"/>
-      <c r="D20" s="94"/>
-      <c r="E20" s="95"/>
+      <c r="C20" s="102"/>
+      <c r="D20" s="102"/>
+      <c r="E20" s="103"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="104" t="s">
+      <c r="B21" s="121" t="s">
         <v>16</v>
       </c>
       <c r="C21" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="96" t="s">
+      <c r="D21" s="112" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="97"/>
+      <c r="E21" s="113"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="105"/>
+      <c r="B22" s="122"/>
       <c r="C22" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="D22" s="108"/>
-      <c r="E22" s="109"/>
+      <c r="D22" s="124"/>
+      <c r="E22" s="125"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="106"/>
+      <c r="B23" s="123"/>
       <c r="C23" s="43" t="s">
         <v>129</v>
       </c>
-      <c r="D23" s="108"/>
-      <c r="E23" s="109"/>
+      <c r="D23" s="124"/>
+      <c r="E23" s="125"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B24" s="98"/>
-      <c r="C24" s="99"/>
-      <c r="D24" s="99"/>
-      <c r="E24" s="100"/>
+      <c r="B24" s="114"/>
+      <c r="C24" s="115"/>
+      <c r="D24" s="115"/>
+      <c r="E24" s="116"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="39" t="s">
@@ -4127,13 +4133,13 @@
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B26" s="101"/>
-      <c r="C26" s="102"/>
-      <c r="D26" s="102"/>
-      <c r="E26" s="103"/>
+      <c r="B26" s="117"/>
+      <c r="C26" s="118"/>
+      <c r="D26" s="118"/>
+      <c r="E26" s="119"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B27" s="89" t="s">
+      <c r="B27" s="95" t="s">
         <v>6</v>
       </c>
       <c r="C27" s="38" t="s">
@@ -4147,7 +4153,7 @@
       </c>
     </row>
     <row r="28" spans="2:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="107"/>
+      <c r="B28" s="120"/>
       <c r="C28" s="15" t="s">
         <v>117</v>
       </c>
@@ -4160,22 +4166,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B24:E24"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B9:B16"/>
     <mergeCell ref="B19:E19"/>
     <mergeCell ref="B20:E20"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:B7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -4206,20 +4212,20 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="98" t="s">
         <v>145</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="78"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="100"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="93" t="s">
+      <c r="B3" s="101" t="s">
         <v>136</v>
       </c>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="95"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="103"/>
     </row>
     <row r="4" spans="2:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="39" t="s">
@@ -4228,19 +4234,19 @@
       <c r="C4" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="D4" s="83" t="s">
+      <c r="D4" s="107" t="s">
         <v>138</v>
       </c>
-      <c r="E4" s="110"/>
+      <c r="E4" s="126"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="98"/>
-      <c r="C5" s="99"/>
-      <c r="D5" s="99"/>
-      <c r="E5" s="100"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="116"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="89" t="s">
+      <c r="B6" s="95" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="38" t="s">
@@ -4254,7 +4260,7 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="89"/>
+      <c r="B7" s="95"/>
       <c r="C7" s="38" t="s">
         <v>18</v>
       </c>
@@ -4266,13 +4272,13 @@
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="111"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="112"/>
+      <c r="B8" s="127"/>
+      <c r="C8" s="109"/>
+      <c r="D8" s="109"/>
+      <c r="E8" s="128"/>
     </row>
     <row r="9" spans="2:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B9" s="89" t="s">
+      <c r="B9" s="95" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="38" t="s">
@@ -4286,7 +4292,7 @@
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="89"/>
+      <c r="B10" s="95"/>
       <c r="C10" s="38" t="s">
         <v>140</v>
       </c>
@@ -4298,7 +4304,7 @@
       </c>
     </row>
     <row r="11" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="107"/>
+      <c r="B11" s="120"/>
       <c r="C11" s="15" t="s">
         <v>141</v>
       </c>
@@ -4322,20 +4328,20 @@
       <c r="E13" s="68"/>
     </row>
     <row r="14" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B14" s="76" t="s">
+      <c r="B14" s="98" t="s">
         <v>146</v>
       </c>
-      <c r="C14" s="77"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="78"/>
+      <c r="C14" s="99"/>
+      <c r="D14" s="99"/>
+      <c r="E14" s="100"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="93" t="s">
+      <c r="B15" s="101" t="s">
         <v>147</v>
       </c>
-      <c r="C15" s="94"/>
-      <c r="D15" s="94"/>
-      <c r="E15" s="95"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="103"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="39" t="s">
@@ -4344,16 +4350,16 @@
       <c r="C16" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="D16" s="83" t="s">
+      <c r="D16" s="107" t="s">
         <v>138</v>
       </c>
-      <c r="E16" s="110"/>
+      <c r="E16" s="126"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="111"/>
-      <c r="C17" s="88"/>
-      <c r="D17" s="88"/>
-      <c r="E17" s="112"/>
+      <c r="B17" s="127"/>
+      <c r="C17" s="109"/>
+      <c r="D17" s="109"/>
+      <c r="E17" s="128"/>
     </row>
     <row r="18" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="40" t="s">
@@ -4396,8 +4402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B482E8C-E5D3-44B0-8612-77665C895F24}">
   <dimension ref="B1:E39"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23:E23"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4409,68 +4415,68 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="98" t="s">
         <v>150</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="78"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="100"/>
     </row>
     <row r="3" spans="2:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="117" t="s">
-        <v>203</v>
-      </c>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="95"/>
+      <c r="B3" s="133" t="s">
+        <v>202</v>
+      </c>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="103"/>
     </row>
     <row r="4" spans="2:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="89" t="s">
+      <c r="B4" s="95" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="D4" s="113" t="s">
+      <c r="D4" s="131" t="s">
         <v>163</v>
       </c>
-      <c r="E4" s="114"/>
+      <c r="E4" s="132"/>
     </row>
     <row r="5" spans="2:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="89"/>
+      <c r="B5" s="95"/>
       <c r="C5" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="D5" s="113" t="s">
+      <c r="D5" s="131" t="s">
         <v>162</v>
       </c>
-      <c r="E5" s="114"/>
+      <c r="E5" s="132"/>
     </row>
     <row r="6" spans="2:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="89"/>
+      <c r="B6" s="95"/>
       <c r="C6" s="38" t="s">
         <v>153</v>
       </c>
-      <c r="D6" s="113" t="s">
+      <c r="D6" s="131" t="s">
         <v>160</v>
       </c>
-      <c r="E6" s="114"/>
+      <c r="E6" s="132"/>
     </row>
     <row r="7" spans="2:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="89"/>
+      <c r="B7" s="95"/>
       <c r="C7" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="D7" s="113" t="s">
+      <c r="D7" s="131" t="s">
         <v>161</v>
       </c>
-      <c r="E7" s="114"/>
+      <c r="E7" s="132"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="98"/>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="100"/>
+      <c r="B8" s="114"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="116"/>
     </row>
     <row r="9" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B9" s="39" t="s">
@@ -4487,13 +4493,13 @@
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="111"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="112"/>
+      <c r="B10" s="127"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="128"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="89" t="s">
+      <c r="B11" s="95" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="38" t="s">
@@ -4507,7 +4513,7 @@
       </c>
     </row>
     <row r="12" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="107"/>
+      <c r="B12" s="120"/>
       <c r="C12" s="15" t="s">
         <v>113</v>
       </c>
@@ -4520,99 +4526,99 @@
     </row>
     <row r="14" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B15" s="76" t="s">
+      <c r="B15" s="98" t="s">
         <v>164</v>
       </c>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="78"/>
+      <c r="C15" s="99"/>
+      <c r="D15" s="99"/>
+      <c r="E15" s="100"/>
     </row>
     <row r="16" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="117" t="s">
-        <v>202</v>
-      </c>
-      <c r="C16" s="94"/>
-      <c r="D16" s="94"/>
-      <c r="E16" s="95"/>
+      <c r="B16" s="133" t="s">
+        <v>201</v>
+      </c>
+      <c r="C16" s="102"/>
+      <c r="D16" s="102"/>
+      <c r="E16" s="103"/>
     </row>
     <row r="17" spans="2:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="89" t="s">
+      <c r="B17" s="95" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="D17" s="113" t="s">
+      <c r="D17" s="131" t="s">
         <v>162</v>
       </c>
-      <c r="E17" s="114"/>
+      <c r="E17" s="132"/>
     </row>
     <row r="18" spans="2:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="89"/>
+      <c r="B18" s="95"/>
       <c r="C18" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="113" t="s">
+      <c r="D18" s="131" t="s">
         <v>166</v>
       </c>
-      <c r="E18" s="114"/>
+      <c r="E18" s="132"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="98"/>
-      <c r="C19" s="99"/>
-      <c r="D19" s="99"/>
-      <c r="E19" s="100"/>
+      <c r="B19" s="114"/>
+      <c r="C19" s="115"/>
+      <c r="D19" s="115"/>
+      <c r="E19" s="116"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="104" t="s">
+      <c r="B20" s="121" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="38" t="s">
-        <v>165</v>
-      </c>
-      <c r="D20" s="113" t="s">
-        <v>167</v>
-      </c>
-      <c r="E20" s="114"/>
+      <c r="C20" s="76" t="s">
+        <v>250</v>
+      </c>
+      <c r="D20" s="131" t="s">
+        <v>251</v>
+      </c>
+      <c r="E20" s="132"/>
     </row>
     <row r="21" spans="2:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="105"/>
+      <c r="B21" s="122"/>
       <c r="C21" s="38" t="s">
         <v>153</v>
       </c>
-      <c r="D21" s="113" t="s">
-        <v>169</v>
-      </c>
-      <c r="E21" s="114"/>
+      <c r="D21" s="131" t="s">
+        <v>168</v>
+      </c>
+      <c r="E21" s="132"/>
     </row>
     <row r="22" spans="2:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="105"/>
+      <c r="B22" s="122"/>
       <c r="C22" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="D22" s="113" t="s">
-        <v>170</v>
-      </c>
-      <c r="E22" s="114"/>
+      <c r="D22" s="131" t="s">
+        <v>169</v>
+      </c>
+      <c r="E22" s="132"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="106"/>
+      <c r="B23" s="123"/>
       <c r="C23" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="D23" s="115" t="s">
-        <v>171</v>
-      </c>
-      <c r="E23" s="116"/>
+      <c r="D23" s="135" t="s">
+        <v>170</v>
+      </c>
+      <c r="E23" s="136"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B24" s="111"/>
-      <c r="C24" s="88"/>
-      <c r="D24" s="88"/>
-      <c r="E24" s="112"/>
+      <c r="B24" s="127"/>
+      <c r="C24" s="109"/>
+      <c r="D24" s="109"/>
+      <c r="E24" s="128"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B25" s="89" t="s">
+      <c r="B25" s="95" t="s">
         <v>6</v>
       </c>
       <c r="C25" s="38" t="s">
@@ -4622,11 +4628,11 @@
         <v>27</v>
       </c>
       <c r="E25" s="73" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B26" s="104"/>
+      <c r="B26" s="121"/>
       <c r="C26" s="30" t="s">
         <v>165</v>
       </c>
@@ -4634,19 +4640,19 @@
         <v>97</v>
       </c>
       <c r="E26" s="75" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="107"/>
+      <c r="B27" s="120"/>
       <c r="C27" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D27" s="63" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E27" s="72" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
@@ -4657,114 +4663,117 @@
     </row>
     <row r="29" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B30" s="76" t="s">
-        <v>175</v>
-      </c>
-      <c r="C30" s="77"/>
-      <c r="D30" s="77"/>
-      <c r="E30" s="78"/>
+      <c r="B30" s="98" t="s">
+        <v>174</v>
+      </c>
+      <c r="C30" s="99"/>
+      <c r="D30" s="99"/>
+      <c r="E30" s="100"/>
     </row>
     <row r="31" spans="2:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="117" t="s">
-        <v>201</v>
-      </c>
-      <c r="C31" s="94"/>
-      <c r="D31" s="94"/>
-      <c r="E31" s="95"/>
+      <c r="B31" s="133" t="s">
+        <v>200</v>
+      </c>
+      <c r="C31" s="102"/>
+      <c r="D31" s="102"/>
+      <c r="E31" s="103"/>
     </row>
     <row r="32" spans="2:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="89" t="s">
+      <c r="B32" s="95" t="s">
         <v>16</v>
       </c>
       <c r="C32" s="46" t="s">
         <v>152</v>
       </c>
-      <c r="D32" s="113" t="s">
+      <c r="D32" s="131" t="s">
         <v>162</v>
       </c>
-      <c r="E32" s="114"/>
+      <c r="E32" s="132"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B33" s="89"/>
+      <c r="B33" s="95"/>
       <c r="C33" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="D33" s="142" t="s">
+      <c r="D33" s="129" t="s">
+        <v>177</v>
+      </c>
+      <c r="E33" s="130"/>
+    </row>
+    <row r="34" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="95"/>
+      <c r="C34" s="45" t="s">
+        <v>175</v>
+      </c>
+      <c r="D34" s="134" t="s">
+        <v>176</v>
+      </c>
+      <c r="E34" s="130"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B35" s="114"/>
+      <c r="C35" s="115"/>
+      <c r="D35" s="115"/>
+      <c r="E35" s="116"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B36" s="122" t="s">
         <v>178</v>
-      </c>
-      <c r="E33" s="141"/>
-    </row>
-    <row r="34" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="89"/>
-      <c r="C34" s="45" t="s">
-        <v>176</v>
-      </c>
-      <c r="D34" s="140" t="s">
-        <v>177</v>
-      </c>
-      <c r="E34" s="141"/>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B35" s="98"/>
-      <c r="C35" s="99"/>
-      <c r="D35" s="99"/>
-      <c r="E35" s="100"/>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B36" s="105" t="s">
-        <v>179</v>
       </c>
       <c r="C36" s="46" t="s">
         <v>153</v>
       </c>
-      <c r="D36" s="113" t="s">
-        <v>169</v>
-      </c>
-      <c r="E36" s="114"/>
+      <c r="D36" s="131" t="s">
+        <v>168</v>
+      </c>
+      <c r="E36" s="132"/>
     </row>
     <row r="37" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="105"/>
+      <c r="B37" s="122"/>
       <c r="C37" s="46" t="s">
         <v>154</v>
       </c>
-      <c r="D37" s="113" t="s">
-        <v>170</v>
-      </c>
-      <c r="E37" s="114"/>
+      <c r="D37" s="131" t="s">
+        <v>169</v>
+      </c>
+      <c r="E37" s="132"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B38" s="111"/>
-      <c r="C38" s="88"/>
-      <c r="D38" s="88"/>
-      <c r="E38" s="112"/>
+      <c r="B38" s="127"/>
+      <c r="C38" s="109"/>
+      <c r="D38" s="109"/>
+      <c r="E38" s="128"/>
     </row>
     <row r="39" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39" s="50" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C39" s="15" t="s">
         <v>33</v>
       </c>
       <c r="D39" s="63" t="s">
-        <v>181</v>
-      </c>
-      <c r="E39" s="144" t="s">
-        <v>183</v>
+        <v>180</v>
+      </c>
+      <c r="E39" s="79" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="D4:E4"/>
@@ -4774,20 +4783,17 @@
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -4816,77 +4822,77 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="98" t="s">
+        <v>206</v>
+      </c>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="100"/>
+    </row>
+    <row r="3" spans="2:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="133" t="s">
         <v>207</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="78"/>
-    </row>
-    <row r="3" spans="2:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="117" t="s">
-        <v>208</v>
-      </c>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="95"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="103"/>
     </row>
     <row r="4" spans="2:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="104" t="s">
+      <c r="B4" s="121" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="46" t="s">
         <v>151</v>
       </c>
-      <c r="D4" s="113" t="s">
+      <c r="D4" s="131" t="s">
         <v>163</v>
       </c>
-      <c r="E4" s="114"/>
+      <c r="E4" s="132"/>
     </row>
     <row r="5" spans="2:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="105"/>
+      <c r="B5" s="122"/>
       <c r="C5" s="46" t="s">
-        <v>209</v>
-      </c>
-      <c r="D5" s="113" t="s">
+        <v>208</v>
+      </c>
+      <c r="D5" s="131" t="s">
         <v>162</v>
       </c>
-      <c r="E5" s="114"/>
+      <c r="E5" s="132"/>
     </row>
     <row r="6" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="105"/>
+      <c r="B6" s="122"/>
       <c r="C6" s="46" t="s">
         <v>153</v>
       </c>
-      <c r="D6" s="113" t="s">
+      <c r="D6" s="131" t="s">
+        <v>210</v>
+      </c>
+      <c r="E6" s="132"/>
+    </row>
+    <row r="7" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="123"/>
+      <c r="C7" s="46" t="s">
+        <v>209</v>
+      </c>
+      <c r="D7" s="138" t="s">
         <v>211</v>
       </c>
-      <c r="E6" s="114"/>
-    </row>
-    <row r="7" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="106"/>
-      <c r="C7" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="D7" s="146" t="s">
-        <v>212</v>
-      </c>
-      <c r="E7" s="147"/>
+      <c r="E7" s="139"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="98"/>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="100"/>
+      <c r="B8" s="114"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="116"/>
     </row>
     <row r="9" spans="2:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="104" t="s">
+      <c r="B9" s="121" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="138" t="s">
+      <c r="D9" s="77" t="s">
         <v>37</v>
       </c>
       <c r="E9" s="22" t="s">
@@ -4894,49 +4900,49 @@
       </c>
     </row>
     <row r="10" spans="2:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="105"/>
-      <c r="C10" s="149" t="s">
+      <c r="B10" s="122"/>
+      <c r="C10" s="82" t="s">
         <v>107</v>
       </c>
-      <c r="D10" s="151" t="s">
+      <c r="D10" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="150" t="s">
+      <c r="E10" s="83" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="105"/>
-      <c r="C11" s="149" t="s">
+      <c r="B11" s="122"/>
+      <c r="C11" s="82" t="s">
+        <v>213</v>
+      </c>
+      <c r="D11" s="84" t="s">
+        <v>195</v>
+      </c>
+      <c r="E11" s="85" t="s">
         <v>214</v>
       </c>
-      <c r="D11" s="151" t="s">
-        <v>196</v>
-      </c>
-      <c r="E11" s="152" t="s">
-        <v>215</v>
-      </c>
     </row>
     <row r="12" spans="2:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="105"/>
+      <c r="B12" s="122"/>
       <c r="C12" s="46" t="s">
         <v>38</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="153" t="s">
-        <v>216</v>
+      <c r="E12" s="86" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="111"/>
-      <c r="C13" s="88"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="112"/>
+      <c r="B13" s="127"/>
+      <c r="C13" s="109"/>
+      <c r="D13" s="109"/>
+      <c r="E13" s="128"/>
     </row>
     <row r="14" spans="2:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="89" t="s">
+      <c r="B14" s="95" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="46" t="s">
@@ -4945,12 +4951,12 @@
       <c r="D14" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="148" t="s">
-        <v>213</v>
+      <c r="E14" s="81" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="107"/>
+      <c r="B15" s="120"/>
       <c r="C15" s="15" t="s">
         <v>3</v>
       </c>
@@ -4958,25 +4964,25 @@
         <v>5</v>
       </c>
       <c r="E15" s="69" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B18" s="76" t="s">
+      <c r="B18" s="98" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="77"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="78"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="99"/>
+      <c r="E18" s="100"/>
     </row>
     <row r="19" spans="2:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="117" t="s">
-        <v>217</v>
-      </c>
-      <c r="C19" s="94"/>
-      <c r="D19" s="94"/>
-      <c r="E19" s="95"/>
+      <c r="B19" s="133" t="s">
+        <v>216</v>
+      </c>
+      <c r="C19" s="102"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="103"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="51" t="s">
@@ -4985,16 +4991,16 @@
       <c r="C20" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="113" t="s">
-        <v>220</v>
-      </c>
-      <c r="E20" s="114"/>
+      <c r="D20" s="131" t="s">
+        <v>219</v>
+      </c>
+      <c r="E20" s="132"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="98"/>
-      <c r="C21" s="99"/>
-      <c r="D21" s="99"/>
-      <c r="E21" s="100"/>
+      <c r="B21" s="114"/>
+      <c r="C21" s="115"/>
+      <c r="D21" s="115"/>
+      <c r="E21" s="116"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="51" t="s">
@@ -5003,22 +5009,22 @@
       <c r="C22" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="138" t="s">
+      <c r="D22" s="77" t="s">
         <v>43</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="111"/>
-      <c r="C23" s="88"/>
-      <c r="D23" s="88"/>
-      <c r="E23" s="112"/>
+      <c r="B23" s="127"/>
+      <c r="C23" s="109"/>
+      <c r="D23" s="109"/>
+      <c r="E23" s="128"/>
     </row>
     <row r="24" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="50" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>3</v>
@@ -5027,25 +5033,25 @@
         <v>5</v>
       </c>
       <c r="E24" s="69" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B27" s="76" t="s">
+      <c r="B27" s="98" t="s">
         <v>106</v>
       </c>
-      <c r="C27" s="77"/>
-      <c r="D27" s="77"/>
-      <c r="E27" s="78"/>
+      <c r="C27" s="99"/>
+      <c r="D27" s="99"/>
+      <c r="E27" s="100"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B28" s="117" t="s">
-        <v>221</v>
-      </c>
-      <c r="C28" s="94"/>
-      <c r="D28" s="94"/>
-      <c r="E28" s="95"/>
+      <c r="B28" s="133" t="s">
+        <v>220</v>
+      </c>
+      <c r="C28" s="102"/>
+      <c r="D28" s="102"/>
+      <c r="E28" s="103"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" s="48" t="s">
@@ -5054,16 +5060,16 @@
       <c r="C29" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="113" t="s">
-        <v>220</v>
-      </c>
-      <c r="E29" s="114"/>
+      <c r="D29" s="131" t="s">
+        <v>219</v>
+      </c>
+      <c r="E29" s="132"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="98"/>
-      <c r="C30" s="99"/>
-      <c r="D30" s="99"/>
-      <c r="E30" s="100"/>
+      <c r="B30" s="114"/>
+      <c r="C30" s="115"/>
+      <c r="D30" s="115"/>
+      <c r="E30" s="116"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B31" s="48" t="s">
@@ -5072,22 +5078,22 @@
       <c r="C31" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="D31" s="138" t="s">
+      <c r="D31" s="77" t="s">
         <v>43</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B32" s="111"/>
-      <c r="C32" s="88"/>
-      <c r="D32" s="88"/>
-      <c r="E32" s="112"/>
+      <c r="B32" s="127"/>
+      <c r="C32" s="109"/>
+      <c r="D32" s="109"/>
+      <c r="E32" s="128"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B33" s="104" t="s">
-        <v>180</v>
+      <c r="B33" s="121" t="s">
+        <v>179</v>
       </c>
       <c r="C33" s="46" t="s">
         <v>3</v>
@@ -5095,24 +5101,36 @@
       <c r="D33" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="E33" s="148" t="s">
-        <v>219</v>
+      <c r="E33" s="81" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="34" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="136"/>
+      <c r="B34" s="137"/>
       <c r="C34" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="D34" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="D34" s="19" t="s">
+      <c r="E34" s="16" t="s">
         <v>223</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>224</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B13:E13"/>
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="B32:E32"/>
     <mergeCell ref="B18:E18"/>
@@ -5122,19 +5140,7 @@
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B27:E27"/>
     <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="B8:E8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5159,48 +5165,48 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B2" s="76" t="s">
-        <v>184</v>
-      </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="78"/>
+      <c r="B2" s="98" t="s">
+        <v>183</v>
+      </c>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="100"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="93" t="s">
-        <v>198</v>
-      </c>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="95"/>
+      <c r="B3" s="101" t="s">
+        <v>197</v>
+      </c>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="103"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="104" t="s">
+      <c r="B4" s="121" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="55" t="s">
         <v>152</v>
       </c>
-      <c r="D4" s="96" t="s">
+      <c r="D4" s="112" t="s">
+        <v>185</v>
+      </c>
+      <c r="E4" s="113"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="123"/>
+      <c r="C5" s="55" t="s">
+        <v>184</v>
+      </c>
+      <c r="D5" s="124" t="s">
         <v>186</v>
       </c>
-      <c r="E4" s="97"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="106"/>
-      <c r="C5" s="55" t="s">
-        <v>185</v>
-      </c>
-      <c r="D5" s="108" t="s">
-        <v>187</v>
-      </c>
-      <c r="E5" s="109"/>
+      <c r="E5" s="125"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="98"/>
-      <c r="C6" s="99"/>
-      <c r="D6" s="99"/>
-      <c r="E6" s="100"/>
+      <c r="B6" s="114"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="116"/>
     </row>
     <row r="7" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="50" t="s">
@@ -5212,54 +5218,54 @@
       <c r="D7" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="144" t="s">
-        <v>188</v>
+      <c r="E7" s="79" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B10" s="76" t="s">
-        <v>190</v>
-      </c>
-      <c r="C10" s="77"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="78"/>
+      <c r="B10" s="98" t="s">
+        <v>189</v>
+      </c>
+      <c r="C10" s="99"/>
+      <c r="D10" s="99"/>
+      <c r="E10" s="100"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="93" t="s">
-        <v>199</v>
-      </c>
-      <c r="C11" s="94"/>
-      <c r="D11" s="94"/>
-      <c r="E11" s="95"/>
+      <c r="B11" s="101" t="s">
+        <v>198</v>
+      </c>
+      <c r="C11" s="102"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="103"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="104" t="s">
+      <c r="B12" s="121" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="55" t="s">
         <v>152</v>
       </c>
-      <c r="D12" s="96" t="s">
+      <c r="D12" s="112" t="s">
+        <v>185</v>
+      </c>
+      <c r="E12" s="113"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="123"/>
+      <c r="C13" s="55" t="s">
+        <v>192</v>
+      </c>
+      <c r="D13" s="124" t="s">
         <v>186</v>
       </c>
-      <c r="E12" s="97"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="106"/>
-      <c r="C13" s="55" t="s">
-        <v>193</v>
-      </c>
-      <c r="D13" s="108" t="s">
-        <v>187</v>
-      </c>
-      <c r="E13" s="109"/>
+      <c r="E13" s="125"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="122"/>
-      <c r="C14" s="80"/>
-      <c r="D14" s="80"/>
-      <c r="E14" s="121"/>
+      <c r="B14" s="140"/>
+      <c r="C14" s="105"/>
+      <c r="D14" s="105"/>
+      <c r="E14" s="141"/>
     </row>
     <row r="15" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B15" s="48" t="s">
@@ -5272,14 +5278,14 @@
         <v>21</v>
       </c>
       <c r="E15" s="33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="98"/>
-      <c r="C16" s="99"/>
-      <c r="D16" s="99"/>
-      <c r="E16" s="100"/>
+      <c r="B16" s="114"/>
+      <c r="C16" s="115"/>
+      <c r="D16" s="115"/>
+      <c r="E16" s="116"/>
     </row>
     <row r="17" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="50" t="s">
@@ -5292,56 +5298,56 @@
         <v>5</v>
       </c>
       <c r="E17" s="69" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B20" s="76" t="s">
-        <v>192</v>
-      </c>
-      <c r="C20" s="77"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="78"/>
+      <c r="B20" s="98" t="s">
+        <v>191</v>
+      </c>
+      <c r="C20" s="99"/>
+      <c r="D20" s="99"/>
+      <c r="E20" s="100"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="93" t="s">
-        <v>200</v>
-      </c>
-      <c r="C21" s="94"/>
-      <c r="D21" s="94"/>
-      <c r="E21" s="95"/>
+      <c r="B21" s="101" t="s">
+        <v>199</v>
+      </c>
+      <c r="C21" s="102"/>
+      <c r="D21" s="102"/>
+      <c r="E21" s="103"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="104" t="s">
+      <c r="B22" s="121" t="s">
         <v>16</v>
       </c>
       <c r="C22" s="55" t="s">
         <v>152</v>
       </c>
-      <c r="D22" s="96" t="s">
+      <c r="D22" s="112" t="s">
+        <v>185</v>
+      </c>
+      <c r="E22" s="113"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23" s="123"/>
+      <c r="C23" s="55" t="s">
+        <v>192</v>
+      </c>
+      <c r="D23" s="124" t="s">
         <v>186</v>
       </c>
-      <c r="E22" s="97"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="106"/>
-      <c r="C23" s="55" t="s">
-        <v>193</v>
-      </c>
-      <c r="D23" s="108" t="s">
-        <v>187</v>
-      </c>
-      <c r="E23" s="109"/>
+      <c r="E23" s="125"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B24" s="122"/>
-      <c r="C24" s="80"/>
-      <c r="D24" s="80"/>
-      <c r="E24" s="121"/>
+      <c r="B24" s="140"/>
+      <c r="C24" s="105"/>
+      <c r="D24" s="105"/>
+      <c r="E24" s="141"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B25" s="104" t="s">
+      <c r="B25" s="121" t="s">
         <v>2</v>
       </c>
       <c r="C25" s="46" t="s">
@@ -5351,38 +5357,38 @@
         <v>43</v>
       </c>
       <c r="E25" s="64" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="105"/>
+      <c r="B26" s="122"/>
       <c r="C26" s="46" t="s">
+        <v>194</v>
+      </c>
+      <c r="D26" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="D26" s="32" t="s">
-        <v>196</v>
-      </c>
       <c r="E26" s="64" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="123"/>
+      <c r="C27" s="46" t="s">
+        <v>193</v>
+      </c>
+      <c r="D27" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="E27" s="80" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="106"/>
-      <c r="C27" s="46" t="s">
-        <v>194</v>
-      </c>
-      <c r="D27" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="E27" s="145" t="s">
-        <v>206</v>
-      </c>
-    </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B28" s="98"/>
-      <c r="C28" s="99"/>
-      <c r="D28" s="99"/>
-      <c r="E28" s="100"/>
+      <c r="B28" s="114"/>
+      <c r="C28" s="115"/>
+      <c r="D28" s="115"/>
+      <c r="E28" s="116"/>
     </row>
     <row r="29" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="50" t="s">
@@ -5392,20 +5398,21 @@
         <v>26</v>
       </c>
       <c r="D29" s="63" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E29" s="69" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B4:B5"/>
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="B20:E20"/>
     <mergeCell ref="B21:E21"/>
@@ -5414,13 +5421,12 @@
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B25:B27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -5447,36 +5453,36 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="98" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="78"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="100"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="85" t="s">
-        <v>229</v>
-      </c>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="87"/>
+      <c r="B3" s="142" t="s">
+        <v>228</v>
+      </c>
+      <c r="C3" s="143"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="144"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="127" t="s">
+      <c r="C4" s="145" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="128"/>
-      <c r="E4" s="129"/>
+      <c r="D4" s="146"/>
+      <c r="E4" s="147"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="98"/>
-      <c r="C5" s="99"/>
-      <c r="D5" s="99"/>
-      <c r="E5" s="100"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="116"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="48" t="s">
@@ -5493,10 +5499,10 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="111"/>
-      <c r="C7" s="88"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="112"/>
+      <c r="B7" s="127"/>
+      <c r="C7" s="109"/>
+      <c r="D7" s="109"/>
+      <c r="E7" s="128"/>
     </row>
     <row r="8" spans="2:5" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="50" t="s">
@@ -5509,41 +5515,41 @@
         <v>27</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B11" s="76" t="s">
+      <c r="B11" s="98" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="77"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="78"/>
+      <c r="C11" s="99"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="100"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="85" t="s">
-        <v>231</v>
-      </c>
-      <c r="C12" s="86"/>
-      <c r="D12" s="86"/>
-      <c r="E12" s="87"/>
+      <c r="B12" s="142" t="s">
+        <v>230</v>
+      </c>
+      <c r="C12" s="143"/>
+      <c r="D12" s="143"/>
+      <c r="E12" s="144"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="127" t="s">
+      <c r="C13" s="145" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="128"/>
-      <c r="E13" s="129"/>
+      <c r="D13" s="146"/>
+      <c r="E13" s="147"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="98"/>
-      <c r="C14" s="99"/>
-      <c r="D14" s="99"/>
-      <c r="E14" s="100"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="115"/>
+      <c r="D14" s="115"/>
+      <c r="E14" s="116"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="17" t="s">
@@ -5560,13 +5566,13 @@
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="111"/>
-      <c r="C16" s="88"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="112"/>
+      <c r="B16" s="127"/>
+      <c r="C16" s="109"/>
+      <c r="D16" s="109"/>
+      <c r="E16" s="128"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="89" t="s">
+      <c r="B17" s="95" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -5580,7 +5586,7 @@
       </c>
     </row>
     <row r="18" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B18" s="89"/>
+      <c r="B18" s="95"/>
       <c r="C18" s="2" t="s">
         <v>51</v>
       </c>
@@ -5593,17 +5599,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B16:E16"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="C13:E13"/>
     <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B16:E16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/数据融合中心 数据服务API2(更新中).xlsx
+++ b/doc/数据融合中心 数据服务API2(更新中).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACFF4989-4B8F-4FCA-B6A7-04F5E0D50768}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0034FA5A-9D3B-43AE-A94C-6751D99FEBB6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="790" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,8 +11,8 @@
     <sheet name="权限" sheetId="1" r:id="rId1"/>
     <sheet name="菜单" sheetId="2" r:id="rId2"/>
     <sheet name="列表模板" sheetId="10" r:id="rId3"/>
-    <sheet name="树形模板" sheetId="11" r:id="rId4"/>
-    <sheet name="通用分页实体查询" sheetId="12" r:id="rId5"/>
+    <sheet name="通用分页实体查询" sheetId="12" r:id="rId4"/>
+    <sheet name="树形模板" sheetId="11" r:id="rId5"/>
     <sheet name="详情" sheetId="15" r:id="rId6"/>
     <sheet name="实体操作" sheetId="13" r:id="rId7"/>
     <sheet name="关系实体选择" sheetId="14" r:id="rId8"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="258">
   <si>
     <t>username</t>
   </si>
@@ -558,10 +558,6 @@
     </r>
   </si>
   <si>
-    <t>/api2/menu/getMenu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>menu</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1078,12 +1074,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/api2/entity/curd/dtmpl_config/{contextType:normal}/{validateSign:user|\\d+}/*
-/api2/entity/curd/dtmpl_config/{contextType:rabc}/{validateSign:user|\\d+}/{fieldGroupId}
-/api2/entity/curd/dtmpl_config/{contextType:node}/{validateSign:user|\\d+}/{nodeId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>请求的code对应的codes</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1112,13 +1102,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/save/{contextType:normal}/{validateSign:user|\\d+}
-/save/{contextType:normal}/{validateSign:user|\\d+}/*
-/save/{contextType:rabc}/{validateSign:user|\\d+}/{fieldGroupId}
-/save/{contextType:node}/{validateSign:user|\\d+}/{nodeId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>validateSign</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1273,12 +1256,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/api2/entity/detail/{validateSign:\\d+}/{entityCode}
-/api2/entity/detail/{validateSign:user}
-/api2/entity/detail/{validateSign:user}/*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/api2/entity/export/download/{uuid}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1291,6 +1268,53 @@
   </si>
   <si>
     <t>指定要获取的详情的版本号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disabledColIds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非必须</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当在统计时需要移除部分表头时传入，用逗号分隔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Object</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计视图模板数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api2/meta/menu/get_menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api2/meta/tmpl/dtmpl_config/{contextType:normal}/{validateSign:user|\\d+}/*
+/api2/meta/tmpl/dtmpl_config/{contextType:rabc}/{validateSign:user|\\d+}/{fieldGroupId}
+/api2/meta/tmpl/dtmpl_config/{contextType:node}/{validateSign:user|\\d+}/{nodeId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api2/entity/curd/save/{contextType:normal}/{validateSign:user|\\d+}
+/api2/entity/curd/save/{contextType:normal}/{validateSign:user|\\d+}/*
+/api2/entity/curd/save/{contextType:rabc}/{validateSign:user|\\d+}/{fieldGroupId}
+/api2/entity/curd/save/{contextType:node}/{validateSign:user|\\d+}/{nodeId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api2/entity/export/detail/{validateSign:\\d+}/{entityCode}
+/api2/entity/export/detail/{validateSign:user}
+/api2/entity/export/detail/{validateSign:user}/*</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1849,7 +1873,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1979,9 +2003,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2127,12 +2148,33 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2145,15 +2187,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2163,15 +2196,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2205,6 +2229,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2214,12 +2244,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2229,54 +2253,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2286,42 +2292,42 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2336,6 +2342,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2641,61 +2656,61 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="104" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="100"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="106"/>
     </row>
     <row r="3" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="101" t="s">
+      <c r="B3" s="98" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="103"/>
-      <c r="G3" s="107" t="s">
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="100"/>
+      <c r="G3" s="95" t="s">
         <v>111</v>
       </c>
-      <c r="H3" s="56"/>
+      <c r="H3" s="55"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B4" s="96" t="s">
+      <c r="B4" s="97" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="109" t="s">
+      <c r="D4" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="109"/>
-      <c r="G4" s="108"/>
-      <c r="H4" s="56"/>
+      <c r="E4" s="101"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="55"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="96"/>
+      <c r="B5" s="97"/>
       <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="109" t="s">
+      <c r="D5" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="109"/>
-      <c r="G5" s="108"/>
-      <c r="H5" s="56"/>
+      <c r="E5" s="101"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="55"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B6" s="104"/>
-      <c r="C6" s="105"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="106"/>
-      <c r="G6" s="108"/>
-      <c r="H6" s="56"/>
+      <c r="B6" s="107"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="109"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="55"/>
     </row>
     <row r="7" spans="2:8" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B7" s="96" t="s">
+      <c r="B7" s="97" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -2707,11 +2722,11 @@
       <c r="E7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="108"/>
-      <c r="H7" s="56"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="55"/>
     </row>
     <row r="8" spans="2:8" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="B8" s="96"/>
+      <c r="B8" s="97"/>
       <c r="C8" s="2" t="s">
         <v>4</v>
       </c>
@@ -2721,11 +2736,11 @@
       <c r="E8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="108"/>
-      <c r="H8" s="56"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="55"/>
     </row>
     <row r="9" spans="2:8" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B9" s="96"/>
+      <c r="B9" s="97"/>
       <c r="C9" s="2" t="s">
         <v>10</v>
       </c>
@@ -2735,77 +2750,77 @@
       <c r="E9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="108"/>
-      <c r="H9" s="56"/>
+      <c r="G9" s="96"/>
+      <c r="H9" s="55"/>
     </row>
     <row r="10" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="2:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B11" s="98" t="s">
+      <c r="B11" s="104" t="s">
+        <v>221</v>
+      </c>
+      <c r="C11" s="105"/>
+      <c r="D11" s="105"/>
+      <c r="E11" s="106"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B12" s="98" t="s">
+        <v>222</v>
+      </c>
+      <c r="C12" s="99"/>
+      <c r="D12" s="99"/>
+      <c r="E12" s="100"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B13" s="102"/>
+      <c r="C13" s="97"/>
+      <c r="D13" s="97"/>
+      <c r="E13" s="103"/>
+    </row>
+    <row r="14" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="D14" s="86" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="89" t="s">
         <v>224</v>
       </c>
-      <c r="C11" s="99"/>
-      <c r="D11" s="99"/>
-      <c r="E11" s="100"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B12" s="101" t="s">
-        <v>225</v>
-      </c>
-      <c r="C12" s="102"/>
-      <c r="D12" s="102"/>
-      <c r="E12" s="103"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B13" s="95"/>
-      <c r="C13" s="96"/>
-      <c r="D13" s="96"/>
-      <c r="E13" s="97"/>
-    </row>
-    <row r="14" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="D14" s="87" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="90" t="s">
-        <v>227</v>
-      </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B15" s="88"/>
-      <c r="C15" s="89"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="88"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="87"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B16" s="88"/>
-      <c r="C16" s="89"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="88"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="87"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="88"/>
-      <c r="C17" s="89"/>
-      <c r="D17" s="88"/>
-      <c r="E17" s="88"/>
+      <c r="B17" s="87"/>
+      <c r="C17" s="88"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="G3:G9"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:B9"/>
+    <mergeCell ref="G3:G9"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -2820,8 +2835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F12133-6522-4FD6-BDD7-D45B2101BAE5}">
   <dimension ref="B1:F68"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39:B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2834,32 +2849,32 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B2" s="98" t="s">
-        <v>231</v>
-      </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="100"/>
+      <c r="B2" s="104" t="s">
+        <v>228</v>
+      </c>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="106"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="101" t="s">
-        <v>232</v>
-      </c>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="103"/>
+      <c r="B3" s="98" t="s">
+        <v>229</v>
+      </c>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="100"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="48"/>
+      <c r="B4" s="47"/>
       <c r="C4" s="7"/>
       <c r="D4" s="32"/>
-      <c r="E4" s="64"/>
+      <c r="E4" s="63"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="45" t="s">
         <v>67</v>
       </c>
       <c r="D5" s="9" t="s">
@@ -2870,49 +2885,49 @@
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="66"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="92"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="91"/>
     </row>
     <row r="7" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B8" s="98" t="s">
+      <c r="B8" s="104" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="100"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="106"/>
     </row>
     <row r="9" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="101" t="s">
-        <v>234</v>
-      </c>
-      <c r="C9" s="102"/>
-      <c r="D9" s="102"/>
-      <c r="E9" s="103"/>
+      <c r="B9" s="98" t="s">
+        <v>231</v>
+      </c>
+      <c r="C9" s="99"/>
+      <c r="D9" s="99"/>
+      <c r="E9" s="100"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="121" t="s">
+      <c r="B10" s="123" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="46" t="s">
+      <c r="C10" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="149" t="s">
+      <c r="D10" s="151" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="150"/>
+      <c r="E10" s="152"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="123"/>
-      <c r="C11" s="46" t="s">
-        <v>233</v>
-      </c>
-      <c r="D11" s="135" t="s">
-        <v>235</v>
-      </c>
-      <c r="E11" s="136"/>
+      <c r="B11" s="125"/>
+      <c r="C11" s="45" t="s">
+        <v>230</v>
+      </c>
+      <c r="D11" s="131" t="s">
+        <v>232</v>
+      </c>
+      <c r="E11" s="132"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="114"/>
@@ -2921,7 +2936,7 @@
       <c r="E12" s="116"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="95" t="s">
+      <c r="B13" s="102" t="s">
         <v>55</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -2931,11 +2946,11 @@
         <v>63</v>
       </c>
       <c r="E13" s="33" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="95"/>
+      <c r="B14" s="102"/>
       <c r="C14" s="2" t="s">
         <v>56</v>
       </c>
@@ -2947,7 +2962,7 @@
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="95"/>
+      <c r="B15" s="102"/>
       <c r="C15" s="2" t="s">
         <v>57</v>
       </c>
@@ -2959,7 +2974,7 @@
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="95"/>
+      <c r="B16" s="102"/>
       <c r="C16" s="2" t="s">
         <v>59</v>
       </c>
@@ -2971,27 +2986,27 @@
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="95"/>
+      <c r="B17" s="102"/>
       <c r="C17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D17" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="E17" s="53" t="s">
-        <v>237</v>
+      <c r="E17" s="52" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="95"/>
-      <c r="C18" s="46" t="s">
-        <v>175</v>
+      <c r="B18" s="102"/>
+      <c r="C18" s="45" t="s">
+        <v>174</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="E18" s="53" t="s">
-        <v>238</v>
+        <v>233</v>
+      </c>
+      <c r="E18" s="52" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
@@ -3015,66 +3030,66 @@
       </c>
     </row>
     <row r="23" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B23" s="148" t="s">
+      <c r="B23" s="153" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="148"/>
-      <c r="D23" s="148"/>
-      <c r="E23" s="148"/>
+      <c r="C23" s="153"/>
+      <c r="D23" s="153"/>
+      <c r="E23" s="153"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B24" s="102" t="s">
+      <c r="B24" s="99" t="s">
+        <v>237</v>
+      </c>
+      <c r="C24" s="99"/>
+      <c r="D24" s="99"/>
+      <c r="E24" s="99"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B25" s="97" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="48" t="s">
+        <v>238</v>
+      </c>
+      <c r="D25" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="E25" s="92" t="s">
         <v>240</v>
       </c>
-      <c r="C24" s="102"/>
-      <c r="D24" s="102"/>
-      <c r="E24" s="102"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B25" s="96" t="s">
-        <v>2</v>
-      </c>
-      <c r="C25" s="49" t="s">
-        <v>241</v>
-      </c>
-      <c r="D25" s="32" t="s">
-        <v>242</v>
-      </c>
-      <c r="E25" s="93" t="s">
-        <v>243</v>
-      </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B26" s="96"/>
-      <c r="C26" s="46" t="s">
+      <c r="B26" s="97"/>
+      <c r="C26" s="45" t="s">
         <v>103</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E26" s="52" t="s">
+      <c r="E26" s="51" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B27" s="47"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B28" s="96" t="s">
+      <c r="B28" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="46" t="s">
+      <c r="C28" s="45" t="s">
         <v>67</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="44"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B29" s="96"/>
-      <c r="C29" s="46" t="s">
+      <c r="B29" s="97"/>
+      <c r="C29" s="45" t="s">
         <v>69</v>
       </c>
       <c r="D29" s="9" t="s">
@@ -3085,8 +3100,8 @@
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="96"/>
-      <c r="C30" s="46" t="s">
+      <c r="B30" s="97"/>
+      <c r="C30" s="45" t="s">
         <v>70</v>
       </c>
       <c r="D30" s="9" t="s">
@@ -3097,8 +3112,8 @@
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B31" s="96"/>
-      <c r="C31" s="46" t="s">
+      <c r="B31" s="97"/>
+      <c r="C31" s="45" t="s">
         <v>71</v>
       </c>
       <c r="D31" s="9" t="s">
@@ -3109,8 +3124,8 @@
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B32" s="96"/>
-      <c r="C32" s="46" t="s">
+      <c r="B32" s="97"/>
+      <c r="C32" s="45" t="s">
         <v>72</v>
       </c>
       <c r="D32" s="9" t="s">
@@ -3121,8 +3136,8 @@
       </c>
     </row>
     <row r="33" spans="2:6" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="B33" s="96"/>
-      <c r="C33" s="46" t="s">
+      <c r="B33" s="97"/>
+      <c r="C33" s="45" t="s">
         <v>74</v>
       </c>
       <c r="D33" s="9" t="s">
@@ -3133,8 +3148,8 @@
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B34" s="96"/>
-      <c r="C34" s="46" t="s">
+      <c r="B34" s="97"/>
+      <c r="C34" s="45" t="s">
         <v>73</v>
       </c>
       <c r="D34" s="9" t="s">
@@ -3157,118 +3172,118 @@
       <c r="E36" s="37"/>
     </row>
     <row r="37" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B37" s="98" t="s">
+      <c r="B37" s="104" t="s">
         <v>86</v>
       </c>
-      <c r="C37" s="99"/>
-      <c r="D37" s="99"/>
-      <c r="E37" s="100"/>
+      <c r="C37" s="105"/>
+      <c r="D37" s="105"/>
+      <c r="E37" s="106"/>
     </row>
     <row r="38" spans="2:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="133" t="s">
-        <v>247</v>
-      </c>
-      <c r="C38" s="102"/>
-      <c r="D38" s="102"/>
-      <c r="E38" s="103"/>
-      <c r="F38" s="88"/>
+        <v>257</v>
+      </c>
+      <c r="C38" s="99"/>
+      <c r="D38" s="99"/>
+      <c r="E38" s="100"/>
+      <c r="F38" s="87"/>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B39" s="95" t="s">
+      <c r="B39" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="46" t="s">
-        <v>152</v>
-      </c>
-      <c r="D39" s="149" t="s">
+      <c r="C39" s="45" t="s">
+        <v>151</v>
+      </c>
+      <c r="D39" s="151" t="s">
         <v>87</v>
       </c>
-      <c r="E39" s="150"/>
-      <c r="F39" s="88"/>
+      <c r="E39" s="152"/>
+      <c r="F39" s="87"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B40" s="95"/>
-      <c r="C40" s="46" t="s">
-        <v>244</v>
+      <c r="B40" s="102"/>
+      <c r="C40" s="45" t="s">
+        <v>241</v>
       </c>
       <c r="D40" s="112" t="s">
         <v>88</v>
       </c>
       <c r="E40" s="113"/>
-      <c r="F40" s="88"/>
+      <c r="F40" s="87"/>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B41" s="114"/>
       <c r="C41" s="115"/>
       <c r="D41" s="115"/>
       <c r="E41" s="116"/>
-      <c r="F41" s="88"/>
+      <c r="F41" s="87"/>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B42" s="95" t="s">
+      <c r="B42" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="C42" s="46" t="s">
+      <c r="C42" s="45" t="s">
         <v>89</v>
       </c>
       <c r="D42" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="E42" s="53" t="s">
+      <c r="E42" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="F42" s="88"/>
+      <c r="F42" s="87"/>
     </row>
     <row r="43" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B43" s="95"/>
-      <c r="C43" s="46" t="s">
-        <v>209</v>
+      <c r="B43" s="102"/>
+      <c r="C43" s="45" t="s">
+        <v>206</v>
       </c>
       <c r="D43" s="32" t="s">
-        <v>195</v>
-      </c>
-      <c r="E43" s="78" t="s">
+        <v>194</v>
+      </c>
+      <c r="E43" s="77" t="s">
+        <v>167</v>
+      </c>
+      <c r="F43" s="93"/>
+    </row>
+    <row r="44" spans="2:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="102"/>
+      <c r="C44" s="45" t="s">
+        <v>242</v>
+      </c>
+      <c r="D44" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="E44" s="77" t="s">
         <v>168</v>
       </c>
-      <c r="F43" s="94"/>
-    </row>
-    <row r="44" spans="2:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="95"/>
-      <c r="C44" s="46" t="s">
-        <v>245</v>
-      </c>
-      <c r="D44" s="32" t="s">
-        <v>195</v>
-      </c>
-      <c r="E44" s="78" t="s">
-        <v>169</v>
-      </c>
-      <c r="F44" s="94"/>
+      <c r="F44" s="93"/>
     </row>
     <row r="45" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B45" s="95"/>
-      <c r="C45" s="46" t="s">
-        <v>213</v>
+      <c r="B45" s="102"/>
+      <c r="C45" s="45" t="s">
+        <v>210</v>
       </c>
       <c r="D45" s="32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E45" s="33" t="s">
-        <v>246</v>
-      </c>
-      <c r="F45" s="88"/>
+        <v>243</v>
+      </c>
+      <c r="F45" s="87"/>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B46" s="127"/>
-      <c r="C46" s="109"/>
-      <c r="D46" s="109"/>
+      <c r="C46" s="101"/>
+      <c r="D46" s="101"/>
       <c r="E46" s="128"/>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B47" s="95" t="s">
+      <c r="B47" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="C47" s="46" t="s">
+      <c r="C47" s="45" t="s">
         <v>3</v>
       </c>
       <c r="D47" s="9" t="s">
@@ -3303,20 +3318,20 @@
       <c r="E50" s="37"/>
     </row>
     <row r="51" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B51" s="151" t="s">
+      <c r="B51" s="142" t="s">
         <v>81</v>
       </c>
-      <c r="C51" s="152"/>
-      <c r="D51" s="152"/>
-      <c r="E51" s="153"/>
+      <c r="C51" s="143"/>
+      <c r="D51" s="143"/>
+      <c r="E51" s="144"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B52" s="154" t="s">
-        <v>248</v>
-      </c>
-      <c r="C52" s="155"/>
-      <c r="D52" s="155"/>
-      <c r="E52" s="156"/>
+      <c r="B52" s="145" t="s">
+        <v>244</v>
+      </c>
+      <c r="C52" s="146"/>
+      <c r="D52" s="146"/>
+      <c r="E52" s="147"/>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B53" s="17" t="s">
@@ -3342,11 +3357,11 @@
       <c r="B55" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C55" s="157" t="s">
+      <c r="C55" s="148" t="s">
         <v>82</v>
       </c>
-      <c r="D55" s="158"/>
-      <c r="E55" s="159"/>
+      <c r="D55" s="149"/>
+      <c r="E55" s="150"/>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B56" s="10"/>
@@ -3356,20 +3371,20 @@
     </row>
     <row r="57" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="58" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B58" s="151" t="s">
+      <c r="B58" s="142" t="s">
         <v>93</v>
       </c>
-      <c r="C58" s="152"/>
-      <c r="D58" s="152"/>
-      <c r="E58" s="153"/>
+      <c r="C58" s="143"/>
+      <c r="D58" s="143"/>
+      <c r="E58" s="144"/>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B59" s="154" t="s">
-        <v>249</v>
-      </c>
-      <c r="C59" s="155"/>
-      <c r="D59" s="155"/>
-      <c r="E59" s="156"/>
+      <c r="B59" s="145" t="s">
+        <v>245</v>
+      </c>
+      <c r="C59" s="146"/>
+      <c r="D59" s="146"/>
+      <c r="E59" s="147"/>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B60" s="17" t="s">
@@ -3392,7 +3407,7 @@
       <c r="E61" s="27"/>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B62" s="95" t="s">
+      <c r="B62" s="102" t="s">
         <v>6</v>
       </c>
       <c r="C62" s="2" t="s">
@@ -3406,7 +3421,7 @@
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B63" s="95"/>
+      <c r="B63" s="102"/>
       <c r="C63" s="2" t="s">
         <v>95</v>
       </c>
@@ -3418,7 +3433,7 @@
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B64" s="121"/>
+      <c r="B64" s="123"/>
       <c r="C64" s="30" t="s">
         <v>67</v>
       </c>
@@ -3428,7 +3443,7 @@
       <c r="E64" s="31"/>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B65" s="121"/>
+      <c r="B65" s="123"/>
       <c r="C65" s="30" t="s">
         <v>58</v>
       </c>
@@ -3440,7 +3455,7 @@
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B66" s="121"/>
+      <c r="B66" s="123"/>
       <c r="C66" s="30" t="s">
         <v>56</v>
       </c>
@@ -3452,7 +3467,7 @@
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B67" s="121"/>
+      <c r="B67" s="123"/>
       <c r="C67" s="30" t="s">
         <v>57</v>
       </c>
@@ -3477,14 +3492,16 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="B62:B68"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:B18"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="D11:E11"/>
     <mergeCell ref="B28:B34"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="B51:E51"/>
@@ -3495,16 +3512,14 @@
     <mergeCell ref="D40:E40"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="B42:B45"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:B18"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="B62:B68"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="C55:E55"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3556,19 +3571,19 @@
   <sheetData>
     <row r="2" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B3" s="151"/>
-      <c r="C3" s="152"/>
-      <c r="D3" s="152"/>
-      <c r="E3" s="153"/>
+      <c r="B3" s="142"/>
+      <c r="C3" s="143"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="144"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="160"/>
-      <c r="C4" s="161"/>
-      <c r="D4" s="161"/>
-      <c r="E4" s="162"/>
+      <c r="B4" s="154"/>
+      <c r="C4" s="155"/>
+      <c r="D4" s="155"/>
+      <c r="E4" s="156"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="163" t="s">
+      <c r="B5" s="157" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="28"/>
@@ -3576,7 +3591,7 @@
       <c r="E5" s="29"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="164"/>
+      <c r="B6" s="158"/>
       <c r="C6" s="2"/>
       <c r="D6" s="32"/>
       <c r="E6" s="34"/>
@@ -3588,7 +3603,7 @@
       <c r="E7" s="116"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="121" t="s">
+      <c r="B8" s="123" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="6"/>
@@ -3596,7 +3611,7 @@
       <c r="E8" s="25"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="123"/>
+      <c r="B9" s="125"/>
       <c r="C9" s="2"/>
       <c r="D9" s="8"/>
       <c r="E9" s="12"/>
@@ -3608,7 +3623,7 @@
       <c r="E10" s="27"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="121" t="s">
+      <c r="B11" s="123" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="2"/>
@@ -3616,7 +3631,7 @@
       <c r="E11" s="14"/>
     </row>
     <row r="12" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="137"/>
+      <c r="B12" s="136"/>
       <c r="C12" s="15"/>
       <c r="D12" s="21"/>
       <c r="E12" s="20"/>
@@ -3640,7 +3655,7 @@
   <dimension ref="B1:E6"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3652,20 +3667,20 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="104" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="100"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="106"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="101" t="s">
-        <v>112</v>
-      </c>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="103"/>
+      <c r="B3" s="98" t="s">
+        <v>254</v>
+      </c>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="100"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="17" t="s">
@@ -3678,10 +3693,10 @@
       <c r="E4" s="111"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="95"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="97"/>
+      <c r="B5" s="102"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="103"/>
     </row>
     <row r="6" spans="2:5" ht="159" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18" t="s">
@@ -3711,10 +3726,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AFA84ED-1173-45A9-AD9A-5FB0BDC74F9E}">
-  <dimension ref="B1:E14"/>
+  <dimension ref="B1:E16"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:E3"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3728,20 +3743,20 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B2" s="98" t="s">
-        <v>133</v>
-      </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="100"/>
+      <c r="B2" s="104" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="106"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="101" t="s">
-        <v>123</v>
-      </c>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="103"/>
+      <c r="B3" s="98" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="100"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="42" t="s">
@@ -3762,7 +3777,7 @@
       <c r="E5" s="116"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="95" t="s">
+      <c r="B6" s="102" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="38" t="s">
@@ -3775,431 +3790,146 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B7" s="95"/>
-      <c r="C7" s="7" t="s">
+    <row r="7" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B7" s="102"/>
+      <c r="C7" s="94" t="s">
+        <v>248</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>249</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B8" s="102"/>
+      <c r="C8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D8" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E8" s="13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="117"/>
-      <c r="C8" s="118"/>
-      <c r="D8" s="118"/>
-      <c r="E8" s="119"/>
-    </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="96" t="s">
+      <c r="B9" s="117"/>
+      <c r="C9" s="118"/>
+      <c r="D9" s="118"/>
+      <c r="E9" s="119"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="38" t="s">
-        <v>113</v>
-      </c>
-      <c r="D9" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="57" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="96"/>
       <c r="C10" s="38" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
       <c r="D10" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="59" t="s">
-        <v>29</v>
+      <c r="E10" s="56" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="96"/>
+      <c r="B11" s="97"/>
       <c r="C11" s="38" t="s">
-        <v>114</v>
+        <v>25</v>
       </c>
       <c r="D11" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="60" t="s">
-        <v>119</v>
+      <c r="E11" s="58" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="96"/>
+      <c r="B12" s="97"/>
       <c r="C12" s="38" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D12" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="57" t="s">
+      <c r="E12" s="59" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="97"/>
+      <c r="C13" s="94" t="s">
+        <v>251</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>252</v>
+      </c>
+      <c r="E13" s="59" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="97"/>
+      <c r="C14" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="56" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="97"/>
+      <c r="C15" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="56" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="96"/>
-      <c r="C13" s="38" t="s">
+    <row r="16" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B16" s="97"/>
+      <c r="C16" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="D13" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="E13" s="57" t="s">
+      <c r="D16" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="57" t="s">
         <v>121</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B14" s="96"/>
-      <c r="C14" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="D14" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="58" t="s">
-        <v>122</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="B10:B16"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:E9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E10" r:id="rId1" location="数据结构说明_列表模板" xr:uid="{93B23D4E-2C30-4E33-B1C0-59DD17F46680}"/>
-    <hyperlink ref="E11" r:id="rId2" location="数据结构说明_模板组合" xr:uid="{E7A699E5-3F11-4685-BC53-A27ECF678F78}"/>
+    <hyperlink ref="E11" r:id="rId1" location="数据结构说明_列表模板" xr:uid="{93B23D4E-2C30-4E33-B1C0-59DD17F46680}"/>
+    <hyperlink ref="E12" r:id="rId2" location="数据结构说明_模板组合" xr:uid="{E7A699E5-3F11-4685-BC53-A27ECF678F78}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7192D92C-81A2-4423-8D46-814623BAF312}">
-  <dimension ref="B1:E28"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:E20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="13.25" customWidth="1"/>
-    <col min="3" max="3" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B2" s="98" t="s">
-        <v>134</v>
-      </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="100"/>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="101" t="s">
-        <v>124</v>
-      </c>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="103"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="112" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="113"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="114"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="116"/>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="95" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="41" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B7" s="95"/>
-      <c r="C7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="117"/>
-      <c r="C8" s="118"/>
-      <c r="D8" s="118"/>
-      <c r="E8" s="119"/>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="95" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="38" t="s">
-        <v>113</v>
-      </c>
-      <c r="D9" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="95"/>
-      <c r="C10" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="61" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="95"/>
-      <c r="C11" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="D11" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="62" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="95"/>
-      <c r="C12" s="38" t="s">
-        <v>115</v>
-      </c>
-      <c r="D12" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="95"/>
-      <c r="C13" s="38" t="s">
-        <v>116</v>
-      </c>
-      <c r="D13" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="95"/>
-      <c r="C14" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="D14" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="62" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="95"/>
-      <c r="C15" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="D15" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="62" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="120"/>
-      <c r="C16" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="D16" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B19" s="98" t="s">
-        <v>135</v>
-      </c>
-      <c r="C19" s="99"/>
-      <c r="D19" s="99"/>
-      <c r="E19" s="100"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="101" t="s">
-        <v>137</v>
-      </c>
-      <c r="C20" s="102"/>
-      <c r="D20" s="102"/>
-      <c r="E20" s="103"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="121" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="112" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" s="113"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="122"/>
-      <c r="C22" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="D22" s="124"/>
-      <c r="E22" s="125"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="123"/>
-      <c r="C23" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="D23" s="124"/>
-      <c r="E23" s="125"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B24" s="114"/>
-      <c r="C24" s="115"/>
-      <c r="D24" s="115"/>
-      <c r="E24" s="116"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B25" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="C25" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="41" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B26" s="117"/>
-      <c r="C26" s="118"/>
-      <c r="D26" s="118"/>
-      <c r="E26" s="119"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B27" s="95" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="D27" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="E27" s="62" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="120"/>
-      <c r="C28" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="D28" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="E28" s="23" t="s">
-        <v>122</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B9:B16"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B21:B23"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="E10" r:id="rId1" location="数据结构说明_列表模板" xr:uid="{3041B874-BA68-4C32-AC54-231C3AEBED30}"/>
-    <hyperlink ref="E11" r:id="rId2" location="数据结构说明_模板组合" xr:uid="{909478A6-9648-4AA3-BF47-A4F2BA80B0EF}"/>
-    <hyperlink ref="E15" r:id="rId3" location="数据结构说明_节点样式" xr:uid="{C99BE251-FCEE-43DB-A16E-3ADDEBE9EB4F}"/>
-    <hyperlink ref="E27" r:id="rId4" location="数据结构说明_节点模板数据" xr:uid="{41BDCFF0-5866-44C0-81A4-31221A188AD0}"/>
-    <hyperlink ref="E14" r:id="rId5" location="数据结构说明_节点模板数据" xr:uid="{00DAC048-7C7A-46E6-9047-13CF405A2B75}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A94866F7-8811-440B-A55F-81B7D942607F}">
   <dimension ref="B1:E18"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B6" sqref="B6:E7"/>
     </sheetView>
   </sheetViews>
@@ -4212,30 +3942,30 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B2" s="98" t="s">
-        <v>145</v>
-      </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="100"/>
+      <c r="B2" s="104" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="106"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="101" t="s">
-        <v>136</v>
-      </c>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="103"/>
+      <c r="B3" s="98" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="100"/>
     </row>
     <row r="4" spans="2:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="39" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="D4" s="107" t="s">
-        <v>138</v>
+        <v>116</v>
+      </c>
+      <c r="D4" s="95" t="s">
+        <v>137</v>
       </c>
       <c r="E4" s="126"/>
     </row>
@@ -4246,7 +3976,7 @@
       <c r="E5" s="116"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="95" t="s">
+      <c r="B6" s="102" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="38" t="s">
@@ -4260,7 +3990,7 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="95"/>
+      <c r="B7" s="102"/>
       <c r="C7" s="38" t="s">
         <v>18</v>
       </c>
@@ -4268,17 +3998,17 @@
         <v>23</v>
       </c>
       <c r="E7" s="41" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="127"/>
-      <c r="C8" s="109"/>
-      <c r="D8" s="109"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
       <c r="E8" s="128"/>
     </row>
     <row r="9" spans="2:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B9" s="95" t="s">
+      <c r="B9" s="102" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="38" t="s">
@@ -4287,78 +4017,78 @@
       <c r="D9" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="70" t="s">
-        <v>142</v>
+      <c r="E9" s="69" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="95"/>
+      <c r="B10" s="102"/>
       <c r="C10" s="38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D10" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="70" t="s">
-        <v>143</v>
+      <c r="E10" s="69" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="120"/>
       <c r="C11" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="D11" s="63" t="s">
+        <v>140</v>
+      </c>
+      <c r="D11" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="E11" s="69" t="s">
-        <v>144</v>
+      <c r="E11" s="68" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="66"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="68"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="67"/>
     </row>
     <row r="13" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="66"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="68"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="67"/>
     </row>
     <row r="14" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B14" s="98" t="s">
+      <c r="B14" s="104" t="s">
+        <v>145</v>
+      </c>
+      <c r="C14" s="105"/>
+      <c r="D14" s="105"/>
+      <c r="E14" s="106"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="98" t="s">
         <v>146</v>
       </c>
-      <c r="C14" s="99"/>
-      <c r="D14" s="99"/>
-      <c r="E14" s="100"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="101" t="s">
-        <v>147</v>
-      </c>
-      <c r="C15" s="102"/>
-      <c r="D15" s="102"/>
-      <c r="E15" s="103"/>
+      <c r="C15" s="99"/>
+      <c r="D15" s="99"/>
+      <c r="E15" s="100"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="39" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="D16" s="107" t="s">
-        <v>138</v>
+        <v>116</v>
+      </c>
+      <c r="D16" s="95" t="s">
+        <v>137</v>
       </c>
       <c r="E16" s="126"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="127"/>
-      <c r="C17" s="109"/>
-      <c r="D17" s="109"/>
+      <c r="C17" s="101"/>
+      <c r="D17" s="101"/>
       <c r="E17" s="128"/>
     </row>
     <row r="18" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -4366,13 +4096,13 @@
         <v>6</v>
       </c>
       <c r="C18" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="D18" s="62" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="70" t="s">
         <v>148</v>
-      </c>
-      <c r="D18" s="63" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" s="71" t="s">
-        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -4398,12 +4128,321 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7192D92C-81A2-4423-8D46-814623BAF312}">
+  <dimension ref="B1:E28"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13.25" customWidth="1"/>
+    <col min="3" max="3" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B2" s="104" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="106"/>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="98" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="100"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="112" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="113"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="114"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="116"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="102" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B7" s="102"/>
+      <c r="C7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="117"/>
+      <c r="C8" s="118"/>
+      <c r="D8" s="118"/>
+      <c r="E8" s="119"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="102" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="102"/>
+      <c r="C10" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="60" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="102"/>
+      <c r="C11" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="61" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="102"/>
+      <c r="C12" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="102"/>
+      <c r="C13" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="102"/>
+      <c r="C14" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="61" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="102"/>
+      <c r="C15" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="61" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="120"/>
+      <c r="C16" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="D16" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B19" s="104" t="s">
+        <v>134</v>
+      </c>
+      <c r="C19" s="105"/>
+      <c r="D19" s="105"/>
+      <c r="E19" s="106"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="98" t="s">
+        <v>136</v>
+      </c>
+      <c r="C20" s="99"/>
+      <c r="D20" s="99"/>
+      <c r="E20" s="100"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B21" s="123" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="112" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="113"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B22" s="124"/>
+      <c r="C22" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="D22" s="121"/>
+      <c r="E22" s="122"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23" s="125"/>
+      <c r="C23" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="D23" s="121"/>
+      <c r="E23" s="122"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B24" s="114"/>
+      <c r="C24" s="115"/>
+      <c r="D24" s="115"/>
+      <c r="E24" s="116"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B25" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="41" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B26" s="117"/>
+      <c r="C26" s="118"/>
+      <c r="D26" s="118"/>
+      <c r="E26" s="119"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B27" s="102" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="D27" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="61" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="120"/>
+      <c r="C28" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="D28" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:B16"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:B7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E10" r:id="rId1" location="数据结构说明_列表模板" xr:uid="{3041B874-BA68-4C32-AC54-231C3AEBED30}"/>
+    <hyperlink ref="E11" r:id="rId2" location="数据结构说明_模板组合" xr:uid="{909478A6-9648-4AA3-BF47-A4F2BA80B0EF}"/>
+    <hyperlink ref="E15" r:id="rId3" location="数据结构说明_节点样式" xr:uid="{C99BE251-FCEE-43DB-A16E-3ADDEBE9EB4F}"/>
+    <hyperlink ref="E27" r:id="rId4" location="数据结构说明_节点模板数据" xr:uid="{41BDCFF0-5866-44C0-81A4-31221A188AD0}"/>
+    <hyperlink ref="E14" r:id="rId5" location="数据结构说明_节点模板数据" xr:uid="{00DAC048-7C7A-46E6-9047-13CF405A2B75}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B482E8C-E5D3-44B0-8612-77665C895F24}">
   <dimension ref="B1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21:E21"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33:E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4415,62 +4454,62 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B2" s="98" t="s">
-        <v>150</v>
-      </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="100"/>
+      <c r="B2" s="104" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="106"/>
     </row>
     <row r="3" spans="2:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="133" t="s">
-        <v>202</v>
-      </c>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="103"/>
+        <v>255</v>
+      </c>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="100"/>
     </row>
     <row r="4" spans="2:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="102" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="D4" s="129" t="s">
+        <v>162</v>
+      </c>
+      <c r="E4" s="130"/>
+    </row>
+    <row r="5" spans="2:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="102"/>
+      <c r="C5" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="D4" s="131" t="s">
-        <v>163</v>
-      </c>
-      <c r="E4" s="132"/>
-    </row>
-    <row r="5" spans="2:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="95"/>
-      <c r="C5" s="38" t="s">
+      <c r="D5" s="129" t="s">
+        <v>161</v>
+      </c>
+      <c r="E5" s="130"/>
+    </row>
+    <row r="6" spans="2:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="102"/>
+      <c r="C6" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="D5" s="131" t="s">
-        <v>162</v>
-      </c>
-      <c r="E5" s="132"/>
-    </row>
-    <row r="6" spans="2:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="95"/>
-      <c r="C6" s="38" t="s">
+      <c r="D6" s="129" t="s">
+        <v>159</v>
+      </c>
+      <c r="E6" s="130"/>
+    </row>
+    <row r="7" spans="2:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="102"/>
+      <c r="C7" s="38" t="s">
         <v>153</v>
       </c>
-      <c r="D6" s="131" t="s">
+      <c r="D7" s="129" t="s">
         <v>160</v>
       </c>
-      <c r="E6" s="132"/>
-    </row>
-    <row r="7" spans="2:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="95"/>
-      <c r="C7" s="38" t="s">
-        <v>154</v>
-      </c>
-      <c r="D7" s="131" t="s">
-        <v>161</v>
-      </c>
-      <c r="E7" s="132"/>
+      <c r="E7" s="130"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="114"/>
@@ -4483,85 +4522,85 @@
         <v>2</v>
       </c>
       <c r="C9" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="D9" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="E9" s="33" t="s">
         <v>156</v>
-      </c>
-      <c r="E9" s="33" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="127"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
+      <c r="C10" s="101"/>
+      <c r="D10" s="101"/>
       <c r="E10" s="128"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="95" t="s">
+      <c r="B11" s="102" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D11" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="73" t="s">
-        <v>159</v>
+      <c r="E11" s="72" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="120"/>
       <c r="C12" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="D12" s="63" t="s">
+        <v>112</v>
+      </c>
+      <c r="D12" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="72" t="s">
-        <v>118</v>
+      <c r="E12" s="71" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B15" s="98" t="s">
-        <v>164</v>
-      </c>
-      <c r="C15" s="99"/>
-      <c r="D15" s="99"/>
-      <c r="E15" s="100"/>
+      <c r="B15" s="104" t="s">
+        <v>163</v>
+      </c>
+      <c r="C15" s="105"/>
+      <c r="D15" s="105"/>
+      <c r="E15" s="106"/>
     </row>
     <row r="16" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="133" t="s">
-        <v>201</v>
-      </c>
-      <c r="C16" s="102"/>
-      <c r="D16" s="102"/>
-      <c r="E16" s="103"/>
+        <v>200</v>
+      </c>
+      <c r="C16" s="99"/>
+      <c r="D16" s="99"/>
+      <c r="E16" s="100"/>
     </row>
     <row r="17" spans="2:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="95" t="s">
+      <c r="B17" s="102" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>152</v>
-      </c>
-      <c r="D17" s="131" t="s">
-        <v>162</v>
-      </c>
-      <c r="E17" s="132"/>
+        <v>151</v>
+      </c>
+      <c r="D17" s="129" t="s">
+        <v>161</v>
+      </c>
+      <c r="E17" s="130"/>
     </row>
     <row r="18" spans="2:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="95"/>
+      <c r="B18" s="102"/>
       <c r="C18" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="131" t="s">
-        <v>166</v>
-      </c>
-      <c r="E18" s="132"/>
+      <c r="D18" s="129" t="s">
+        <v>165</v>
+      </c>
+      <c r="E18" s="130"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="114"/>
@@ -4570,55 +4609,55 @@
       <c r="E19" s="116"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="121" t="s">
+      <c r="B20" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="76" t="s">
-        <v>250</v>
-      </c>
-      <c r="D20" s="131" t="s">
-        <v>251</v>
-      </c>
-      <c r="E20" s="132"/>
+      <c r="C20" s="75" t="s">
+        <v>246</v>
+      </c>
+      <c r="D20" s="129" t="s">
+        <v>247</v>
+      </c>
+      <c r="E20" s="130"/>
     </row>
     <row r="21" spans="2:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="122"/>
+      <c r="B21" s="124"/>
       <c r="C21" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="D21" s="129" t="s">
+        <v>167</v>
+      </c>
+      <c r="E21" s="130"/>
+    </row>
+    <row r="22" spans="2:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="124"/>
+      <c r="C22" s="38" t="s">
         <v>153</v>
       </c>
-      <c r="D21" s="131" t="s">
+      <c r="D22" s="129" t="s">
         <v>168</v>
       </c>
-      <c r="E21" s="132"/>
-    </row>
-    <row r="22" spans="2:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="122"/>
-      <c r="C22" s="38" t="s">
+      <c r="E22" s="130"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23" s="125"/>
+      <c r="C23" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="D22" s="131" t="s">
+      <c r="D23" s="131" t="s">
         <v>169</v>
       </c>
-      <c r="E22" s="132"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="123"/>
-      <c r="C23" s="38" t="s">
-        <v>155</v>
-      </c>
-      <c r="D23" s="135" t="s">
-        <v>170</v>
-      </c>
-      <c r="E23" s="136"/>
+      <c r="E23" s="132"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="127"/>
-      <c r="C24" s="109"/>
-      <c r="D24" s="109"/>
+      <c r="C24" s="101"/>
+      <c r="D24" s="101"/>
       <c r="E24" s="128"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B25" s="95" t="s">
+      <c r="B25" s="102" t="s">
         <v>6</v>
       </c>
       <c r="C25" s="38" t="s">
@@ -4627,139 +4666,158 @@
       <c r="D25" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="73" t="s">
-        <v>173</v>
+      <c r="E25" s="72" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B26" s="121"/>
+      <c r="B26" s="123"/>
       <c r="C26" s="30" t="s">
-        <v>165</v>
-      </c>
-      <c r="D26" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="D26" s="64" t="s">
         <v>97</v>
       </c>
-      <c r="E26" s="75" t="s">
-        <v>172</v>
+      <c r="E26" s="74" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="120"/>
       <c r="C27" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="D27" s="63" t="s">
-        <v>181</v>
-      </c>
-      <c r="E27" s="72" t="s">
-        <v>171</v>
+        <v>166</v>
+      </c>
+      <c r="D27" s="62" t="s">
+        <v>180</v>
+      </c>
+      <c r="E27" s="71" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B28" s="66"/>
-      <c r="C28" s="66"/>
-      <c r="D28" s="67"/>
-      <c r="E28" s="74"/>
-    </row>
-    <row r="29" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+      <c r="B28" s="65"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="73"/>
+    </row>
     <row r="30" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B30" s="98" t="s">
+      <c r="B30" s="153" t="s">
+        <v>173</v>
+      </c>
+      <c r="C30" s="153"/>
+      <c r="D30" s="153"/>
+      <c r="E30" s="153"/>
+    </row>
+    <row r="31" spans="2:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="159" t="s">
+        <v>199</v>
+      </c>
+      <c r="C31" s="99"/>
+      <c r="D31" s="99"/>
+      <c r="E31" s="99"/>
+    </row>
+    <row r="32" spans="2:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="97" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="94" t="s">
+        <v>151</v>
+      </c>
+      <c r="D32" s="129" t="s">
+        <v>161</v>
+      </c>
+      <c r="E32" s="129"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B33" s="97"/>
+      <c r="C33" s="94" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="160" t="s">
+        <v>176</v>
+      </c>
+      <c r="E33" s="160"/>
+    </row>
+    <row r="34" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="97"/>
+      <c r="C34" s="94" t="s">
         <v>174</v>
       </c>
-      <c r="C30" s="99"/>
-      <c r="D30" s="99"/>
-      <c r="E30" s="100"/>
-    </row>
-    <row r="31" spans="2:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="133" t="s">
-        <v>200</v>
-      </c>
-      <c r="C31" s="102"/>
-      <c r="D31" s="102"/>
-      <c r="E31" s="103"/>
-    </row>
-    <row r="32" spans="2:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="95" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32" s="46" t="s">
-        <v>152</v>
-      </c>
-      <c r="D32" s="131" t="s">
-        <v>162</v>
-      </c>
-      <c r="E32" s="132"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B33" s="95"/>
-      <c r="C33" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="D33" s="129" t="s">
-        <v>177</v>
-      </c>
-      <c r="E33" s="130"/>
-    </row>
-    <row r="34" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="95"/>
-      <c r="C34" s="45" t="s">
+      <c r="D34" s="160" t="s">
         <v>175</v>
       </c>
-      <c r="D34" s="134" t="s">
-        <v>176</v>
-      </c>
-      <c r="E34" s="130"/>
+      <c r="E34" s="160"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B35" s="114"/>
+      <c r="B35" s="115"/>
       <c r="C35" s="115"/>
       <c r="D35" s="115"/>
-      <c r="E35" s="116"/>
+      <c r="E35" s="115"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B36" s="122" t="s">
+      <c r="B36" s="97" t="s">
+        <v>177</v>
+      </c>
+      <c r="C36" s="94" t="s">
+        <v>152</v>
+      </c>
+      <c r="D36" s="129" t="s">
+        <v>167</v>
+      </c>
+      <c r="E36" s="129"/>
+    </row>
+    <row r="37" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="97"/>
+      <c r="C37" s="94" t="s">
+        <v>153</v>
+      </c>
+      <c r="D37" s="129" t="s">
+        <v>168</v>
+      </c>
+      <c r="E37" s="129"/>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B38" s="101"/>
+      <c r="C38" s="101"/>
+      <c r="D38" s="101"/>
+      <c r="E38" s="101"/>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B39" s="94" t="s">
         <v>178</v>
       </c>
-      <c r="C36" s="46" t="s">
-        <v>153</v>
-      </c>
-      <c r="D36" s="131" t="s">
-        <v>168</v>
-      </c>
-      <c r="E36" s="132"/>
-    </row>
-    <row r="37" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="122"/>
-      <c r="C37" s="46" t="s">
-        <v>154</v>
-      </c>
-      <c r="D37" s="131" t="s">
-        <v>169</v>
-      </c>
-      <c r="E37" s="132"/>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B38" s="127"/>
-      <c r="C38" s="109"/>
-      <c r="D38" s="109"/>
-      <c r="E38" s="128"/>
-    </row>
-    <row r="39" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="50" t="s">
+      <c r="C39" s="94" t="s">
+        <v>33</v>
+      </c>
+      <c r="D39" s="32" t="s">
         <v>179</v>
       </c>
-      <c r="C39" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D39" s="63" t="s">
-        <v>180</v>
-      </c>
-      <c r="E39" s="79" t="s">
-        <v>182</v>
+      <c r="E39" s="161" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B19:E19"/>
     <mergeCell ref="B24:E24"/>
@@ -4774,26 +4832,6 @@
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -4809,8 +4847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B62E978-28DC-4A79-93DF-4FAF4AB997E9}">
   <dimension ref="B1:E34"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4822,62 +4860,62 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B2" s="98" t="s">
-        <v>206</v>
-      </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="100"/>
+      <c r="B2" s="104" t="s">
+        <v>204</v>
+      </c>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="106"/>
     </row>
     <row r="3" spans="2:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="133" t="s">
+        <v>256</v>
+      </c>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="100"/>
+    </row>
+    <row r="4" spans="2:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="123" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>150</v>
+      </c>
+      <c r="D4" s="129" t="s">
+        <v>162</v>
+      </c>
+      <c r="E4" s="130"/>
+    </row>
+    <row r="5" spans="2:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="124"/>
+      <c r="C5" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="D5" s="129" t="s">
+        <v>161</v>
+      </c>
+      <c r="E5" s="130"/>
+    </row>
+    <row r="6" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="124"/>
+      <c r="C6" s="45" t="s">
+        <v>152</v>
+      </c>
+      <c r="D6" s="129" t="s">
         <v>207</v>
       </c>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="103"/>
-    </row>
-    <row r="4" spans="2:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="121" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="46" t="s">
-        <v>151</v>
-      </c>
-      <c r="D4" s="131" t="s">
-        <v>163</v>
-      </c>
-      <c r="E4" s="132"/>
-    </row>
-    <row r="5" spans="2:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="122"/>
-      <c r="C5" s="46" t="s">
+      <c r="E6" s="130"/>
+    </row>
+    <row r="7" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="125"/>
+      <c r="C7" s="45" t="s">
+        <v>206</v>
+      </c>
+      <c r="D7" s="134" t="s">
         <v>208</v>
       </c>
-      <c r="D5" s="131" t="s">
-        <v>162</v>
-      </c>
-      <c r="E5" s="132"/>
-    </row>
-    <row r="6" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="122"/>
-      <c r="C6" s="46" t="s">
-        <v>153</v>
-      </c>
-      <c r="D6" s="131" t="s">
-        <v>210</v>
-      </c>
-      <c r="E6" s="132"/>
-    </row>
-    <row r="7" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="123"/>
-      <c r="C7" s="46" t="s">
-        <v>209</v>
-      </c>
-      <c r="D7" s="138" t="s">
-        <v>211</v>
-      </c>
-      <c r="E7" s="139"/>
+      <c r="E7" s="135"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="114"/>
@@ -4886,13 +4924,13 @@
       <c r="E8" s="116"/>
     </row>
     <row r="9" spans="2:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="121" t="s">
+      <c r="B9" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="77" t="s">
+      <c r="D9" s="76" t="s">
         <v>37</v>
       </c>
       <c r="E9" s="22" t="s">
@@ -4900,59 +4938,59 @@
       </c>
     </row>
     <row r="10" spans="2:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="122"/>
-      <c r="C10" s="82" t="s">
+      <c r="B10" s="124"/>
+      <c r="C10" s="81" t="s">
         <v>107</v>
       </c>
-      <c r="D10" s="84" t="s">
+      <c r="D10" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="83" t="s">
+      <c r="E10" s="82" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="122"/>
-      <c r="C11" s="82" t="s">
-        <v>213</v>
-      </c>
-      <c r="D11" s="84" t="s">
-        <v>195</v>
-      </c>
-      <c r="E11" s="85" t="s">
-        <v>214</v>
+      <c r="B11" s="124"/>
+      <c r="C11" s="81" t="s">
+        <v>210</v>
+      </c>
+      <c r="D11" s="83" t="s">
+        <v>194</v>
+      </c>
+      <c r="E11" s="84" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="122"/>
-      <c r="C12" s="46" t="s">
+      <c r="B12" s="124"/>
+      <c r="C12" s="45" t="s">
         <v>38</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="86" t="s">
-        <v>215</v>
+      <c r="E12" s="85" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="127"/>
-      <c r="C13" s="109"/>
-      <c r="D13" s="109"/>
+      <c r="C13" s="101"/>
+      <c r="D13" s="101"/>
       <c r="E13" s="128"/>
     </row>
     <row r="14" spans="2:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="95" t="s">
+      <c r="B14" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="46" t="s">
+      <c r="C14" s="45" t="s">
         <v>32</v>
       </c>
       <c r="D14" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="81" t="s">
-        <v>212</v>
+      <c r="E14" s="80" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4960,41 +4998,41 @@
       <c r="C15" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="63" t="s">
+      <c r="D15" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="69" t="s">
-        <v>172</v>
+      <c r="E15" s="68" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B18" s="98" t="s">
+      <c r="B18" s="104" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="99"/>
-      <c r="D18" s="99"/>
-      <c r="E18" s="100"/>
+      <c r="C18" s="105"/>
+      <c r="D18" s="105"/>
+      <c r="E18" s="106"/>
     </row>
     <row r="19" spans="2:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="133" t="s">
+        <v>213</v>
+      </c>
+      <c r="C19" s="99"/>
+      <c r="D19" s="99"/>
+      <c r="E19" s="100"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="129" t="s">
         <v>216</v>
       </c>
-      <c r="C19" s="102"/>
-      <c r="D19" s="102"/>
-      <c r="E19" s="103"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="131" t="s">
-        <v>219</v>
-      </c>
-      <c r="E20" s="132"/>
+      <c r="E20" s="130"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="114"/>
@@ -5003,67 +5041,67 @@
       <c r="E21" s="116"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="51" t="s">
+      <c r="B22" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="46" t="s">
+      <c r="C22" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="77" t="s">
+      <c r="D22" s="76" t="s">
         <v>43</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="127"/>
-      <c r="C23" s="109"/>
-      <c r="D23" s="109"/>
+      <c r="C23" s="101"/>
+      <c r="D23" s="101"/>
       <c r="E23" s="128"/>
     </row>
     <row r="24" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="50" t="s">
-        <v>179</v>
+      <c r="B24" s="49" t="s">
+        <v>178</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="63" t="s">
+      <c r="D24" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="E24" s="69" t="s">
-        <v>218</v>
+      <c r="E24" s="68" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B27" s="98" t="s">
+      <c r="B27" s="104" t="s">
         <v>106</v>
       </c>
-      <c r="C27" s="99"/>
-      <c r="D27" s="99"/>
-      <c r="E27" s="100"/>
+      <c r="C27" s="105"/>
+      <c r="D27" s="105"/>
+      <c r="E27" s="106"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B28" s="133" t="s">
-        <v>220</v>
-      </c>
-      <c r="C28" s="102"/>
-      <c r="D28" s="102"/>
-      <c r="E28" s="103"/>
+        <v>217</v>
+      </c>
+      <c r="C28" s="99"/>
+      <c r="D28" s="99"/>
+      <c r="E28" s="100"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B29" s="48" t="s">
+      <c r="B29" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="46" t="s">
+      <c r="C29" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="131" t="s">
-        <v>219</v>
-      </c>
-      <c r="E29" s="132"/>
+      <c r="D29" s="129" t="s">
+        <v>216</v>
+      </c>
+      <c r="E29" s="130"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B30" s="114"/>
@@ -5072,65 +5110,53 @@
       <c r="E30" s="116"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B31" s="48" t="s">
+      <c r="B31" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="46" t="s">
+      <c r="C31" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="D31" s="77" t="s">
+      <c r="D31" s="76" t="s">
         <v>43</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B32" s="127"/>
-      <c r="C32" s="109"/>
-      <c r="D32" s="109"/>
+      <c r="C32" s="101"/>
+      <c r="D32" s="101"/>
       <c r="E32" s="128"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B33" s="121" t="s">
-        <v>179</v>
-      </c>
-      <c r="C33" s="46" t="s">
+      <c r="B33" s="123" t="s">
+        <v>178</v>
+      </c>
+      <c r="C33" s="45" t="s">
         <v>3</v>
       </c>
       <c r="D33" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="E33" s="81" t="s">
+      <c r="E33" s="80" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="136"/>
+      <c r="C34" s="15" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="34" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="137"/>
-      <c r="C34" s="15" t="s">
-        <v>221</v>
-      </c>
       <c r="D34" s="19" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="B13:E13"/>
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="B32:E32"/>
     <mergeCell ref="B18:E18"/>
@@ -5141,6 +5167,18 @@
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="B30:E30"/>
     <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="B8:E8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5165,42 +5203,42 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="104" t="s">
+        <v>182</v>
+      </c>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="106"/>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="98" t="s">
+        <v>196</v>
+      </c>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="100"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="123" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>151</v>
+      </c>
+      <c r="D4" s="112" t="s">
+        <v>184</v>
+      </c>
+      <c r="E4" s="113"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="125"/>
+      <c r="C5" s="54" t="s">
         <v>183</v>
       </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="100"/>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="101" t="s">
-        <v>197</v>
-      </c>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="103"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="121" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="55" t="s">
-        <v>152</v>
-      </c>
-      <c r="D4" s="112" t="s">
+      <c r="D5" s="121" t="s">
         <v>185</v>
       </c>
-      <c r="E4" s="113"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="123"/>
-      <c r="C5" s="55" t="s">
-        <v>184</v>
-      </c>
-      <c r="D5" s="124" t="s">
-        <v>186</v>
-      </c>
-      <c r="E5" s="125"/>
+      <c r="E5" s="122"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="114"/>
@@ -5209,76 +5247,76 @@
       <c r="E6" s="116"/>
     </row>
     <row r="7" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="49" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="D7" s="63" t="s">
+        <v>157</v>
+      </c>
+      <c r="D7" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="79" t="s">
-        <v>187</v>
+      <c r="E7" s="78" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B10" s="98" t="s">
-        <v>189</v>
-      </c>
-      <c r="C10" s="99"/>
-      <c r="D10" s="99"/>
-      <c r="E10" s="100"/>
+      <c r="B10" s="104" t="s">
+        <v>188</v>
+      </c>
+      <c r="C10" s="105"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="106"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="101" t="s">
-        <v>198</v>
-      </c>
-      <c r="C11" s="102"/>
-      <c r="D11" s="102"/>
-      <c r="E11" s="103"/>
+      <c r="B11" s="98" t="s">
+        <v>197</v>
+      </c>
+      <c r="C11" s="99"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="100"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="121" t="s">
+      <c r="B12" s="123" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="55" t="s">
-        <v>152</v>
+      <c r="C12" s="54" t="s">
+        <v>151</v>
       </c>
       <c r="D12" s="112" t="s">
+        <v>184</v>
+      </c>
+      <c r="E12" s="113"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="125"/>
+      <c r="C13" s="54" t="s">
+        <v>191</v>
+      </c>
+      <c r="D13" s="121" t="s">
         <v>185</v>
       </c>
-      <c r="E12" s="113"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="123"/>
-      <c r="C13" s="55" t="s">
-        <v>192</v>
-      </c>
-      <c r="D13" s="124" t="s">
-        <v>186</v>
-      </c>
-      <c r="E13" s="125"/>
+      <c r="E13" s="122"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="140"/>
-      <c r="C14" s="105"/>
-      <c r="D14" s="105"/>
-      <c r="E14" s="141"/>
+      <c r="B14" s="137"/>
+      <c r="C14" s="108"/>
+      <c r="D14" s="108"/>
+      <c r="E14" s="138"/>
     </row>
     <row r="15" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="46" t="s">
+      <c r="C15" s="45" t="s">
         <v>41</v>
       </c>
       <c r="D15" s="32" t="s">
         <v>21</v>
       </c>
       <c r="E15" s="33" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
@@ -5288,100 +5326,100 @@
       <c r="E16" s="116"/>
     </row>
     <row r="17" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="49" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="D17" s="63" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="69" t="s">
-        <v>188</v>
+      <c r="E17" s="68" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B20" s="98" t="s">
+      <c r="B20" s="104" t="s">
+        <v>190</v>
+      </c>
+      <c r="C20" s="105"/>
+      <c r="D20" s="105"/>
+      <c r="E20" s="106"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B21" s="98" t="s">
+        <v>198</v>
+      </c>
+      <c r="C21" s="99"/>
+      <c r="D21" s="99"/>
+      <c r="E21" s="100"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B22" s="123" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="54" t="s">
+        <v>151</v>
+      </c>
+      <c r="D22" s="112" t="s">
+        <v>184</v>
+      </c>
+      <c r="E22" s="113"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23" s="125"/>
+      <c r="C23" s="54" t="s">
         <v>191</v>
       </c>
-      <c r="C20" s="99"/>
-      <c r="D20" s="99"/>
-      <c r="E20" s="100"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="101" t="s">
-        <v>199</v>
-      </c>
-      <c r="C21" s="102"/>
-      <c r="D21" s="102"/>
-      <c r="E21" s="103"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="121" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="55" t="s">
-        <v>152</v>
-      </c>
-      <c r="D22" s="112" t="s">
+      <c r="D23" s="121" t="s">
         <v>185</v>
       </c>
-      <c r="E22" s="113"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="123"/>
-      <c r="C23" s="55" t="s">
-        <v>192</v>
-      </c>
-      <c r="D23" s="124" t="s">
-        <v>186</v>
-      </c>
-      <c r="E23" s="125"/>
+      <c r="E23" s="122"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B24" s="140"/>
-      <c r="C24" s="105"/>
-      <c r="D24" s="105"/>
-      <c r="E24" s="141"/>
+      <c r="B24" s="137"/>
+      <c r="C24" s="108"/>
+      <c r="D24" s="108"/>
+      <c r="E24" s="138"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B25" s="121" t="s">
+      <c r="B25" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="46" t="s">
+      <c r="C25" s="45" t="s">
         <v>105</v>
       </c>
       <c r="D25" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="E25" s="64" t="s">
-        <v>196</v>
+      <c r="E25" s="63" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="122"/>
-      <c r="C26" s="46" t="s">
+      <c r="B26" s="124"/>
+      <c r="C26" s="45" t="s">
+        <v>193</v>
+      </c>
+      <c r="D26" s="32" t="s">
         <v>194</v>
       </c>
-      <c r="D26" s="32" t="s">
-        <v>195</v>
-      </c>
-      <c r="E26" s="64" t="s">
-        <v>204</v>
+      <c r="E26" s="63" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="123"/>
-      <c r="C27" s="46" t="s">
-        <v>193</v>
+      <c r="B27" s="125"/>
+      <c r="C27" s="45" t="s">
+        <v>192</v>
       </c>
       <c r="D27" s="32" t="s">
-        <v>195</v>
-      </c>
-      <c r="E27" s="80" t="s">
-        <v>205</v>
+        <v>194</v>
+      </c>
+      <c r="E27" s="79" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
@@ -5391,28 +5429,27 @@
       <c r="E28" s="116"/>
     </row>
     <row r="29" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="50" t="s">
+      <c r="B29" s="49" t="s">
         <v>6</v>
       </c>
       <c r="C29" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="63" t="s">
-        <v>180</v>
-      </c>
-      <c r="E29" s="69" t="s">
-        <v>203</v>
+      <c r="D29" s="62" t="s">
+        <v>179</v>
+      </c>
+      <c r="E29" s="68" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B25:B27"/>
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="B20:E20"/>
     <mergeCell ref="B21:E21"/>
@@ -5421,12 +5458,13 @@
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B4:B5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -5440,8 +5478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAB3E66F-D173-45C2-B2C6-24F96CBE92EE}">
   <dimension ref="B1:E18"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:E5"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5453,30 +5491,30 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="104" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="100"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="106"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="142" t="s">
-        <v>228</v>
-      </c>
-      <c r="C3" s="143"/>
-      <c r="D3" s="143"/>
-      <c r="E3" s="144"/>
+      <c r="B3" s="98" t="s">
+        <v>225</v>
+      </c>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="100"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="145" t="s">
+      <c r="C4" s="139" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="146"/>
-      <c r="E4" s="147"/>
+      <c r="D4" s="140"/>
+      <c r="E4" s="141"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="114"/>
@@ -5485,27 +5523,27 @@
       <c r="E5" s="116"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="45" t="s">
         <v>45</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="53" t="s">
+      <c r="E6" s="52" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="127"/>
-      <c r="C7" s="109"/>
-      <c r="D7" s="109"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
       <c r="E7" s="128"/>
     </row>
     <row r="8" spans="2:5" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="49" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="15" t="s">
@@ -5515,35 +5553,35 @@
         <v>27</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B11" s="98" t="s">
+      <c r="B11" s="104" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="99"/>
-      <c r="D11" s="99"/>
-      <c r="E11" s="100"/>
+      <c r="C11" s="105"/>
+      <c r="D11" s="105"/>
+      <c r="E11" s="106"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="142" t="s">
-        <v>230</v>
-      </c>
-      <c r="C12" s="143"/>
-      <c r="D12" s="143"/>
-      <c r="E12" s="144"/>
+      <c r="B12" s="98" t="s">
+        <v>227</v>
+      </c>
+      <c r="C12" s="99"/>
+      <c r="D12" s="99"/>
+      <c r="E12" s="100"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="145" t="s">
+      <c r="C13" s="139" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="146"/>
-      <c r="E13" s="147"/>
+      <c r="D13" s="140"/>
+      <c r="E13" s="141"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="114"/>
@@ -5567,12 +5605,12 @@
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="127"/>
-      <c r="C16" s="109"/>
-      <c r="D16" s="109"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="101"/>
       <c r="E16" s="128"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="95" t="s">
+      <c r="B17" s="102" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -5586,7 +5624,7 @@
       </c>
     </row>
     <row r="18" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B18" s="95"/>
+      <c r="B18" s="102"/>
       <c r="C18" s="2" t="s">
         <v>51</v>
       </c>
@@ -5599,17 +5637,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B16:E16"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="C13:E13"/>
     <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B16:E16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/数据融合中心 数据服务API2(更新中).xlsx
+++ b/doc/数据融合中心 数据服务API2(更新中).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0034FA5A-9D3B-43AE-A94C-6751D99FEBB6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E710F271-0C3F-4EAC-8C35-037B7A1C7874}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="790" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="262">
   <si>
     <t>username</t>
   </si>
@@ -925,10 +925,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>historyId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>要获取详情的实体code</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1315,6 +1311,26 @@
     <t>/api2/entity/export/detail/{validateSign:\\d+}/{entityCode}
 /api2/entity/export/detail/{validateSign:user}
 /api2/entity/export/detail/{validateSign:user}/*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>versionCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求的版本code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>versionCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前版本号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非必须</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1481,7 +1497,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -1868,12 +1884,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2060,9 +2100,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2089,12 +2126,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2151,51 +2182,60 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2226,36 +2266,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2265,8 +2317,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2274,9 +2326,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2292,6 +2341,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2319,15 +2374,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2343,14 +2389,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2656,61 +2714,61 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="104" t="s">
+      <c r="B2" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="106"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="100"/>
     </row>
     <row r="3" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="98" t="s">
+      <c r="B3" s="101" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="100"/>
-      <c r="G3" s="95" t="s">
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="103"/>
+      <c r="G3" s="107" t="s">
         <v>111</v>
       </c>
       <c r="H3" s="55"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B4" s="97" t="s">
+      <c r="B4" s="96" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="101" t="s">
+      <c r="D4" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="101"/>
-      <c r="G4" s="96"/>
+      <c r="E4" s="109"/>
+      <c r="G4" s="108"/>
       <c r="H4" s="55"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="97"/>
+      <c r="B5" s="96"/>
       <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="101" t="s">
+      <c r="D5" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="101"/>
-      <c r="G5" s="96"/>
+      <c r="E5" s="109"/>
+      <c r="G5" s="108"/>
       <c r="H5" s="55"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B6" s="107"/>
-      <c r="C6" s="108"/>
-      <c r="D6" s="108"/>
-      <c r="E6" s="109"/>
-      <c r="G6" s="96"/>
+      <c r="B6" s="104"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="106"/>
+      <c r="G6" s="108"/>
       <c r="H6" s="55"/>
     </row>
     <row r="7" spans="2:8" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B7" s="97" t="s">
+      <c r="B7" s="96" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -2722,11 +2780,11 @@
       <c r="E7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="96"/>
+      <c r="G7" s="108"/>
       <c r="H7" s="55"/>
     </row>
     <row r="8" spans="2:8" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="B8" s="97"/>
+      <c r="B8" s="96"/>
       <c r="C8" s="2" t="s">
         <v>4</v>
       </c>
@@ -2736,11 +2794,11 @@
       <c r="E8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="96"/>
+      <c r="G8" s="108"/>
       <c r="H8" s="55"/>
     </row>
     <row r="9" spans="2:8" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B9" s="97"/>
+      <c r="B9" s="96"/>
       <c r="C9" s="2" t="s">
         <v>10</v>
       </c>
@@ -2750,77 +2808,77 @@
       <c r="E9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="96"/>
+      <c r="G9" s="108"/>
       <c r="H9" s="55"/>
     </row>
     <row r="10" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="2:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B11" s="104" t="s">
+      <c r="B11" s="98" t="s">
+        <v>220</v>
+      </c>
+      <c r="C11" s="99"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="100"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B12" s="101" t="s">
         <v>221</v>
       </c>
-      <c r="C11" s="105"/>
-      <c r="D11" s="105"/>
-      <c r="E11" s="106"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B12" s="98" t="s">
-        <v>222</v>
-      </c>
-      <c r="C12" s="99"/>
-      <c r="D12" s="99"/>
-      <c r="E12" s="100"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="102"/>
+      <c r="E12" s="103"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B13" s="102"/>
-      <c r="C13" s="97"/>
-      <c r="D13" s="97"/>
-      <c r="E13" s="103"/>
+      <c r="B13" s="95"/>
+      <c r="C13" s="96"/>
+      <c r="D13" s="96"/>
+      <c r="E13" s="97"/>
     </row>
     <row r="14" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="49" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="D14" s="83" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="86" t="s">
         <v>223</v>
       </c>
-      <c r="D14" s="86" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="89" t="s">
-        <v>224</v>
-      </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B15" s="87"/>
-      <c r="C15" s="88"/>
-      <c r="D15" s="87"/>
-      <c r="E15" s="87"/>
+      <c r="B15" s="84"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="84"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B16" s="87"/>
-      <c r="C16" s="88"/>
-      <c r="D16" s="87"/>
-      <c r="E16" s="87"/>
+      <c r="B16" s="84"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="84"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="87"/>
-      <c r="C17" s="88"/>
-      <c r="D17" s="87"/>
-      <c r="E17" s="87"/>
+      <c r="B17" s="84"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="G3:G9"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:B9"/>
-    <mergeCell ref="G3:G9"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -2849,20 +2907,20 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B2" s="104" t="s">
+      <c r="B2" s="98" t="s">
+        <v>227</v>
+      </c>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="100"/>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="101" t="s">
         <v>228</v>
       </c>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="106"/>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="98" t="s">
-        <v>229</v>
-      </c>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="100"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="103"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="47"/>
@@ -2885,49 +2943,49 @@
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="90"/>
-      <c r="E6" s="91"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="88"/>
     </row>
     <row r="7" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B8" s="104" t="s">
+      <c r="B8" s="98" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="105"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="106"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="100"/>
     </row>
     <row r="9" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="98" t="s">
-        <v>231</v>
-      </c>
-      <c r="C9" s="99"/>
-      <c r="D9" s="99"/>
-      <c r="E9" s="100"/>
+      <c r="B9" s="101" t="s">
+        <v>230</v>
+      </c>
+      <c r="C9" s="102"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="103"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="123" t="s">
+      <c r="B10" s="124" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="151" t="s">
+      <c r="D10" s="145" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="152"/>
+      <c r="E10" s="146"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="125"/>
+      <c r="B11" s="126"/>
       <c r="C11" s="45" t="s">
-        <v>230</v>
-      </c>
-      <c r="D11" s="131" t="s">
-        <v>232</v>
-      </c>
-      <c r="E11" s="132"/>
+        <v>229</v>
+      </c>
+      <c r="D11" s="135" t="s">
+        <v>231</v>
+      </c>
+      <c r="E11" s="136"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="114"/>
@@ -2936,7 +2994,7 @@
       <c r="E12" s="116"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="102" t="s">
+      <c r="B13" s="95" t="s">
         <v>55</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -2946,11 +3004,11 @@
         <v>63</v>
       </c>
       <c r="E13" s="33" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="102"/>
+      <c r="B14" s="95"/>
       <c r="C14" s="2" t="s">
         <v>56</v>
       </c>
@@ -2962,7 +3020,7 @@
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="102"/>
+      <c r="B15" s="95"/>
       <c r="C15" s="2" t="s">
         <v>57</v>
       </c>
@@ -2974,7 +3032,7 @@
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="102"/>
+      <c r="B16" s="95"/>
       <c r="C16" s="2" t="s">
         <v>59</v>
       </c>
@@ -2986,7 +3044,7 @@
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="102"/>
+      <c r="B17" s="95"/>
       <c r="C17" s="7" t="s">
         <v>19</v>
       </c>
@@ -2994,19 +3052,19 @@
         <v>54</v>
       </c>
       <c r="E17" s="52" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="95"/>
+      <c r="C18" s="45" t="s">
+        <v>173</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="E18" s="52" t="s">
         <v>234</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="102"/>
-      <c r="C18" s="45" t="s">
-        <v>174</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="E18" s="52" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
@@ -3030,37 +3088,37 @@
       </c>
     </row>
     <row r="23" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B23" s="153" t="s">
+      <c r="B23" s="131" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="153"/>
-      <c r="D23" s="153"/>
-      <c r="E23" s="153"/>
+      <c r="C23" s="131"/>
+      <c r="D23" s="131"/>
+      <c r="E23" s="131"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B24" s="99" t="s">
+      <c r="B24" s="102" t="s">
+        <v>236</v>
+      </c>
+      <c r="C24" s="102"/>
+      <c r="D24" s="102"/>
+      <c r="E24" s="102"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B25" s="96" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="48" t="s">
         <v>237</v>
       </c>
-      <c r="C24" s="99"/>
-      <c r="D24" s="99"/>
-      <c r="E24" s="99"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B25" s="97" t="s">
-        <v>2</v>
-      </c>
-      <c r="C25" s="48" t="s">
+      <c r="D25" s="32" t="s">
         <v>238</v>
       </c>
-      <c r="D25" s="32" t="s">
+      <c r="E25" s="89" t="s">
         <v>239</v>
       </c>
-      <c r="E25" s="92" t="s">
-        <v>240</v>
-      </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B26" s="97"/>
+      <c r="B26" s="96"/>
       <c r="C26" s="45" t="s">
         <v>103</v>
       </c>
@@ -3078,7 +3136,7 @@
       <c r="E27" s="46"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B28" s="97" t="s">
+      <c r="B28" s="96" t="s">
         <v>6</v>
       </c>
       <c r="C28" s="45" t="s">
@@ -3088,7 +3146,7 @@
       <c r="E28" s="44"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B29" s="97"/>
+      <c r="B29" s="96"/>
       <c r="C29" s="45" t="s">
         <v>69</v>
       </c>
@@ -3100,7 +3158,7 @@
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="97"/>
+      <c r="B30" s="96"/>
       <c r="C30" s="45" t="s">
         <v>70</v>
       </c>
@@ -3112,7 +3170,7 @@
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B31" s="97"/>
+      <c r="B31" s="96"/>
       <c r="C31" s="45" t="s">
         <v>71</v>
       </c>
@@ -3124,7 +3182,7 @@
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B32" s="97"/>
+      <c r="B32" s="96"/>
       <c r="C32" s="45" t="s">
         <v>72</v>
       </c>
@@ -3136,7 +3194,7 @@
       </c>
     </row>
     <row r="33" spans="2:6" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="B33" s="97"/>
+      <c r="B33" s="96"/>
       <c r="C33" s="45" t="s">
         <v>74</v>
       </c>
@@ -3148,7 +3206,7 @@
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B34" s="97"/>
+      <c r="B34" s="96"/>
       <c r="C34" s="45" t="s">
         <v>73</v>
       </c>
@@ -3172,55 +3230,55 @@
       <c r="E36" s="37"/>
     </row>
     <row r="37" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B37" s="104" t="s">
+      <c r="B37" s="98" t="s">
         <v>86</v>
       </c>
-      <c r="C37" s="105"/>
-      <c r="D37" s="105"/>
-      <c r="E37" s="106"/>
+      <c r="C37" s="99"/>
+      <c r="D37" s="99"/>
+      <c r="E37" s="100"/>
     </row>
     <row r="38" spans="2:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="133" t="s">
-        <v>257</v>
-      </c>
-      <c r="C38" s="99"/>
-      <c r="D38" s="99"/>
-      <c r="E38" s="100"/>
-      <c r="F38" s="87"/>
+        <v>256</v>
+      </c>
+      <c r="C38" s="102"/>
+      <c r="D38" s="102"/>
+      <c r="E38" s="103"/>
+      <c r="F38" s="84"/>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B39" s="102" t="s">
+      <c r="B39" s="95" t="s">
         <v>16</v>
       </c>
       <c r="C39" s="45" t="s">
         <v>151</v>
       </c>
-      <c r="D39" s="151" t="s">
+      <c r="D39" s="145" t="s">
         <v>87</v>
       </c>
-      <c r="E39" s="152"/>
-      <c r="F39" s="87"/>
+      <c r="E39" s="146"/>
+      <c r="F39" s="84"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B40" s="102"/>
+      <c r="B40" s="95"/>
       <c r="C40" s="45" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D40" s="112" t="s">
         <v>88</v>
       </c>
       <c r="E40" s="113"/>
-      <c r="F40" s="87"/>
+      <c r="F40" s="84"/>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B41" s="114"/>
       <c r="C41" s="115"/>
       <c r="D41" s="115"/>
       <c r="E41" s="116"/>
-      <c r="F41" s="87"/>
+      <c r="F41" s="84"/>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B42" s="102" t="s">
+      <c r="B42" s="95" t="s">
         <v>2</v>
       </c>
       <c r="C42" s="45" t="s">
@@ -3232,55 +3290,55 @@
       <c r="E42" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="F42" s="87"/>
+      <c r="F42" s="84"/>
     </row>
     <row r="43" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B43" s="102"/>
+      <c r="B43" s="95"/>
       <c r="C43" s="45" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D43" s="32" t="s">
-        <v>194</v>
-      </c>
-      <c r="E43" s="77" t="s">
+        <v>193</v>
+      </c>
+      <c r="E43" s="74" t="s">
+        <v>166</v>
+      </c>
+      <c r="F43" s="90"/>
+    </row>
+    <row r="44" spans="2:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="95"/>
+      <c r="C44" s="45" t="s">
+        <v>241</v>
+      </c>
+      <c r="D44" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="E44" s="74" t="s">
         <v>167</v>
       </c>
-      <c r="F43" s="93"/>
-    </row>
-    <row r="44" spans="2:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="102"/>
-      <c r="C44" s="45" t="s">
+      <c r="F44" s="90"/>
+    </row>
+    <row r="45" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B45" s="95"/>
+      <c r="C45" s="45" t="s">
+        <v>209</v>
+      </c>
+      <c r="D45" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="E45" s="33" t="s">
         <v>242</v>
       </c>
-      <c r="D44" s="32" t="s">
-        <v>194</v>
-      </c>
-      <c r="E44" s="77" t="s">
-        <v>168</v>
-      </c>
-      <c r="F44" s="93"/>
-    </row>
-    <row r="45" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B45" s="102"/>
-      <c r="C45" s="45" t="s">
-        <v>210</v>
-      </c>
-      <c r="D45" s="32" t="s">
-        <v>194</v>
-      </c>
-      <c r="E45" s="33" t="s">
-        <v>243</v>
-      </c>
-      <c r="F45" s="87"/>
+      <c r="F45" s="84"/>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B46" s="127"/>
-      <c r="C46" s="101"/>
-      <c r="D46" s="101"/>
-      <c r="E46" s="128"/>
+      <c r="B46" s="121"/>
+      <c r="C46" s="109"/>
+      <c r="D46" s="109"/>
+      <c r="E46" s="122"/>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B47" s="102" t="s">
+      <c r="B47" s="95" t="s">
         <v>6</v>
       </c>
       <c r="C47" s="45" t="s">
@@ -3294,7 +3352,7 @@
       </c>
     </row>
     <row r="48" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="120"/>
+      <c r="B48" s="123"/>
       <c r="C48" s="15" t="s">
         <v>67</v>
       </c>
@@ -3318,20 +3376,20 @@
       <c r="E50" s="37"/>
     </row>
     <row r="51" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B51" s="142" t="s">
+      <c r="B51" s="147" t="s">
         <v>81</v>
       </c>
-      <c r="C51" s="143"/>
-      <c r="D51" s="143"/>
-      <c r="E51" s="144"/>
+      <c r="C51" s="148"/>
+      <c r="D51" s="148"/>
+      <c r="E51" s="149"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B52" s="145" t="s">
-        <v>244</v>
-      </c>
-      <c r="C52" s="146"/>
-      <c r="D52" s="146"/>
-      <c r="E52" s="147"/>
+      <c r="B52" s="150" t="s">
+        <v>243</v>
+      </c>
+      <c r="C52" s="151"/>
+      <c r="D52" s="151"/>
+      <c r="E52" s="152"/>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B53" s="17" t="s">
@@ -3357,11 +3415,11 @@
       <c r="B55" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C55" s="148" t="s">
+      <c r="C55" s="153" t="s">
         <v>82</v>
       </c>
-      <c r="D55" s="149"/>
-      <c r="E55" s="150"/>
+      <c r="D55" s="154"/>
+      <c r="E55" s="155"/>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B56" s="10"/>
@@ -3371,20 +3429,20 @@
     </row>
     <row r="57" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="58" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B58" s="142" t="s">
+      <c r="B58" s="147" t="s">
         <v>93</v>
       </c>
-      <c r="C58" s="143"/>
-      <c r="D58" s="143"/>
-      <c r="E58" s="144"/>
+      <c r="C58" s="148"/>
+      <c r="D58" s="148"/>
+      <c r="E58" s="149"/>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B59" s="145" t="s">
-        <v>245</v>
-      </c>
-      <c r="C59" s="146"/>
-      <c r="D59" s="146"/>
-      <c r="E59" s="147"/>
+      <c r="B59" s="150" t="s">
+        <v>244</v>
+      </c>
+      <c r="C59" s="151"/>
+      <c r="D59" s="151"/>
+      <c r="E59" s="152"/>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B60" s="17" t="s">
@@ -3407,7 +3465,7 @@
       <c r="E61" s="27"/>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B62" s="102" t="s">
+      <c r="B62" s="95" t="s">
         <v>6</v>
       </c>
       <c r="C62" s="2" t="s">
@@ -3421,7 +3479,7 @@
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B63" s="102"/>
+      <c r="B63" s="95"/>
       <c r="C63" s="2" t="s">
         <v>95</v>
       </c>
@@ -3433,7 +3491,7 @@
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B64" s="123"/>
+      <c r="B64" s="124"/>
       <c r="C64" s="30" t="s">
         <v>67</v>
       </c>
@@ -3443,7 +3501,7 @@
       <c r="E64" s="31"/>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B65" s="123"/>
+      <c r="B65" s="124"/>
       <c r="C65" s="30" t="s">
         <v>58</v>
       </c>
@@ -3455,7 +3513,7 @@
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B66" s="123"/>
+      <c r="B66" s="124"/>
       <c r="C66" s="30" t="s">
         <v>56</v>
       </c>
@@ -3467,7 +3525,7 @@
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B67" s="123"/>
+      <c r="B67" s="124"/>
       <c r="C67" s="30" t="s">
         <v>57</v>
       </c>
@@ -3479,7 +3537,7 @@
       </c>
     </row>
     <row r="68" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="120"/>
+      <c r="B68" s="123"/>
       <c r="C68" s="15" t="s">
         <v>96</v>
       </c>
@@ -3492,6 +3550,24 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="B62:B68"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="B28:B34"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B42:B45"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B23:E23"/>
@@ -3502,24 +3578,6 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B28:B34"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="B62:B68"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="C55:E55"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3571,19 +3629,19 @@
   <sheetData>
     <row r="2" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B3" s="142"/>
-      <c r="C3" s="143"/>
-      <c r="D3" s="143"/>
-      <c r="E3" s="144"/>
+      <c r="B3" s="147"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="149"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="154"/>
-      <c r="C4" s="155"/>
-      <c r="D4" s="155"/>
-      <c r="E4" s="156"/>
+      <c r="B4" s="156"/>
+      <c r="C4" s="157"/>
+      <c r="D4" s="157"/>
+      <c r="E4" s="158"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="157" t="s">
+      <c r="B5" s="159" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="28"/>
@@ -3591,7 +3649,7 @@
       <c r="E5" s="29"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="158"/>
+      <c r="B6" s="160"/>
       <c r="C6" s="2"/>
       <c r="D6" s="32"/>
       <c r="E6" s="34"/>
@@ -3603,7 +3661,7 @@
       <c r="E7" s="116"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="123" t="s">
+      <c r="B8" s="124" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="6"/>
@@ -3611,7 +3669,7 @@
       <c r="E8" s="25"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="125"/>
+      <c r="B9" s="126"/>
       <c r="C9" s="2"/>
       <c r="D9" s="8"/>
       <c r="E9" s="12"/>
@@ -3623,7 +3681,7 @@
       <c r="E10" s="27"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="123" t="s">
+      <c r="B11" s="124" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="2"/>
@@ -3631,7 +3689,7 @@
       <c r="E11" s="14"/>
     </row>
     <row r="12" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="136"/>
+      <c r="B12" s="137"/>
       <c r="C12" s="15"/>
       <c r="D12" s="21"/>
       <c r="E12" s="20"/>
@@ -3667,20 +3725,20 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B2" s="104" t="s">
+      <c r="B2" s="98" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="106"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="100"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="98" t="s">
-        <v>254</v>
-      </c>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="100"/>
+      <c r="B3" s="101" t="s">
+        <v>253</v>
+      </c>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="103"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="17" t="s">
@@ -3693,10 +3751,10 @@
       <c r="E4" s="111"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="102"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="103"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="97"/>
     </row>
     <row r="6" spans="2:5" ht="159" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18" t="s">
@@ -3743,20 +3801,20 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B2" s="104" t="s">
+      <c r="B2" s="98" t="s">
         <v>132</v>
       </c>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="106"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="100"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="98" t="s">
+      <c r="B3" s="101" t="s">
         <v>122</v>
       </c>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="100"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="103"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="42" t="s">
@@ -3777,7 +3835,7 @@
       <c r="E5" s="116"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="102" t="s">
+      <c r="B6" s="95" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="38" t="s">
@@ -3791,19 +3849,19 @@
       </c>
     </row>
     <row r="7" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B7" s="102"/>
-      <c r="C7" s="94" t="s">
+      <c r="B7" s="95"/>
+      <c r="C7" s="91" t="s">
+        <v>247</v>
+      </c>
+      <c r="D7" s="32" t="s">
         <v>248</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="E7" s="33" t="s">
         <v>249</v>
       </c>
-      <c r="E7" s="33" t="s">
-        <v>250</v>
-      </c>
     </row>
     <row r="8" spans="2:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B8" s="102"/>
+      <c r="B8" s="95"/>
       <c r="C8" s="7" t="s">
         <v>20</v>
       </c>
@@ -3821,7 +3879,7 @@
       <c r="E9" s="119"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="97" t="s">
+      <c r="B10" s="96" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="38" t="s">
@@ -3835,7 +3893,7 @@
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="97"/>
+      <c r="B11" s="96"/>
       <c r="C11" s="38" t="s">
         <v>25</v>
       </c>
@@ -3847,7 +3905,7 @@
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="97"/>
+      <c r="B12" s="96"/>
       <c r="C12" s="38" t="s">
         <v>113</v>
       </c>
@@ -3859,19 +3917,19 @@
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="97"/>
-      <c r="C13" s="94" t="s">
+      <c r="B13" s="96"/>
+      <c r="C13" s="91" t="s">
+        <v>250</v>
+      </c>
+      <c r="D13" s="32" t="s">
         <v>251</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="E13" s="59" t="s">
         <v>252</v>
       </c>
-      <c r="E13" s="59" t="s">
-        <v>253</v>
-      </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="97"/>
+      <c r="B14" s="96"/>
       <c r="C14" s="38" t="s">
         <v>114</v>
       </c>
@@ -3883,7 +3941,7 @@
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="97"/>
+      <c r="B15" s="96"/>
       <c r="C15" s="38" t="s">
         <v>115</v>
       </c>
@@ -3895,7 +3953,7 @@
       </c>
     </row>
     <row r="16" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B16" s="97"/>
+      <c r="B16" s="96"/>
       <c r="C16" s="38" t="s">
         <v>116</v>
       </c>
@@ -3942,20 +4000,20 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B2" s="104" t="s">
+      <c r="B2" s="98" t="s">
         <v>144</v>
       </c>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="106"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="100"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="98" t="s">
+      <c r="B3" s="101" t="s">
         <v>135</v>
       </c>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="100"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="103"/>
     </row>
     <row r="4" spans="2:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="39" t="s">
@@ -3964,10 +4022,10 @@
       <c r="C4" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="D4" s="95" t="s">
+      <c r="D4" s="107" t="s">
         <v>137</v>
       </c>
-      <c r="E4" s="126"/>
+      <c r="E4" s="120"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="114"/>
@@ -3976,7 +4034,7 @@
       <c r="E5" s="116"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="102" t="s">
+      <c r="B6" s="95" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="38" t="s">
@@ -3990,7 +4048,7 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="102"/>
+      <c r="B7" s="95"/>
       <c r="C7" s="38" t="s">
         <v>18</v>
       </c>
@@ -4002,13 +4060,13 @@
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="127"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="128"/>
+      <c r="B8" s="121"/>
+      <c r="C8" s="109"/>
+      <c r="D8" s="109"/>
+      <c r="E8" s="122"/>
     </row>
     <row r="9" spans="2:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B9" s="102" t="s">
+      <c r="B9" s="95" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="38" t="s">
@@ -4017,61 +4075,61 @@
       <c r="D9" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="69" t="s">
+      <c r="E9" s="68" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="102"/>
+      <c r="B10" s="95"/>
       <c r="C10" s="38" t="s">
         <v>139</v>
       </c>
       <c r="D10" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="69" t="s">
+      <c r="E10" s="68" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="120"/>
+      <c r="B11" s="123"/>
       <c r="C11" s="15" t="s">
         <v>140</v>
       </c>
       <c r="D11" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="E11" s="68" t="s">
+      <c r="E11" s="67" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="65"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="67"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="66"/>
     </row>
     <row r="13" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="65"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="67"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="66"/>
     </row>
     <row r="14" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B14" s="104" t="s">
+      <c r="B14" s="98" t="s">
         <v>145</v>
       </c>
-      <c r="C14" s="105"/>
-      <c r="D14" s="105"/>
-      <c r="E14" s="106"/>
+      <c r="C14" s="99"/>
+      <c r="D14" s="99"/>
+      <c r="E14" s="100"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="98" t="s">
+      <c r="B15" s="101" t="s">
         <v>146</v>
       </c>
-      <c r="C15" s="99"/>
-      <c r="D15" s="99"/>
-      <c r="E15" s="100"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="103"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="39" t="s">
@@ -4080,16 +4138,16 @@
       <c r="C16" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="D16" s="95" t="s">
+      <c r="D16" s="107" t="s">
         <v>137</v>
       </c>
-      <c r="E16" s="126"/>
+      <c r="E16" s="120"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="127"/>
-      <c r="C17" s="101"/>
-      <c r="D17" s="101"/>
-      <c r="E17" s="128"/>
+      <c r="B17" s="121"/>
+      <c r="C17" s="109"/>
+      <c r="D17" s="109"/>
+      <c r="E17" s="122"/>
     </row>
     <row r="18" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="40" t="s">
@@ -4101,7 +4159,7 @@
       <c r="D18" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="70" t="s">
+      <c r="E18" s="69" t="s">
         <v>148</v>
       </c>
     </row>
@@ -4146,20 +4204,20 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B2" s="104" t="s">
+      <c r="B2" s="98" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="106"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="100"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="98" t="s">
+      <c r="B3" s="101" t="s">
         <v>123</v>
       </c>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="100"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="103"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="42" t="s">
@@ -4180,7 +4238,7 @@
       <c r="E5" s="116"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="102" t="s">
+      <c r="B6" s="95" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="38" t="s">
@@ -4194,7 +4252,7 @@
       </c>
     </row>
     <row r="7" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B7" s="102"/>
+      <c r="B7" s="95"/>
       <c r="C7" s="7" t="s">
         <v>20</v>
       </c>
@@ -4212,7 +4270,7 @@
       <c r="E8" s="119"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="102" t="s">
+      <c r="B9" s="95" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="38" t="s">
@@ -4226,7 +4284,7 @@
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="102"/>
+      <c r="B10" s="95"/>
       <c r="C10" s="38" t="s">
         <v>25</v>
       </c>
@@ -4238,7 +4296,7 @@
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="102"/>
+      <c r="B11" s="95"/>
       <c r="C11" s="38" t="s">
         <v>113</v>
       </c>
@@ -4250,7 +4308,7 @@
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="102"/>
+      <c r="B12" s="95"/>
       <c r="C12" s="38" t="s">
         <v>114</v>
       </c>
@@ -4262,7 +4320,7 @@
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="102"/>
+      <c r="B13" s="95"/>
       <c r="C13" s="38" t="s">
         <v>115</v>
       </c>
@@ -4274,7 +4332,7 @@
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="102"/>
+      <c r="B14" s="95"/>
       <c r="C14" s="38" t="s">
         <v>129</v>
       </c>
@@ -4286,7 +4344,7 @@
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="102"/>
+      <c r="B15" s="95"/>
       <c r="C15" s="38" t="s">
         <v>125</v>
       </c>
@@ -4298,7 +4356,7 @@
       </c>
     </row>
     <row r="16" spans="2:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="120"/>
+      <c r="B16" s="123"/>
       <c r="C16" s="15" t="s">
         <v>116</v>
       </c>
@@ -4311,23 +4369,23 @@
     </row>
     <row r="18" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B19" s="104" t="s">
+      <c r="B19" s="98" t="s">
         <v>134</v>
       </c>
-      <c r="C19" s="105"/>
-      <c r="D19" s="105"/>
-      <c r="E19" s="106"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="99"/>
+      <c r="E19" s="100"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="98" t="s">
+      <c r="B20" s="101" t="s">
         <v>136</v>
       </c>
-      <c r="C20" s="99"/>
-      <c r="D20" s="99"/>
-      <c r="E20" s="100"/>
+      <c r="C20" s="102"/>
+      <c r="D20" s="102"/>
+      <c r="E20" s="103"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="123" t="s">
+      <c r="B21" s="124" t="s">
         <v>16</v>
       </c>
       <c r="C21" s="43" t="s">
@@ -4339,20 +4397,20 @@
       <c r="E21" s="113"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="124"/>
+      <c r="B22" s="125"/>
       <c r="C22" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="D22" s="121"/>
-      <c r="E22" s="122"/>
+      <c r="D22" s="127"/>
+      <c r="E22" s="128"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="125"/>
+      <c r="B23" s="126"/>
       <c r="C23" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="D23" s="121"/>
-      <c r="E23" s="122"/>
+      <c r="D23" s="127"/>
+      <c r="E23" s="128"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="114"/>
@@ -4381,7 +4439,7 @@
       <c r="E26" s="119"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B27" s="102" t="s">
+      <c r="B27" s="95" t="s">
         <v>6</v>
       </c>
       <c r="C27" s="38" t="s">
@@ -4395,7 +4453,7 @@
       </c>
     </row>
     <row r="28" spans="2:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="120"/>
+      <c r="B28" s="123"/>
       <c r="C28" s="15" t="s">
         <v>116</v>
       </c>
@@ -4408,22 +4466,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B24:E24"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B9:B16"/>
     <mergeCell ref="B19:E19"/>
     <mergeCell ref="B20:E20"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:B7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -4439,10 +4497,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B482E8C-E5D3-44B0-8612-77665C895F24}">
-  <dimension ref="B1:E39"/>
+  <dimension ref="B1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33:E33"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4454,62 +4512,62 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B2" s="104" t="s">
+      <c r="B2" s="98" t="s">
         <v>149</v>
       </c>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="106"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="100"/>
     </row>
     <row r="3" spans="2:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="133" t="s">
-        <v>255</v>
-      </c>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="100"/>
+        <v>254</v>
+      </c>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="103"/>
     </row>
     <row r="4" spans="2:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="102" t="s">
+      <c r="B4" s="95" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="D4" s="129" t="s">
+      <c r="D4" s="130" t="s">
         <v>162</v>
       </c>
-      <c r="E4" s="130"/>
+      <c r="E4" s="134"/>
     </row>
     <row r="5" spans="2:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="102"/>
+      <c r="B5" s="95"/>
       <c r="C5" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="D5" s="129" t="s">
+      <c r="D5" s="130" t="s">
         <v>161</v>
       </c>
-      <c r="E5" s="130"/>
+      <c r="E5" s="134"/>
     </row>
     <row r="6" spans="2:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="102"/>
+      <c r="B6" s="95"/>
       <c r="C6" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="D6" s="129" t="s">
+      <c r="D6" s="130" t="s">
         <v>159</v>
       </c>
-      <c r="E6" s="130"/>
+      <c r="E6" s="134"/>
     </row>
     <row r="7" spans="2:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="102"/>
+      <c r="B7" s="95"/>
       <c r="C7" s="38" t="s">
         <v>153</v>
       </c>
-      <c r="D7" s="129" t="s">
+      <c r="D7" s="130" t="s">
         <v>160</v>
       </c>
-      <c r="E7" s="130"/>
+      <c r="E7" s="134"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="114"/>
@@ -4532,13 +4590,13 @@
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="127"/>
-      <c r="C10" s="101"/>
-      <c r="D10" s="101"/>
-      <c r="E10" s="128"/>
+      <c r="B10" s="121"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="122"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="102" t="s">
+      <c r="B11" s="95" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="38" t="s">
@@ -4547,206 +4605,213 @@
       <c r="D11" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="72" t="s">
+      <c r="E11" s="71" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="120"/>
+      <c r="B12" s="123"/>
       <c r="C12" s="15" t="s">
         <v>112</v>
       </c>
       <c r="D12" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="71" t="s">
+      <c r="E12" s="70" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B15" s="104" t="s">
+      <c r="B15" s="131" t="s">
         <v>163</v>
       </c>
-      <c r="C15" s="105"/>
-      <c r="D15" s="105"/>
-      <c r="E15" s="106"/>
+      <c r="C15" s="131"/>
+      <c r="D15" s="131"/>
+      <c r="E15" s="131"/>
     </row>
     <row r="16" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="133" t="s">
-        <v>200</v>
-      </c>
-      <c r="C16" s="99"/>
-      <c r="D16" s="99"/>
-      <c r="E16" s="100"/>
+      <c r="B16" s="132" t="s">
+        <v>199</v>
+      </c>
+      <c r="C16" s="102"/>
+      <c r="D16" s="102"/>
+      <c r="E16" s="102"/>
     </row>
     <row r="17" spans="2:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="102" t="s">
+      <c r="B17" s="96" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="38" t="s">
+      <c r="C17" s="92" t="s">
         <v>151</v>
       </c>
-      <c r="D17" s="129" t="s">
+      <c r="D17" s="130" t="s">
         <v>161</v>
       </c>
       <c r="E17" s="130"/>
     </row>
     <row r="18" spans="2:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="102"/>
-      <c r="C18" s="38" t="s">
+      <c r="B18" s="96"/>
+      <c r="C18" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="129" t="s">
-        <v>165</v>
+      <c r="D18" s="130" t="s">
+        <v>164</v>
       </c>
       <c r="E18" s="130"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="114"/>
+      <c r="B19" s="115"/>
       <c r="C19" s="115"/>
       <c r="D19" s="115"/>
-      <c r="E19" s="116"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="123" t="s">
+      <c r="E19" s="115"/>
+    </row>
+    <row r="20" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="75" t="s">
+      <c r="C20" s="92" t="s">
+        <v>245</v>
+      </c>
+      <c r="D20" s="93" t="s">
+        <v>261</v>
+      </c>
+      <c r="E20" s="164" t="s">
         <v>246</v>
       </c>
-      <c r="D20" s="129" t="s">
-        <v>247</v>
-      </c>
-      <c r="E20" s="130"/>
     </row>
     <row r="21" spans="2:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="124"/>
-      <c r="C21" s="38" t="s">
+      <c r="B21" s="96"/>
+      <c r="C21" s="92" t="s">
         <v>152</v>
       </c>
-      <c r="D21" s="129" t="s">
+      <c r="D21" s="93" t="s">
+        <v>261</v>
+      </c>
+      <c r="E21" s="164" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="96"/>
+      <c r="C22" s="92" t="s">
+        <v>153</v>
+      </c>
+      <c r="D22" s="93" t="s">
+        <v>261</v>
+      </c>
+      <c r="E22" s="164" t="s">
         <v>167</v>
       </c>
-      <c r="E21" s="130"/>
-    </row>
-    <row r="22" spans="2:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="124"/>
-      <c r="C22" s="38" t="s">
-        <v>153</v>
-      </c>
-      <c r="D22" s="129" t="s">
+    </row>
+    <row r="23" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B23" s="96"/>
+      <c r="C23" s="92" t="s">
+        <v>154</v>
+      </c>
+      <c r="D23" s="93" t="s">
+        <v>261</v>
+      </c>
+      <c r="E23" s="164" t="s">
         <v>168</v>
       </c>
-      <c r="E22" s="130"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="125"/>
-      <c r="C23" s="38" t="s">
-        <v>154</v>
-      </c>
-      <c r="D23" s="131" t="s">
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B24" s="109"/>
+      <c r="C24" s="109"/>
+      <c r="D24" s="109"/>
+      <c r="E24" s="109"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B25" s="96" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="92" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="93" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="94" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B26" s="96"/>
+      <c r="C26" s="92" t="s">
+        <v>257</v>
+      </c>
+      <c r="D26" s="93" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="165" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B27" s="96"/>
+      <c r="C27" s="92" t="s">
+        <v>165</v>
+      </c>
+      <c r="D27" s="93" t="s">
+        <v>179</v>
+      </c>
+      <c r="E27" s="166" t="s">
         <v>169</v>
       </c>
-      <c r="E23" s="132"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B24" s="127"/>
-      <c r="C24" s="101"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="128"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B25" s="102" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25" s="72" t="s">
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B28" s="64"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="72"/>
+    </row>
+    <row r="30" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B30" s="131" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B26" s="123"/>
-      <c r="C26" s="30" t="s">
-        <v>164</v>
-      </c>
-      <c r="D26" s="64" t="s">
-        <v>97</v>
-      </c>
-      <c r="E26" s="74" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="120"/>
-      <c r="C27" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="D27" s="62" t="s">
-        <v>180</v>
-      </c>
-      <c r="E27" s="71" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B28" s="65"/>
-      <c r="C28" s="65"/>
-      <c r="D28" s="66"/>
-      <c r="E28" s="73"/>
-    </row>
-    <row r="30" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B30" s="153" t="s">
+      <c r="C30" s="131"/>
+      <c r="D30" s="131"/>
+      <c r="E30" s="131"/>
+    </row>
+    <row r="31" spans="2:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="132" t="s">
+        <v>198</v>
+      </c>
+      <c r="C31" s="102"/>
+      <c r="D31" s="102"/>
+      <c r="E31" s="102"/>
+    </row>
+    <row r="32" spans="2:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="96" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="91" t="s">
+        <v>151</v>
+      </c>
+      <c r="D32" s="130" t="s">
+        <v>161</v>
+      </c>
+      <c r="E32" s="130"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B33" s="96"/>
+      <c r="C33" s="91" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="129" t="s">
+        <v>175</v>
+      </c>
+      <c r="E33" s="129"/>
+    </row>
+    <row r="34" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="96"/>
+      <c r="C34" s="91" t="s">
         <v>173</v>
       </c>
-      <c r="C30" s="153"/>
-      <c r="D30" s="153"/>
-      <c r="E30" s="153"/>
-    </row>
-    <row r="31" spans="2:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="159" t="s">
-        <v>199</v>
-      </c>
-      <c r="C31" s="99"/>
-      <c r="D31" s="99"/>
-      <c r="E31" s="99"/>
-    </row>
-    <row r="32" spans="2:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="97" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32" s="94" t="s">
-        <v>151</v>
-      </c>
-      <c r="D32" s="129" t="s">
-        <v>161</v>
-      </c>
-      <c r="E32" s="129"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B33" s="97"/>
-      <c r="C33" s="94" t="s">
-        <v>32</v>
-      </c>
-      <c r="D33" s="160" t="s">
-        <v>176</v>
-      </c>
-      <c r="E33" s="160"/>
-    </row>
-    <row r="34" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="97"/>
-      <c r="C34" s="94" t="s">
+      <c r="D34" s="129" t="s">
         <v>174</v>
       </c>
-      <c r="D34" s="160" t="s">
-        <v>175</v>
-      </c>
-      <c r="E34" s="160"/>
+      <c r="E34" s="129"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B35" s="115"/>
@@ -4754,61 +4819,76 @@
       <c r="D35" s="115"/>
       <c r="E35" s="115"/>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B36" s="97" t="s">
+    <row r="36" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="161" t="s">
+        <v>176</v>
+      </c>
+      <c r="C36" s="91" t="s">
+        <v>152</v>
+      </c>
+      <c r="D36" s="93" t="s">
+        <v>261</v>
+      </c>
+      <c r="E36" s="164" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="162"/>
+      <c r="C37" s="91" t="s">
+        <v>153</v>
+      </c>
+      <c r="D37" s="93" t="s">
+        <v>261</v>
+      </c>
+      <c r="E37" s="164" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B38" s="163"/>
+      <c r="C38" s="92" t="s">
+        <v>259</v>
+      </c>
+      <c r="D38" s="93" t="s">
+        <v>261</v>
+      </c>
+      <c r="E38" s="167" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B39" s="109"/>
+      <c r="C39" s="109"/>
+      <c r="D39" s="109"/>
+      <c r="E39" s="109"/>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B40" s="91" t="s">
         <v>177</v>
       </c>
-      <c r="C36" s="94" t="s">
-        <v>152</v>
-      </c>
-      <c r="D36" s="129" t="s">
-        <v>167</v>
-      </c>
-      <c r="E36" s="129"/>
-    </row>
-    <row r="37" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="97"/>
-      <c r="C37" s="94" t="s">
-        <v>153</v>
-      </c>
-      <c r="D37" s="129" t="s">
-        <v>168</v>
-      </c>
-      <c r="E37" s="129"/>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B38" s="101"/>
-      <c r="C38" s="101"/>
-      <c r="D38" s="101"/>
-      <c r="E38" s="101"/>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B39" s="94" t="s">
+      <c r="C40" s="91" t="s">
+        <v>33</v>
+      </c>
+      <c r="D40" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="C39" s="94" t="s">
-        <v>33</v>
-      </c>
-      <c r="D39" s="32" t="s">
-        <v>179</v>
-      </c>
-      <c r="E39" s="161" t="s">
-        <v>181</v>
+      <c r="E40" s="94" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D34:E34"/>
+  <mergeCells count="28">
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="D4:E4"/>
@@ -4818,25 +4898,20 @@
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:B38"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E11" r:id="rId1" location="数据结构说明_详情配置信息" xr:uid="{93407C34-B342-4F27-8863-1F82B19F301D}"/>
-    <hyperlink ref="E39" r:id="rId2" location="数据结构说明_历史" xr:uid="{4C8856F3-ADEA-41DB-B66A-26B8CEEE2E4F}"/>
+    <hyperlink ref="E40" r:id="rId2" location="数据结构说明_历史" xr:uid="{4C8856F3-ADEA-41DB-B66A-26B8CEEE2E4F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -4860,62 +4935,62 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B2" s="104" t="s">
-        <v>204</v>
-      </c>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="106"/>
+      <c r="B2" s="98" t="s">
+        <v>203</v>
+      </c>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="100"/>
     </row>
     <row r="3" spans="2:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="133" t="s">
-        <v>256</v>
-      </c>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="100"/>
+        <v>255</v>
+      </c>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="103"/>
     </row>
     <row r="4" spans="2:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="123" t="s">
+      <c r="B4" s="124" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="45" t="s">
         <v>150</v>
       </c>
-      <c r="D4" s="129" t="s">
+      <c r="D4" s="130" t="s">
         <v>162</v>
       </c>
-      <c r="E4" s="130"/>
+      <c r="E4" s="134"/>
     </row>
     <row r="5" spans="2:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="124"/>
+      <c r="B5" s="125"/>
       <c r="C5" s="45" t="s">
-        <v>205</v>
-      </c>
-      <c r="D5" s="129" t="s">
+        <v>204</v>
+      </c>
+      <c r="D5" s="130" t="s">
         <v>161</v>
       </c>
-      <c r="E5" s="130"/>
+      <c r="E5" s="134"/>
     </row>
     <row r="6" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="124"/>
+      <c r="B6" s="125"/>
       <c r="C6" s="45" t="s">
         <v>152</v>
       </c>
-      <c r="D6" s="129" t="s">
+      <c r="D6" s="130" t="s">
+        <v>206</v>
+      </c>
+      <c r="E6" s="134"/>
+    </row>
+    <row r="7" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="126"/>
+      <c r="C7" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="D7" s="138" t="s">
         <v>207</v>
       </c>
-      <c r="E6" s="130"/>
-    </row>
-    <row r="7" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="125"/>
-      <c r="C7" s="45" t="s">
-        <v>206</v>
-      </c>
-      <c r="D7" s="134" t="s">
-        <v>208</v>
-      </c>
-      <c r="E7" s="135"/>
+      <c r="E7" s="139"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="114"/>
@@ -4924,13 +4999,13 @@
       <c r="E8" s="116"/>
     </row>
     <row r="9" spans="2:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="123" t="s">
+      <c r="B9" s="124" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="76" t="s">
+      <c r="D9" s="73" t="s">
         <v>37</v>
       </c>
       <c r="E9" s="22" t="s">
@@ -4938,49 +5013,49 @@
       </c>
     </row>
     <row r="10" spans="2:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="124"/>
-      <c r="C10" s="81" t="s">
+      <c r="B10" s="125"/>
+      <c r="C10" s="78" t="s">
         <v>107</v>
       </c>
-      <c r="D10" s="83" t="s">
+      <c r="D10" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="82" t="s">
+      <c r="E10" s="79" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="124"/>
-      <c r="C11" s="81" t="s">
+      <c r="B11" s="125"/>
+      <c r="C11" s="78" t="s">
+        <v>209</v>
+      </c>
+      <c r="D11" s="80" t="s">
+        <v>193</v>
+      </c>
+      <c r="E11" s="81" t="s">
         <v>210</v>
       </c>
-      <c r="D11" s="83" t="s">
-        <v>194</v>
-      </c>
-      <c r="E11" s="84" t="s">
-        <v>211</v>
-      </c>
     </row>
     <row r="12" spans="2:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="124"/>
+      <c r="B12" s="125"/>
       <c r="C12" s="45" t="s">
         <v>38</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="85" t="s">
-        <v>212</v>
+      <c r="E12" s="82" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="127"/>
-      <c r="C13" s="101"/>
-      <c r="D13" s="101"/>
-      <c r="E13" s="128"/>
+      <c r="B13" s="121"/>
+      <c r="C13" s="109"/>
+      <c r="D13" s="109"/>
+      <c r="E13" s="122"/>
     </row>
     <row r="14" spans="2:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="102" t="s">
+      <c r="B14" s="95" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="45" t="s">
@@ -4989,38 +5064,38 @@
       <c r="D14" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="80" t="s">
-        <v>209</v>
+      <c r="E14" s="77" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="120"/>
+      <c r="B15" s="123"/>
       <c r="C15" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D15" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="68" t="s">
-        <v>171</v>
+      <c r="E15" s="67" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B18" s="104" t="s">
+      <c r="B18" s="98" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="105"/>
-      <c r="D18" s="105"/>
-      <c r="E18" s="106"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="99"/>
+      <c r="E18" s="100"/>
     </row>
     <row r="19" spans="2:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="133" t="s">
-        <v>213</v>
-      </c>
-      <c r="C19" s="99"/>
-      <c r="D19" s="99"/>
-      <c r="E19" s="100"/>
+        <v>212</v>
+      </c>
+      <c r="C19" s="102"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="103"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="50" t="s">
@@ -5029,10 +5104,10 @@
       <c r="C20" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="129" t="s">
-        <v>216</v>
-      </c>
-      <c r="E20" s="130"/>
+      <c r="D20" s="130" t="s">
+        <v>215</v>
+      </c>
+      <c r="E20" s="134"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="114"/>
@@ -5047,22 +5122,22 @@
       <c r="C22" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="76" t="s">
+      <c r="D22" s="73" t="s">
         <v>43</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="127"/>
-      <c r="C23" s="101"/>
-      <c r="D23" s="101"/>
-      <c r="E23" s="128"/>
+      <c r="B23" s="121"/>
+      <c r="C23" s="109"/>
+      <c r="D23" s="109"/>
+      <c r="E23" s="122"/>
     </row>
     <row r="24" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="49" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>3</v>
@@ -5070,26 +5145,26 @@
       <c r="D24" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="E24" s="68" t="s">
-        <v>215</v>
+      <c r="E24" s="67" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B27" s="104" t="s">
+      <c r="B27" s="98" t="s">
         <v>106</v>
       </c>
-      <c r="C27" s="105"/>
-      <c r="D27" s="105"/>
-      <c r="E27" s="106"/>
+      <c r="C27" s="99"/>
+      <c r="D27" s="99"/>
+      <c r="E27" s="100"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B28" s="133" t="s">
-        <v>217</v>
-      </c>
-      <c r="C28" s="99"/>
-      <c r="D28" s="99"/>
-      <c r="E28" s="100"/>
+        <v>216</v>
+      </c>
+      <c r="C28" s="102"/>
+      <c r="D28" s="102"/>
+      <c r="E28" s="103"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" s="47" t="s">
@@ -5098,10 +5173,10 @@
       <c r="C29" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="129" t="s">
-        <v>216</v>
-      </c>
-      <c r="E29" s="130"/>
+      <c r="D29" s="130" t="s">
+        <v>215</v>
+      </c>
+      <c r="E29" s="134"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B30" s="114"/>
@@ -5116,22 +5191,22 @@
       <c r="C31" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="D31" s="76" t="s">
+      <c r="D31" s="73" t="s">
         <v>43</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B32" s="127"/>
-      <c r="C32" s="101"/>
-      <c r="D32" s="101"/>
-      <c r="E32" s="128"/>
+      <c r="B32" s="121"/>
+      <c r="C32" s="109"/>
+      <c r="D32" s="109"/>
+      <c r="E32" s="122"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B33" s="123" t="s">
-        <v>178</v>
+      <c r="B33" s="124" t="s">
+        <v>177</v>
       </c>
       <c r="C33" s="45" t="s">
         <v>3</v>
@@ -5139,24 +5214,36 @@
       <c r="D33" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="E33" s="80" t="s">
-        <v>215</v>
+      <c r="E33" s="77" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="34" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="136"/>
+      <c r="B34" s="137"/>
       <c r="C34" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="D34" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="D34" s="19" t="s">
+      <c r="E34" s="16" t="s">
         <v>219</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>220</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B13:E13"/>
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="B32:E32"/>
     <mergeCell ref="B18:E18"/>
@@ -5167,18 +5254,6 @@
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="B30:E30"/>
     <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="B8:E8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5203,42 +5278,42 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B2" s="104" t="s">
-        <v>182</v>
-      </c>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="106"/>
+      <c r="B2" s="98" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="100"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="98" t="s">
-        <v>196</v>
-      </c>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="100"/>
+      <c r="B3" s="101" t="s">
+        <v>195</v>
+      </c>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="103"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="123" t="s">
+      <c r="B4" s="124" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="54" t="s">
         <v>151</v>
       </c>
       <c r="D4" s="112" t="s">
+        <v>183</v>
+      </c>
+      <c r="E4" s="113"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="126"/>
+      <c r="C5" s="54" t="s">
+        <v>182</v>
+      </c>
+      <c r="D5" s="127" t="s">
         <v>184</v>
       </c>
-      <c r="E4" s="113"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="125"/>
-      <c r="C5" s="54" t="s">
-        <v>183</v>
-      </c>
-      <c r="D5" s="121" t="s">
-        <v>185</v>
-      </c>
-      <c r="E5" s="122"/>
+      <c r="E5" s="128"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="114"/>
@@ -5256,54 +5331,54 @@
       <c r="D7" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="78" t="s">
-        <v>186</v>
+      <c r="E7" s="75" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B10" s="104" t="s">
-        <v>188</v>
-      </c>
-      <c r="C10" s="105"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="106"/>
+      <c r="B10" s="98" t="s">
+        <v>187</v>
+      </c>
+      <c r="C10" s="99"/>
+      <c r="D10" s="99"/>
+      <c r="E10" s="100"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="98" t="s">
-        <v>197</v>
-      </c>
-      <c r="C11" s="99"/>
-      <c r="D11" s="99"/>
-      <c r="E11" s="100"/>
+      <c r="B11" s="101" t="s">
+        <v>196</v>
+      </c>
+      <c r="C11" s="102"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="103"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="123" t="s">
+      <c r="B12" s="124" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="54" t="s">
         <v>151</v>
       </c>
       <c r="D12" s="112" t="s">
+        <v>183</v>
+      </c>
+      <c r="E12" s="113"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="126"/>
+      <c r="C13" s="54" t="s">
+        <v>190</v>
+      </c>
+      <c r="D13" s="127" t="s">
         <v>184</v>
       </c>
-      <c r="E12" s="113"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="125"/>
-      <c r="C13" s="54" t="s">
-        <v>191</v>
-      </c>
-      <c r="D13" s="121" t="s">
-        <v>185</v>
-      </c>
-      <c r="E13" s="122"/>
+      <c r="E13" s="128"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="137"/>
-      <c r="C14" s="108"/>
-      <c r="D14" s="108"/>
-      <c r="E14" s="138"/>
+      <c r="B14" s="140"/>
+      <c r="C14" s="105"/>
+      <c r="D14" s="105"/>
+      <c r="E14" s="141"/>
     </row>
     <row r="15" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B15" s="47" t="s">
@@ -5316,7 +5391,7 @@
         <v>21</v>
       </c>
       <c r="E15" s="33" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
@@ -5335,57 +5410,57 @@
       <c r="D17" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="68" t="s">
-        <v>187</v>
+      <c r="E17" s="67" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B20" s="104" t="s">
-        <v>190</v>
-      </c>
-      <c r="C20" s="105"/>
-      <c r="D20" s="105"/>
-      <c r="E20" s="106"/>
+      <c r="B20" s="98" t="s">
+        <v>189</v>
+      </c>
+      <c r="C20" s="99"/>
+      <c r="D20" s="99"/>
+      <c r="E20" s="100"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="98" t="s">
-        <v>198</v>
-      </c>
-      <c r="C21" s="99"/>
-      <c r="D21" s="99"/>
-      <c r="E21" s="100"/>
+      <c r="B21" s="101" t="s">
+        <v>197</v>
+      </c>
+      <c r="C21" s="102"/>
+      <c r="D21" s="102"/>
+      <c r="E21" s="103"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="123" t="s">
+      <c r="B22" s="124" t="s">
         <v>16</v>
       </c>
       <c r="C22" s="54" t="s">
         <v>151</v>
       </c>
       <c r="D22" s="112" t="s">
+        <v>183</v>
+      </c>
+      <c r="E22" s="113"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23" s="126"/>
+      <c r="C23" s="54" t="s">
+        <v>190</v>
+      </c>
+      <c r="D23" s="127" t="s">
         <v>184</v>
       </c>
-      <c r="E22" s="113"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="125"/>
-      <c r="C23" s="54" t="s">
-        <v>191</v>
-      </c>
-      <c r="D23" s="121" t="s">
-        <v>185</v>
-      </c>
-      <c r="E23" s="122"/>
+      <c r="E23" s="128"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B24" s="137"/>
-      <c r="C24" s="108"/>
-      <c r="D24" s="108"/>
-      <c r="E24" s="138"/>
+      <c r="B24" s="140"/>
+      <c r="C24" s="105"/>
+      <c r="D24" s="105"/>
+      <c r="E24" s="141"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B25" s="123" t="s">
+      <c r="B25" s="124" t="s">
         <v>2</v>
       </c>
       <c r="C25" s="45" t="s">
@@ -5395,31 +5470,31 @@
         <v>43</v>
       </c>
       <c r="E25" s="63" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="124"/>
+      <c r="B26" s="125"/>
       <c r="C26" s="45" t="s">
+        <v>192</v>
+      </c>
+      <c r="D26" s="32" t="s">
         <v>193</v>
       </c>
-      <c r="D26" s="32" t="s">
-        <v>194</v>
-      </c>
       <c r="E26" s="63" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="126"/>
+      <c r="C27" s="45" t="s">
+        <v>191</v>
+      </c>
+      <c r="D27" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="E27" s="76" t="s">
         <v>202</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="125"/>
-      <c r="C27" s="45" t="s">
-        <v>192</v>
-      </c>
-      <c r="D27" s="32" t="s">
-        <v>194</v>
-      </c>
-      <c r="E27" s="79" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
@@ -5436,20 +5511,21 @@
         <v>26</v>
       </c>
       <c r="D29" s="62" t="s">
-        <v>179</v>
-      </c>
-      <c r="E29" s="68" t="s">
-        <v>201</v>
+        <v>178</v>
+      </c>
+      <c r="E29" s="67" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B4:B5"/>
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="B20:E20"/>
     <mergeCell ref="B21:E21"/>
@@ -5458,13 +5534,12 @@
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B25:B27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -5491,30 +5566,30 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B2" s="104" t="s">
+      <c r="B2" s="98" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="106"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="100"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="98" t="s">
-        <v>225</v>
-      </c>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="100"/>
+      <c r="B3" s="101" t="s">
+        <v>224</v>
+      </c>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="103"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="139" t="s">
+      <c r="C4" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="140"/>
-      <c r="E4" s="141"/>
+      <c r="D4" s="143"/>
+      <c r="E4" s="144"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="114"/>
@@ -5537,10 +5612,10 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="127"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="128"/>
+      <c r="B7" s="121"/>
+      <c r="C7" s="109"/>
+      <c r="D7" s="109"/>
+      <c r="E7" s="122"/>
     </row>
     <row r="8" spans="2:5" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="49" t="s">
@@ -5553,35 +5628,35 @@
         <v>27</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B11" s="104" t="s">
+      <c r="B11" s="98" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="105"/>
-      <c r="D11" s="105"/>
-      <c r="E11" s="106"/>
+      <c r="C11" s="99"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="100"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="98" t="s">
-        <v>227</v>
-      </c>
-      <c r="C12" s="99"/>
-      <c r="D12" s="99"/>
-      <c r="E12" s="100"/>
+      <c r="B12" s="101" t="s">
+        <v>226</v>
+      </c>
+      <c r="C12" s="102"/>
+      <c r="D12" s="102"/>
+      <c r="E12" s="103"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="139" t="s">
+      <c r="C13" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="140"/>
-      <c r="E13" s="141"/>
+      <c r="D13" s="143"/>
+      <c r="E13" s="144"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="114"/>
@@ -5604,13 +5679,13 @@
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="127"/>
-      <c r="C16" s="101"/>
-      <c r="D16" s="101"/>
-      <c r="E16" s="128"/>
+      <c r="B16" s="121"/>
+      <c r="C16" s="109"/>
+      <c r="D16" s="109"/>
+      <c r="E16" s="122"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="102" t="s">
+      <c r="B17" s="95" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -5624,7 +5699,7 @@
       </c>
     </row>
     <row r="18" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B18" s="102"/>
+      <c r="B18" s="95"/>
       <c r="C18" s="2" t="s">
         <v>51</v>
       </c>
@@ -5637,17 +5712,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B16:E16"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="C13:E13"/>
     <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B16:E16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/数据融合中心 数据服务API2(更新中).xlsx
+++ b/doc/数据融合中心 数据服务API2(更新中).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E710F271-0C3F-4EAC-8C35-037B7A1C7874}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF04C26-72C1-41EF-B6B3-E3327E2701B2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="790" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="790" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="权限" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="263">
   <si>
     <t>username</t>
   </si>
@@ -1331,6 +1331,10 @@
   </si>
   <si>
     <t>非必须</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载文件的时候，如果下载方式无法修改header以添加token，那么可以在链接参数中添加“%token%”参数，参数值就是权限接口返回的token值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1913,7 +1917,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="168">
+  <cellXfs count="171">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2191,12 +2195,42 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2209,15 +2243,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2227,15 +2252,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2278,6 +2294,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2287,29 +2309,89 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2317,63 +2399,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2389,26 +2414,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2714,61 +2727,61 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="100"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="110"/>
     </row>
     <row r="3" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="101" t="s">
+      <c r="B3" s="102" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="103"/>
-      <c r="G3" s="107" t="s">
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="104"/>
+      <c r="G3" s="99" t="s">
         <v>111</v>
       </c>
       <c r="H3" s="55"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B4" s="96" t="s">
+      <c r="B4" s="101" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="109" t="s">
+      <c r="D4" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="109"/>
-      <c r="G4" s="108"/>
+      <c r="E4" s="105"/>
+      <c r="G4" s="100"/>
       <c r="H4" s="55"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="96"/>
+      <c r="B5" s="101"/>
       <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="109" t="s">
+      <c r="D5" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="109"/>
-      <c r="G5" s="108"/>
+      <c r="E5" s="105"/>
+      <c r="G5" s="100"/>
       <c r="H5" s="55"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B6" s="104"/>
-      <c r="C6" s="105"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="106"/>
-      <c r="G6" s="108"/>
+      <c r="B6" s="111"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="113"/>
+      <c r="G6" s="100"/>
       <c r="H6" s="55"/>
     </row>
     <row r="7" spans="2:8" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B7" s="96" t="s">
+      <c r="B7" s="101" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -2780,11 +2793,11 @@
       <c r="E7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="108"/>
+      <c r="G7" s="100"/>
       <c r="H7" s="55"/>
     </row>
     <row r="8" spans="2:8" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="B8" s="96"/>
+      <c r="B8" s="101"/>
       <c r="C8" s="2" t="s">
         <v>4</v>
       </c>
@@ -2794,11 +2807,11 @@
       <c r="E8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="108"/>
+      <c r="G8" s="100"/>
       <c r="H8" s="55"/>
     </row>
     <row r="9" spans="2:8" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B9" s="96"/>
+      <c r="B9" s="101"/>
       <c r="C9" s="2" t="s">
         <v>10</v>
       </c>
@@ -2808,31 +2821,31 @@
       <c r="E9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="108"/>
+      <c r="G9" s="100"/>
       <c r="H9" s="55"/>
     </row>
     <row r="10" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="2:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B11" s="98" t="s">
+      <c r="B11" s="108" t="s">
         <v>220</v>
       </c>
-      <c r="C11" s="99"/>
-      <c r="D11" s="99"/>
-      <c r="E11" s="100"/>
+      <c r="C11" s="109"/>
+      <c r="D11" s="109"/>
+      <c r="E11" s="110"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B12" s="101" t="s">
+      <c r="B12" s="102" t="s">
         <v>221</v>
       </c>
-      <c r="C12" s="102"/>
-      <c r="D12" s="102"/>
-      <c r="E12" s="103"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="104"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B13" s="95"/>
-      <c r="C13" s="96"/>
-      <c r="D13" s="96"/>
-      <c r="E13" s="97"/>
+      <c r="B13" s="106"/>
+      <c r="C13" s="101"/>
+      <c r="D13" s="101"/>
+      <c r="E13" s="107"/>
     </row>
     <row r="14" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="49" t="s">
@@ -2868,17 +2881,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="G3:G9"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:B9"/>
+    <mergeCell ref="G3:G9"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -2891,10 +2904,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F12133-6522-4FD6-BDD7-D45B2101BAE5}">
-  <dimension ref="B1:F68"/>
+  <dimension ref="B1:F69"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39:B40"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53:E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2907,20 +2920,20 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="108" t="s">
         <v>227</v>
       </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="100"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="110"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="101" t="s">
+      <c r="B3" s="102" t="s">
         <v>228</v>
       </c>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="104"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="47"/>
@@ -2950,51 +2963,51 @@
     </row>
     <row r="7" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B8" s="98" t="s">
+      <c r="B8" s="108" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="100"/>
+      <c r="C8" s="109"/>
+      <c r="D8" s="109"/>
+      <c r="E8" s="110"/>
     </row>
     <row r="9" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="101" t="s">
+      <c r="B9" s="102" t="s">
         <v>230</v>
       </c>
-      <c r="C9" s="102"/>
-      <c r="D9" s="102"/>
-      <c r="E9" s="103"/>
+      <c r="C9" s="103"/>
+      <c r="D9" s="103"/>
+      <c r="E9" s="104"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="124" t="s">
+      <c r="B10" s="130" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="145" t="s">
+      <c r="D10" s="159" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="146"/>
+      <c r="E10" s="160"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="126"/>
+      <c r="B11" s="132"/>
       <c r="C11" s="45" t="s">
         <v>229</v>
       </c>
-      <c r="D11" s="135" t="s">
+      <c r="D11" s="161" t="s">
         <v>231</v>
       </c>
-      <c r="E11" s="136"/>
+      <c r="E11" s="162"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="114"/>
-      <c r="C12" s="115"/>
-      <c r="D12" s="115"/>
-      <c r="E12" s="116"/>
+      <c r="B12" s="118"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="120"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="95" t="s">
+      <c r="B13" s="106" t="s">
         <v>55</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -3008,7 +3021,7 @@
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="95"/>
+      <c r="B14" s="106"/>
       <c r="C14" s="2" t="s">
         <v>56</v>
       </c>
@@ -3020,7 +3033,7 @@
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="95"/>
+      <c r="B15" s="106"/>
       <c r="C15" s="2" t="s">
         <v>57</v>
       </c>
@@ -3032,7 +3045,7 @@
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="95"/>
+      <c r="B16" s="106"/>
       <c r="C16" s="2" t="s">
         <v>59</v>
       </c>
@@ -3044,7 +3057,7 @@
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="95"/>
+      <c r="B17" s="106"/>
       <c r="C17" s="7" t="s">
         <v>19</v>
       </c>
@@ -3056,7 +3069,7 @@
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="95"/>
+      <c r="B18" s="106"/>
       <c r="C18" s="45" t="s">
         <v>173</v>
       </c>
@@ -3088,23 +3101,23 @@
       </c>
     </row>
     <row r="23" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B23" s="131" t="s">
+      <c r="B23" s="133" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="131"/>
-      <c r="D23" s="131"/>
-      <c r="E23" s="131"/>
+      <c r="C23" s="133"/>
+      <c r="D23" s="133"/>
+      <c r="E23" s="133"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B24" s="102" t="s">
+      <c r="B24" s="103" t="s">
         <v>236</v>
       </c>
-      <c r="C24" s="102"/>
-      <c r="D24" s="102"/>
-      <c r="E24" s="102"/>
+      <c r="C24" s="103"/>
+      <c r="D24" s="103"/>
+      <c r="E24" s="103"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B25" s="96" t="s">
+      <c r="B25" s="101" t="s">
         <v>2</v>
       </c>
       <c r="C25" s="48" t="s">
@@ -3118,7 +3131,7 @@
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B26" s="96"/>
+      <c r="B26" s="101"/>
       <c r="C26" s="45" t="s">
         <v>103</v>
       </c>
@@ -3136,7 +3149,7 @@
       <c r="E27" s="46"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B28" s="96" t="s">
+      <c r="B28" s="101" t="s">
         <v>6</v>
       </c>
       <c r="C28" s="45" t="s">
@@ -3146,7 +3159,7 @@
       <c r="E28" s="44"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B29" s="96"/>
+      <c r="B29" s="101"/>
       <c r="C29" s="45" t="s">
         <v>69</v>
       </c>
@@ -3158,7 +3171,7 @@
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="96"/>
+      <c r="B30" s="101"/>
       <c r="C30" s="45" t="s">
         <v>70</v>
       </c>
@@ -3170,7 +3183,7 @@
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B31" s="96"/>
+      <c r="B31" s="101"/>
       <c r="C31" s="45" t="s">
         <v>71</v>
       </c>
@@ -3182,7 +3195,7 @@
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B32" s="96"/>
+      <c r="B32" s="101"/>
       <c r="C32" s="45" t="s">
         <v>72</v>
       </c>
@@ -3194,7 +3207,7 @@
       </c>
     </row>
     <row r="33" spans="2:6" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="B33" s="96"/>
+      <c r="B33" s="101"/>
       <c r="C33" s="45" t="s">
         <v>74</v>
       </c>
@@ -3206,7 +3219,7 @@
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B34" s="96"/>
+      <c r="B34" s="101"/>
       <c r="C34" s="45" t="s">
         <v>73</v>
       </c>
@@ -3230,55 +3243,55 @@
       <c r="E36" s="37"/>
     </row>
     <row r="37" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B37" s="98" t="s">
+      <c r="B37" s="108" t="s">
         <v>86</v>
       </c>
-      <c r="C37" s="99"/>
-      <c r="D37" s="99"/>
-      <c r="E37" s="100"/>
+      <c r="C37" s="109"/>
+      <c r="D37" s="109"/>
+      <c r="E37" s="110"/>
     </row>
     <row r="38" spans="2:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="133" t="s">
+      <c r="B38" s="136" t="s">
         <v>256</v>
       </c>
-      <c r="C38" s="102"/>
-      <c r="D38" s="102"/>
-      <c r="E38" s="103"/>
+      <c r="C38" s="103"/>
+      <c r="D38" s="103"/>
+      <c r="E38" s="104"/>
       <c r="F38" s="84"/>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B39" s="95" t="s">
+      <c r="B39" s="106" t="s">
         <v>16</v>
       </c>
       <c r="C39" s="45" t="s">
         <v>151</v>
       </c>
-      <c r="D39" s="145" t="s">
+      <c r="D39" s="159" t="s">
         <v>87</v>
       </c>
-      <c r="E39" s="146"/>
+      <c r="E39" s="160"/>
       <c r="F39" s="84"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B40" s="95"/>
+      <c r="B40" s="106"/>
       <c r="C40" s="45" t="s">
         <v>240</v>
       </c>
-      <c r="D40" s="112" t="s">
+      <c r="D40" s="116" t="s">
         <v>88</v>
       </c>
-      <c r="E40" s="113"/>
+      <c r="E40" s="117"/>
       <c r="F40" s="84"/>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B41" s="114"/>
-      <c r="C41" s="115"/>
-      <c r="D41" s="115"/>
-      <c r="E41" s="116"/>
+      <c r="B41" s="118"/>
+      <c r="C41" s="119"/>
+      <c r="D41" s="119"/>
+      <c r="E41" s="120"/>
       <c r="F41" s="84"/>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B42" s="95" t="s">
+      <c r="B42" s="106" t="s">
         <v>2</v>
       </c>
       <c r="C42" s="45" t="s">
@@ -3293,7 +3306,7 @@
       <c r="F42" s="84"/>
     </row>
     <row r="43" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B43" s="95"/>
+      <c r="B43" s="106"/>
       <c r="C43" s="45" t="s">
         <v>205</v>
       </c>
@@ -3306,7 +3319,7 @@
       <c r="F43" s="90"/>
     </row>
     <row r="44" spans="2:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="95"/>
+      <c r="B44" s="106"/>
       <c r="C44" s="45" t="s">
         <v>241</v>
       </c>
@@ -3319,7 +3332,7 @@
       <c r="F44" s="90"/>
     </row>
     <row r="45" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B45" s="95"/>
+      <c r="B45" s="106"/>
       <c r="C45" s="45" t="s">
         <v>209</v>
       </c>
@@ -3332,13 +3345,13 @@
       <c r="F45" s="84"/>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B46" s="121"/>
-      <c r="C46" s="109"/>
-      <c r="D46" s="109"/>
-      <c r="E46" s="122"/>
+      <c r="B46" s="125"/>
+      <c r="C46" s="105"/>
+      <c r="D46" s="105"/>
+      <c r="E46" s="126"/>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B47" s="95" t="s">
+      <c r="B47" s="106" t="s">
         <v>6</v>
       </c>
       <c r="C47" s="45" t="s">
@@ -3352,7 +3365,7 @@
       </c>
     </row>
     <row r="48" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="123"/>
+      <c r="B48" s="127"/>
       <c r="C48" s="15" t="s">
         <v>67</v>
       </c>
@@ -3376,188 +3389,198 @@
       <c r="E50" s="37"/>
     </row>
     <row r="51" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B51" s="147" t="s">
+      <c r="B51" s="150" t="s">
         <v>81</v>
       </c>
-      <c r="C51" s="148"/>
-      <c r="D51" s="148"/>
-      <c r="E51" s="149"/>
+      <c r="C51" s="151"/>
+      <c r="D51" s="151"/>
+      <c r="E51" s="152"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B52" s="150" t="s">
+      <c r="B52" s="153" t="s">
         <v>243</v>
       </c>
-      <c r="C52" s="151"/>
-      <c r="D52" s="151"/>
-      <c r="E52" s="152"/>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B53" s="17" t="s">
+      <c r="C52" s="154"/>
+      <c r="D52" s="154"/>
+      <c r="E52" s="155"/>
+    </row>
+    <row r="53" spans="2:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="168" t="s">
+        <v>262</v>
+      </c>
+      <c r="C53" s="169"/>
+      <c r="D53" s="169"/>
+      <c r="E53" s="170"/>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B54" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C54" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D53" s="32" t="s">
+      <c r="D54" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="E53" s="34" t="s">
+      <c r="E54" s="34" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B54" s="26"/>
-      <c r="C54" s="24"/>
-      <c r="D54" s="24"/>
-      <c r="E54" s="27"/>
-    </row>
-    <row r="55" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="18" t="s">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B55" s="26"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="27"/>
+    </row>
+    <row r="56" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C55" s="153" t="s">
+      <c r="C56" s="156" t="s">
         <v>82</v>
       </c>
-      <c r="D55" s="154"/>
-      <c r="E55" s="155"/>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B56" s="10"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10"/>
-    </row>
-    <row r="57" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B58" s="147" t="s">
+      <c r="D56" s="157"/>
+      <c r="E56" s="158"/>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+    </row>
+    <row r="58" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B59" s="150" t="s">
         <v>93</v>
-      </c>
-      <c r="C58" s="148"/>
-      <c r="D58" s="148"/>
-      <c r="E58" s="149"/>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B59" s="150" t="s">
-        <v>244</v>
       </c>
       <c r="C59" s="151"/>
       <c r="D59" s="151"/>
       <c r="E59" s="152"/>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B60" s="17" t="s">
+      <c r="B60" s="153" t="s">
+        <v>244</v>
+      </c>
+      <c r="C60" s="154"/>
+      <c r="D60" s="154"/>
+      <c r="E60" s="155"/>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B61" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C61" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D60" s="32" t="s">
+      <c r="D61" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="E60" s="34" t="s">
+      <c r="E61" s="34" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B61" s="26"/>
-      <c r="C61" s="24"/>
-      <c r="D61" s="24"/>
-      <c r="E61" s="27"/>
-    </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B62" s="95" t="s">
+      <c r="B62" s="26"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="27"/>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B63" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C63" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D62" s="9" t="s">
+      <c r="D63" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="E62" s="14" t="s">
+      <c r="E63" s="14" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B63" s="95"/>
-      <c r="C63" s="2" t="s">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B64" s="106"/>
+      <c r="C64" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D63" s="9" t="s">
+      <c r="D64" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E63" s="14" t="s">
+      <c r="E64" s="14" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B64" s="124"/>
-      <c r="C64" s="30" t="s">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B65" s="130"/>
+      <c r="C65" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="D64" s="35" t="s">
+      <c r="D65" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="E64" s="31"/>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B65" s="124"/>
-      <c r="C65" s="30" t="s">
+      <c r="E65" s="31"/>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B66" s="130"/>
+      <c r="C66" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="D65" s="35" t="s">
+      <c r="D66" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="E65" s="31" t="s">
+      <c r="E66" s="31" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B66" s="124"/>
-      <c r="C66" s="30" t="s">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B67" s="130"/>
+      <c r="C67" s="30" t="s">
         <v>56</v>
-      </c>
-      <c r="D66" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="E66" s="31" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B67" s="124"/>
-      <c r="C67" s="30" t="s">
-        <v>57</v>
       </c>
       <c r="D67" s="35" t="s">
         <v>64</v>
       </c>
       <c r="E67" s="31" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B68" s="130"/>
+      <c r="C68" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="D68" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="E68" s="31" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="68" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="123"/>
-      <c r="C68" s="15" t="s">
+    <row r="69" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="127"/>
+      <c r="C69" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="D68" s="21" t="s">
+      <c r="D69" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="E68" s="20" t="s">
+      <c r="E69" s="20" t="s">
         <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="B62:B68"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="C55:E55"/>
+  <mergeCells count="29">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:B18"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="D11:E11"/>
     <mergeCell ref="B28:B34"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="B51:E51"/>
@@ -3568,16 +3591,15 @@
     <mergeCell ref="D40:E40"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="B42:B45"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:B18"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="B63:B69"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="B53:E53"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3629,19 +3651,19 @@
   <sheetData>
     <row r="2" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B3" s="147"/>
-      <c r="C3" s="148"/>
-      <c r="D3" s="148"/>
-      <c r="E3" s="149"/>
+      <c r="B3" s="150"/>
+      <c r="C3" s="151"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="152"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="156"/>
-      <c r="C4" s="157"/>
-      <c r="D4" s="157"/>
-      <c r="E4" s="158"/>
+      <c r="B4" s="163"/>
+      <c r="C4" s="164"/>
+      <c r="D4" s="164"/>
+      <c r="E4" s="165"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="159" t="s">
+      <c r="B5" s="166" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="28"/>
@@ -3649,19 +3671,19 @@
       <c r="E5" s="29"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="160"/>
+      <c r="B6" s="167"/>
       <c r="C6" s="2"/>
       <c r="D6" s="32"/>
       <c r="E6" s="34"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="114"/>
-      <c r="C7" s="115"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="116"/>
+      <c r="B7" s="118"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="120"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="124" t="s">
+      <c r="B8" s="130" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="6"/>
@@ -3669,7 +3691,7 @@
       <c r="E8" s="25"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="126"/>
+      <c r="B9" s="132"/>
       <c r="C9" s="2"/>
       <c r="D9" s="8"/>
       <c r="E9" s="12"/>
@@ -3681,7 +3703,7 @@
       <c r="E10" s="27"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="124" t="s">
+      <c r="B11" s="130" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="2"/>
@@ -3689,7 +3711,7 @@
       <c r="E11" s="14"/>
     </row>
     <row r="12" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="137"/>
+      <c r="B12" s="144"/>
       <c r="C12" s="15"/>
       <c r="D12" s="21"/>
       <c r="E12" s="20"/>
@@ -3725,36 +3747,36 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="108" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="100"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="110"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="101" t="s">
+      <c r="B3" s="102" t="s">
         <v>253</v>
       </c>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="104"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="110" t="s">
+      <c r="C4" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="110"/>
-      <c r="E4" s="111"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="115"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="95"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="97"/>
+      <c r="B5" s="106"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="101"/>
+      <c r="E5" s="107"/>
     </row>
     <row r="6" spans="2:5" ht="159" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18" t="s">
@@ -3801,20 +3823,20 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="108" t="s">
         <v>132</v>
       </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="100"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="110"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="101" t="s">
+      <c r="B3" s="102" t="s">
         <v>122</v>
       </c>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="104"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="42" t="s">
@@ -3823,19 +3845,19 @@
       <c r="C4" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="112" t="s">
+      <c r="D4" s="116" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="113"/>
+      <c r="E4" s="117"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="114"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="116"/>
+      <c r="B5" s="118"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="120"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="95" t="s">
+      <c r="B6" s="106" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="38" t="s">
@@ -3849,7 +3871,7 @@
       </c>
     </row>
     <row r="7" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B7" s="95"/>
+      <c r="B7" s="106"/>
       <c r="C7" s="91" t="s">
         <v>247</v>
       </c>
@@ -3861,7 +3883,7 @@
       </c>
     </row>
     <row r="8" spans="2:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B8" s="95"/>
+      <c r="B8" s="106"/>
       <c r="C8" s="7" t="s">
         <v>20</v>
       </c>
@@ -3873,13 +3895,13 @@
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="117"/>
-      <c r="C9" s="118"/>
-      <c r="D9" s="118"/>
-      <c r="E9" s="119"/>
+      <c r="B9" s="121"/>
+      <c r="C9" s="122"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="123"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="96" t="s">
+      <c r="B10" s="101" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="38" t="s">
@@ -3893,7 +3915,7 @@
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="96"/>
+      <c r="B11" s="101"/>
       <c r="C11" s="38" t="s">
         <v>25</v>
       </c>
@@ -3905,7 +3927,7 @@
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="96"/>
+      <c r="B12" s="101"/>
       <c r="C12" s="38" t="s">
         <v>113</v>
       </c>
@@ -3917,7 +3939,7 @@
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="96"/>
+      <c r="B13" s="101"/>
       <c r="C13" s="91" t="s">
         <v>250</v>
       </c>
@@ -3929,7 +3951,7 @@
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="96"/>
+      <c r="B14" s="101"/>
       <c r="C14" s="38" t="s">
         <v>114</v>
       </c>
@@ -3941,7 +3963,7 @@
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="96"/>
+      <c r="B15" s="101"/>
       <c r="C15" s="38" t="s">
         <v>115</v>
       </c>
@@ -3953,7 +3975,7 @@
       </c>
     </row>
     <row r="16" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B16" s="96"/>
+      <c r="B16" s="101"/>
       <c r="C16" s="38" t="s">
         <v>116</v>
       </c>
@@ -4000,20 +4022,20 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="108" t="s">
         <v>144</v>
       </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="100"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="110"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="101" t="s">
+      <c r="B3" s="102" t="s">
         <v>135</v>
       </c>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="104"/>
     </row>
     <row r="4" spans="2:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="39" t="s">
@@ -4022,19 +4044,19 @@
       <c r="C4" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="D4" s="107" t="s">
+      <c r="D4" s="99" t="s">
         <v>137</v>
       </c>
-      <c r="E4" s="120"/>
+      <c r="E4" s="124"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="114"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="116"/>
+      <c r="B5" s="118"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="120"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="95" t="s">
+      <c r="B6" s="106" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="38" t="s">
@@ -4048,7 +4070,7 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="95"/>
+      <c r="B7" s="106"/>
       <c r="C7" s="38" t="s">
         <v>18</v>
       </c>
@@ -4060,13 +4082,13 @@
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="121"/>
-      <c r="C8" s="109"/>
-      <c r="D8" s="109"/>
-      <c r="E8" s="122"/>
+      <c r="B8" s="125"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="126"/>
     </row>
     <row r="9" spans="2:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B9" s="95" t="s">
+      <c r="B9" s="106" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="38" t="s">
@@ -4080,7 +4102,7 @@
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="95"/>
+      <c r="B10" s="106"/>
       <c r="C10" s="38" t="s">
         <v>139</v>
       </c>
@@ -4092,7 +4114,7 @@
       </c>
     </row>
     <row r="11" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="123"/>
+      <c r="B11" s="127"/>
       <c r="C11" s="15" t="s">
         <v>140</v>
       </c>
@@ -4116,20 +4138,20 @@
       <c r="E13" s="66"/>
     </row>
     <row r="14" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B14" s="98" t="s">
+      <c r="B14" s="108" t="s">
         <v>145</v>
       </c>
-      <c r="C14" s="99"/>
-      <c r="D14" s="99"/>
-      <c r="E14" s="100"/>
+      <c r="C14" s="109"/>
+      <c r="D14" s="109"/>
+      <c r="E14" s="110"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="101" t="s">
+      <c r="B15" s="102" t="s">
         <v>146</v>
       </c>
-      <c r="C15" s="102"/>
-      <c r="D15" s="102"/>
-      <c r="E15" s="103"/>
+      <c r="C15" s="103"/>
+      <c r="D15" s="103"/>
+      <c r="E15" s="104"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="39" t="s">
@@ -4138,16 +4160,16 @@
       <c r="C16" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="D16" s="107" t="s">
+      <c r="D16" s="99" t="s">
         <v>137</v>
       </c>
-      <c r="E16" s="120"/>
+      <c r="E16" s="124"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="121"/>
-      <c r="C17" s="109"/>
-      <c r="D17" s="109"/>
-      <c r="E17" s="122"/>
+      <c r="B17" s="125"/>
+      <c r="C17" s="105"/>
+      <c r="D17" s="105"/>
+      <c r="E17" s="126"/>
     </row>
     <row r="18" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="40" t="s">
@@ -4204,20 +4226,20 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="108" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="100"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="110"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="101" t="s">
+      <c r="B3" s="102" t="s">
         <v>123</v>
       </c>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="104"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="42" t="s">
@@ -4226,19 +4248,19 @@
       <c r="C4" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="112" t="s">
+      <c r="D4" s="116" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="113"/>
+      <c r="E4" s="117"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="114"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="116"/>
+      <c r="B5" s="118"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="120"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="95" t="s">
+      <c r="B6" s="106" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="38" t="s">
@@ -4252,7 +4274,7 @@
       </c>
     </row>
     <row r="7" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B7" s="95"/>
+      <c r="B7" s="106"/>
       <c r="C7" s="7" t="s">
         <v>20</v>
       </c>
@@ -4264,13 +4286,13 @@
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="117"/>
-      <c r="C8" s="118"/>
-      <c r="D8" s="118"/>
-      <c r="E8" s="119"/>
+      <c r="B8" s="121"/>
+      <c r="C8" s="122"/>
+      <c r="D8" s="122"/>
+      <c r="E8" s="123"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="95" t="s">
+      <c r="B9" s="106" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="38" t="s">
@@ -4284,7 +4306,7 @@
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="95"/>
+      <c r="B10" s="106"/>
       <c r="C10" s="38" t="s">
         <v>25</v>
       </c>
@@ -4296,7 +4318,7 @@
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="95"/>
+      <c r="B11" s="106"/>
       <c r="C11" s="38" t="s">
         <v>113</v>
       </c>
@@ -4308,7 +4330,7 @@
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="95"/>
+      <c r="B12" s="106"/>
       <c r="C12" s="38" t="s">
         <v>114</v>
       </c>
@@ -4320,7 +4342,7 @@
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="95"/>
+      <c r="B13" s="106"/>
       <c r="C13" s="38" t="s">
         <v>115</v>
       </c>
@@ -4332,7 +4354,7 @@
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="95"/>
+      <c r="B14" s="106"/>
       <c r="C14" s="38" t="s">
         <v>129</v>
       </c>
@@ -4344,7 +4366,7 @@
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="95"/>
+      <c r="B15" s="106"/>
       <c r="C15" s="38" t="s">
         <v>125</v>
       </c>
@@ -4356,7 +4378,7 @@
       </c>
     </row>
     <row r="16" spans="2:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="123"/>
+      <c r="B16" s="127"/>
       <c r="C16" s="15" t="s">
         <v>116</v>
       </c>
@@ -4369,54 +4391,54 @@
     </row>
     <row r="18" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B19" s="98" t="s">
+      <c r="B19" s="108" t="s">
         <v>134</v>
       </c>
-      <c r="C19" s="99"/>
-      <c r="D19" s="99"/>
-      <c r="E19" s="100"/>
+      <c r="C19" s="109"/>
+      <c r="D19" s="109"/>
+      <c r="E19" s="110"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="101" t="s">
+      <c r="B20" s="102" t="s">
         <v>136</v>
       </c>
-      <c r="C20" s="102"/>
-      <c r="D20" s="102"/>
-      <c r="E20" s="103"/>
+      <c r="C20" s="103"/>
+      <c r="D20" s="103"/>
+      <c r="E20" s="104"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="124" t="s">
+      <c r="B21" s="130" t="s">
         <v>16</v>
       </c>
       <c r="C21" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="112" t="s">
+      <c r="D21" s="116" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="113"/>
+      <c r="E21" s="117"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="125"/>
+      <c r="B22" s="131"/>
       <c r="C22" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="D22" s="127"/>
-      <c r="E22" s="128"/>
+      <c r="D22" s="128"/>
+      <c r="E22" s="129"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="126"/>
+      <c r="B23" s="132"/>
       <c r="C23" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="D23" s="127"/>
-      <c r="E23" s="128"/>
+      <c r="D23" s="128"/>
+      <c r="E23" s="129"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B24" s="114"/>
-      <c r="C24" s="115"/>
-      <c r="D24" s="115"/>
-      <c r="E24" s="116"/>
+      <c r="B24" s="118"/>
+      <c r="C24" s="119"/>
+      <c r="D24" s="119"/>
+      <c r="E24" s="120"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="39" t="s">
@@ -4433,13 +4455,13 @@
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B26" s="117"/>
-      <c r="C26" s="118"/>
-      <c r="D26" s="118"/>
-      <c r="E26" s="119"/>
+      <c r="B26" s="121"/>
+      <c r="C26" s="122"/>
+      <c r="D26" s="122"/>
+      <c r="E26" s="123"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B27" s="95" t="s">
+      <c r="B27" s="106" t="s">
         <v>6</v>
       </c>
       <c r="C27" s="38" t="s">
@@ -4453,7 +4475,7 @@
       </c>
     </row>
     <row r="28" spans="2:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="123"/>
+      <c r="B28" s="127"/>
       <c r="C28" s="15" t="s">
         <v>116</v>
       </c>
@@ -4466,22 +4488,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B24:E24"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B9:B16"/>
     <mergeCell ref="B19:E19"/>
     <mergeCell ref="B20:E20"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:B7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -4499,7 +4521,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B482E8C-E5D3-44B0-8612-77665C895F24}">
   <dimension ref="B1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
@@ -4512,68 +4534,68 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="108" t="s">
         <v>149</v>
       </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="100"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="110"/>
     </row>
     <row r="3" spans="2:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="133" t="s">
+      <c r="B3" s="136" t="s">
         <v>254</v>
       </c>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="104"/>
     </row>
     <row r="4" spans="2:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="106" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="D4" s="130" t="s">
+      <c r="D4" s="135" t="s">
         <v>162</v>
       </c>
-      <c r="E4" s="134"/>
+      <c r="E4" s="137"/>
     </row>
     <row r="5" spans="2:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="95"/>
+      <c r="B5" s="106"/>
       <c r="C5" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="D5" s="130" t="s">
+      <c r="D5" s="135" t="s">
         <v>161</v>
       </c>
-      <c r="E5" s="134"/>
+      <c r="E5" s="137"/>
     </row>
     <row r="6" spans="2:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="95"/>
+      <c r="B6" s="106"/>
       <c r="C6" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="D6" s="130" t="s">
+      <c r="D6" s="135" t="s">
         <v>159</v>
       </c>
-      <c r="E6" s="134"/>
+      <c r="E6" s="137"/>
     </row>
     <row r="7" spans="2:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="95"/>
+      <c r="B7" s="106"/>
       <c r="C7" s="38" t="s">
         <v>153</v>
       </c>
-      <c r="D7" s="130" t="s">
+      <c r="D7" s="135" t="s">
         <v>160</v>
       </c>
-      <c r="E7" s="134"/>
+      <c r="E7" s="137"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="114"/>
-      <c r="C8" s="115"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="116"/>
+      <c r="B8" s="118"/>
+      <c r="C8" s="119"/>
+      <c r="D8" s="119"/>
+      <c r="E8" s="120"/>
     </row>
     <row r="9" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B9" s="39" t="s">
@@ -4590,13 +4612,13 @@
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="121"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="122"/>
+      <c r="B10" s="125"/>
+      <c r="C10" s="105"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="126"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="95" t="s">
+      <c r="B11" s="106" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="38" t="s">
@@ -4610,7 +4632,7 @@
       </c>
     </row>
     <row r="12" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="123"/>
+      <c r="B12" s="127"/>
       <c r="C12" s="15" t="s">
         <v>112</v>
       </c>
@@ -4622,51 +4644,51 @@
       </c>
     </row>
     <row r="15" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B15" s="131" t="s">
+      <c r="B15" s="133" t="s">
         <v>163</v>
       </c>
-      <c r="C15" s="131"/>
-      <c r="D15" s="131"/>
-      <c r="E15" s="131"/>
+      <c r="C15" s="133"/>
+      <c r="D15" s="133"/>
+      <c r="E15" s="133"/>
     </row>
     <row r="16" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="132" t="s">
+      <c r="B16" s="134" t="s">
         <v>199</v>
       </c>
-      <c r="C16" s="102"/>
-      <c r="D16" s="102"/>
-      <c r="E16" s="102"/>
+      <c r="C16" s="103"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="103"/>
     </row>
     <row r="17" spans="2:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="96" t="s">
+      <c r="B17" s="101" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="92" t="s">
         <v>151</v>
       </c>
-      <c r="D17" s="130" t="s">
+      <c r="D17" s="135" t="s">
         <v>161</v>
       </c>
-      <c r="E17" s="130"/>
+      <c r="E17" s="135"/>
     </row>
     <row r="18" spans="2:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="96"/>
+      <c r="B18" s="101"/>
       <c r="C18" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="130" t="s">
+      <c r="D18" s="135" t="s">
         <v>164</v>
       </c>
-      <c r="E18" s="130"/>
+      <c r="E18" s="135"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="115"/>
-      <c r="C19" s="115"/>
-      <c r="D19" s="115"/>
-      <c r="E19" s="115"/>
+      <c r="B19" s="119"/>
+      <c r="C19" s="119"/>
+      <c r="D19" s="119"/>
+      <c r="E19" s="119"/>
     </row>
     <row r="20" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="96" t="s">
+      <c r="B20" s="101" t="s">
         <v>2</v>
       </c>
       <c r="C20" s="92" t="s">
@@ -4675,54 +4697,54 @@
       <c r="D20" s="93" t="s">
         <v>261</v>
       </c>
-      <c r="E20" s="164" t="s">
+      <c r="E20" s="95" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="96"/>
+      <c r="B21" s="101"/>
       <c r="C21" s="92" t="s">
         <v>152</v>
       </c>
       <c r="D21" s="93" t="s">
         <v>261</v>
       </c>
-      <c r="E21" s="164" t="s">
+      <c r="E21" s="95" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="96"/>
+      <c r="B22" s="101"/>
       <c r="C22" s="92" t="s">
         <v>153</v>
       </c>
       <c r="D22" s="93" t="s">
         <v>261</v>
       </c>
-      <c r="E22" s="164" t="s">
+      <c r="E22" s="95" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B23" s="96"/>
+      <c r="B23" s="101"/>
       <c r="C23" s="92" t="s">
         <v>154</v>
       </c>
       <c r="D23" s="93" t="s">
         <v>261</v>
       </c>
-      <c r="E23" s="164" t="s">
+      <c r="E23" s="95" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B24" s="109"/>
-      <c r="C24" s="109"/>
-      <c r="D24" s="109"/>
-      <c r="E24" s="109"/>
+      <c r="B24" s="105"/>
+      <c r="C24" s="105"/>
+      <c r="D24" s="105"/>
+      <c r="E24" s="105"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B25" s="96" t="s">
+      <c r="B25" s="101" t="s">
         <v>6</v>
       </c>
       <c r="C25" s="92" t="s">
@@ -4736,26 +4758,26 @@
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B26" s="96"/>
+      <c r="B26" s="101"/>
       <c r="C26" s="92" t="s">
         <v>257</v>
       </c>
       <c r="D26" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="E26" s="165" t="s">
+      <c r="E26" s="96" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B27" s="96"/>
+      <c r="B27" s="101"/>
       <c r="C27" s="92" t="s">
         <v>165</v>
       </c>
       <c r="D27" s="93" t="s">
         <v>179</v>
       </c>
-      <c r="E27" s="166" t="s">
+      <c r="E27" s="97" t="s">
         <v>169</v>
       </c>
     </row>
@@ -4766,61 +4788,61 @@
       <c r="E28" s="72"/>
     </row>
     <row r="30" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B30" s="131" t="s">
+      <c r="B30" s="133" t="s">
         <v>172</v>
       </c>
-      <c r="C30" s="131"/>
-      <c r="D30" s="131"/>
-      <c r="E30" s="131"/>
+      <c r="C30" s="133"/>
+      <c r="D30" s="133"/>
+      <c r="E30" s="133"/>
     </row>
     <row r="31" spans="2:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="132" t="s">
+      <c r="B31" s="134" t="s">
         <v>198</v>
       </c>
-      <c r="C31" s="102"/>
-      <c r="D31" s="102"/>
-      <c r="E31" s="102"/>
+      <c r="C31" s="103"/>
+      <c r="D31" s="103"/>
+      <c r="E31" s="103"/>
     </row>
     <row r="32" spans="2:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="96" t="s">
+      <c r="B32" s="101" t="s">
         <v>16</v>
       </c>
       <c r="C32" s="91" t="s">
         <v>151</v>
       </c>
-      <c r="D32" s="130" t="s">
+      <c r="D32" s="135" t="s">
         <v>161</v>
       </c>
-      <c r="E32" s="130"/>
+      <c r="E32" s="135"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B33" s="96"/>
+      <c r="B33" s="101"/>
       <c r="C33" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="D33" s="129" t="s">
+      <c r="D33" s="138" t="s">
         <v>175</v>
       </c>
-      <c r="E33" s="129"/>
+      <c r="E33" s="138"/>
     </row>
     <row r="34" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="96"/>
+      <c r="B34" s="101"/>
       <c r="C34" s="91" t="s">
         <v>173</v>
       </c>
-      <c r="D34" s="129" t="s">
+      <c r="D34" s="138" t="s">
         <v>174</v>
       </c>
-      <c r="E34" s="129"/>
+      <c r="E34" s="138"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B35" s="115"/>
-      <c r="C35" s="115"/>
-      <c r="D35" s="115"/>
-      <c r="E35" s="115"/>
+      <c r="B35" s="119"/>
+      <c r="C35" s="119"/>
+      <c r="D35" s="119"/>
+      <c r="E35" s="119"/>
     </row>
     <row r="36" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="161" t="s">
+      <c r="B36" s="139" t="s">
         <v>176</v>
       </c>
       <c r="C36" s="91" t="s">
@@ -4829,39 +4851,39 @@
       <c r="D36" s="93" t="s">
         <v>261</v>
       </c>
-      <c r="E36" s="164" t="s">
+      <c r="E36" s="95" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="37" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="162"/>
+      <c r="B37" s="140"/>
       <c r="C37" s="91" t="s">
         <v>153</v>
       </c>
       <c r="D37" s="93" t="s">
         <v>261</v>
       </c>
-      <c r="E37" s="164" t="s">
+      <c r="E37" s="95" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B38" s="163"/>
+      <c r="B38" s="141"/>
       <c r="C38" s="92" t="s">
         <v>259</v>
       </c>
       <c r="D38" s="93" t="s">
         <v>261</v>
       </c>
-      <c r="E38" s="167" t="s">
+      <c r="E38" s="98" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B39" s="109"/>
-      <c r="C39" s="109"/>
-      <c r="D39" s="109"/>
-      <c r="E39" s="109"/>
+      <c r="B39" s="105"/>
+      <c r="C39" s="105"/>
+      <c r="D39" s="105"/>
+      <c r="E39" s="105"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B40" s="91" t="s">
@@ -4879,6 +4901,24 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B19:E19"/>
     <mergeCell ref="B24:E24"/>
@@ -4889,24 +4929,6 @@
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:B38"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -4935,71 +4957,71 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="108" t="s">
         <v>203</v>
       </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="100"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="110"/>
     </row>
     <row r="3" spans="2:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="133" t="s">
+      <c r="B3" s="136" t="s">
         <v>255</v>
       </c>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="104"/>
     </row>
     <row r="4" spans="2:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="124" t="s">
+      <c r="B4" s="130" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="45" t="s">
         <v>150</v>
       </c>
-      <c r="D4" s="130" t="s">
+      <c r="D4" s="135" t="s">
         <v>162</v>
       </c>
-      <c r="E4" s="134"/>
+      <c r="E4" s="137"/>
     </row>
     <row r="5" spans="2:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="125"/>
+      <c r="B5" s="131"/>
       <c r="C5" s="45" t="s">
         <v>204</v>
       </c>
-      <c r="D5" s="130" t="s">
+      <c r="D5" s="135" t="s">
         <v>161</v>
       </c>
-      <c r="E5" s="134"/>
+      <c r="E5" s="137"/>
     </row>
     <row r="6" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="125"/>
+      <c r="B6" s="131"/>
       <c r="C6" s="45" t="s">
         <v>152</v>
       </c>
-      <c r="D6" s="130" t="s">
+      <c r="D6" s="135" t="s">
         <v>206</v>
       </c>
-      <c r="E6" s="134"/>
+      <c r="E6" s="137"/>
     </row>
     <row r="7" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="126"/>
+      <c r="B7" s="132"/>
       <c r="C7" s="45" t="s">
         <v>205</v>
       </c>
-      <c r="D7" s="138" t="s">
+      <c r="D7" s="142" t="s">
         <v>207</v>
       </c>
-      <c r="E7" s="139"/>
+      <c r="E7" s="143"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="114"/>
-      <c r="C8" s="115"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="116"/>
+      <c r="B8" s="118"/>
+      <c r="C8" s="119"/>
+      <c r="D8" s="119"/>
+      <c r="E8" s="120"/>
     </row>
     <row r="9" spans="2:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="124" t="s">
+      <c r="B9" s="130" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="45" t="s">
@@ -5013,7 +5035,7 @@
       </c>
     </row>
     <row r="10" spans="2:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="125"/>
+      <c r="B10" s="131"/>
       <c r="C10" s="78" t="s">
         <v>107</v>
       </c>
@@ -5025,7 +5047,7 @@
       </c>
     </row>
     <row r="11" spans="2:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="125"/>
+      <c r="B11" s="131"/>
       <c r="C11" s="78" t="s">
         <v>209</v>
       </c>
@@ -5037,7 +5059,7 @@
       </c>
     </row>
     <row r="12" spans="2:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="125"/>
+      <c r="B12" s="131"/>
       <c r="C12" s="45" t="s">
         <v>38</v>
       </c>
@@ -5049,13 +5071,13 @@
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="121"/>
-      <c r="C13" s="109"/>
-      <c r="D13" s="109"/>
-      <c r="E13" s="122"/>
+      <c r="B13" s="125"/>
+      <c r="C13" s="105"/>
+      <c r="D13" s="105"/>
+      <c r="E13" s="126"/>
     </row>
     <row r="14" spans="2:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="95" t="s">
+      <c r="B14" s="106" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="45" t="s">
@@ -5069,7 +5091,7 @@
       </c>
     </row>
     <row r="15" spans="2:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="123"/>
+      <c r="B15" s="127"/>
       <c r="C15" s="15" t="s">
         <v>3</v>
       </c>
@@ -5082,20 +5104,20 @@
     </row>
     <row r="17" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B18" s="98" t="s">
+      <c r="B18" s="108" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="99"/>
-      <c r="D18" s="99"/>
-      <c r="E18" s="100"/>
+      <c r="C18" s="109"/>
+      <c r="D18" s="109"/>
+      <c r="E18" s="110"/>
     </row>
     <row r="19" spans="2:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="133" t="s">
+      <c r="B19" s="136" t="s">
         <v>212</v>
       </c>
-      <c r="C19" s="102"/>
-      <c r="D19" s="102"/>
-      <c r="E19" s="103"/>
+      <c r="C19" s="103"/>
+      <c r="D19" s="103"/>
+      <c r="E19" s="104"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="50" t="s">
@@ -5104,16 +5126,16 @@
       <c r="C20" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="130" t="s">
+      <c r="D20" s="135" t="s">
         <v>215</v>
       </c>
-      <c r="E20" s="134"/>
+      <c r="E20" s="137"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="114"/>
-      <c r="C21" s="115"/>
-      <c r="D21" s="115"/>
-      <c r="E21" s="116"/>
+      <c r="B21" s="118"/>
+      <c r="C21" s="119"/>
+      <c r="D21" s="119"/>
+      <c r="E21" s="120"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="50" t="s">
@@ -5130,10 +5152,10 @@
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="121"/>
-      <c r="C23" s="109"/>
-      <c r="D23" s="109"/>
-      <c r="E23" s="122"/>
+      <c r="B23" s="125"/>
+      <c r="C23" s="105"/>
+      <c r="D23" s="105"/>
+      <c r="E23" s="126"/>
     </row>
     <row r="24" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="49" t="s">
@@ -5151,20 +5173,20 @@
     </row>
     <row r="26" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B27" s="98" t="s">
+      <c r="B27" s="108" t="s">
         <v>106</v>
       </c>
-      <c r="C27" s="99"/>
-      <c r="D27" s="99"/>
-      <c r="E27" s="100"/>
+      <c r="C27" s="109"/>
+      <c r="D27" s="109"/>
+      <c r="E27" s="110"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B28" s="133" t="s">
+      <c r="B28" s="136" t="s">
         <v>216</v>
       </c>
-      <c r="C28" s="102"/>
-      <c r="D28" s="102"/>
-      <c r="E28" s="103"/>
+      <c r="C28" s="103"/>
+      <c r="D28" s="103"/>
+      <c r="E28" s="104"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" s="47" t="s">
@@ -5173,16 +5195,16 @@
       <c r="C29" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="130" t="s">
+      <c r="D29" s="135" t="s">
         <v>215</v>
       </c>
-      <c r="E29" s="134"/>
+      <c r="E29" s="137"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="114"/>
-      <c r="C30" s="115"/>
-      <c r="D30" s="115"/>
-      <c r="E30" s="116"/>
+      <c r="B30" s="118"/>
+      <c r="C30" s="119"/>
+      <c r="D30" s="119"/>
+      <c r="E30" s="120"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B31" s="47" t="s">
@@ -5199,13 +5221,13 @@
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B32" s="121"/>
-      <c r="C32" s="109"/>
-      <c r="D32" s="109"/>
-      <c r="E32" s="122"/>
+      <c r="B32" s="125"/>
+      <c r="C32" s="105"/>
+      <c r="D32" s="105"/>
+      <c r="E32" s="126"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B33" s="124" t="s">
+      <c r="B33" s="130" t="s">
         <v>177</v>
       </c>
       <c r="C33" s="45" t="s">
@@ -5219,7 +5241,7 @@
       </c>
     </row>
     <row r="34" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="137"/>
+      <c r="B34" s="144"/>
       <c r="C34" s="15" t="s">
         <v>217</v>
       </c>
@@ -5232,18 +5254,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="B13:E13"/>
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="B32:E32"/>
     <mergeCell ref="B18:E18"/>
@@ -5254,6 +5264,18 @@
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="B30:E30"/>
     <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="B8:E8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5278,48 +5300,48 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="108" t="s">
         <v>181</v>
       </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="100"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="110"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="101" t="s">
+      <c r="B3" s="102" t="s">
         <v>195</v>
       </c>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="104"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="124" t="s">
+      <c r="B4" s="130" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="54" t="s">
         <v>151</v>
       </c>
-      <c r="D4" s="112" t="s">
+      <c r="D4" s="116" t="s">
         <v>183</v>
       </c>
-      <c r="E4" s="113"/>
+      <c r="E4" s="117"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="126"/>
+      <c r="B5" s="132"/>
       <c r="C5" s="54" t="s">
         <v>182</v>
       </c>
-      <c r="D5" s="127" t="s">
+      <c r="D5" s="128" t="s">
         <v>184</v>
       </c>
-      <c r="E5" s="128"/>
+      <c r="E5" s="129"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="114"/>
-      <c r="C6" s="115"/>
-      <c r="D6" s="115"/>
-      <c r="E6" s="116"/>
+      <c r="B6" s="118"/>
+      <c r="C6" s="119"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="120"/>
     </row>
     <row r="7" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="49" t="s">
@@ -5337,48 +5359,48 @@
     </row>
     <row r="9" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B10" s="98" t="s">
+      <c r="B10" s="108" t="s">
         <v>187</v>
       </c>
-      <c r="C10" s="99"/>
-      <c r="D10" s="99"/>
-      <c r="E10" s="100"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="110"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="101" t="s">
+      <c r="B11" s="102" t="s">
         <v>196</v>
       </c>
-      <c r="C11" s="102"/>
-      <c r="D11" s="102"/>
-      <c r="E11" s="103"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="104"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="124" t="s">
+      <c r="B12" s="130" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="54" t="s">
         <v>151</v>
       </c>
-      <c r="D12" s="112" t="s">
+      <c r="D12" s="116" t="s">
         <v>183</v>
       </c>
-      <c r="E12" s="113"/>
+      <c r="E12" s="117"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="126"/>
+      <c r="B13" s="132"/>
       <c r="C13" s="54" t="s">
         <v>190</v>
       </c>
-      <c r="D13" s="127" t="s">
+      <c r="D13" s="128" t="s">
         <v>184</v>
       </c>
-      <c r="E13" s="128"/>
+      <c r="E13" s="129"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="140"/>
-      <c r="C14" s="105"/>
-      <c r="D14" s="105"/>
-      <c r="E14" s="141"/>
+      <c r="B14" s="145"/>
+      <c r="C14" s="112"/>
+      <c r="D14" s="112"/>
+      <c r="E14" s="146"/>
     </row>
     <row r="15" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B15" s="47" t="s">
@@ -5395,10 +5417,10 @@
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="114"/>
-      <c r="C16" s="115"/>
-      <c r="D16" s="115"/>
-      <c r="E16" s="116"/>
+      <c r="B16" s="118"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="120"/>
     </row>
     <row r="17" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="49" t="s">
@@ -5416,51 +5438,51 @@
     </row>
     <row r="19" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B20" s="98" t="s">
+      <c r="B20" s="108" t="s">
         <v>189</v>
       </c>
-      <c r="C20" s="99"/>
-      <c r="D20" s="99"/>
-      <c r="E20" s="100"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="109"/>
+      <c r="E20" s="110"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="101" t="s">
+      <c r="B21" s="102" t="s">
         <v>197</v>
       </c>
-      <c r="C21" s="102"/>
-      <c r="D21" s="102"/>
-      <c r="E21" s="103"/>
+      <c r="C21" s="103"/>
+      <c r="D21" s="103"/>
+      <c r="E21" s="104"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="124" t="s">
+      <c r="B22" s="130" t="s">
         <v>16</v>
       </c>
       <c r="C22" s="54" t="s">
         <v>151</v>
       </c>
-      <c r="D22" s="112" t="s">
+      <c r="D22" s="116" t="s">
         <v>183</v>
       </c>
-      <c r="E22" s="113"/>
+      <c r="E22" s="117"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="126"/>
+      <c r="B23" s="132"/>
       <c r="C23" s="54" t="s">
         <v>190</v>
       </c>
-      <c r="D23" s="127" t="s">
+      <c r="D23" s="128" t="s">
         <v>184</v>
       </c>
-      <c r="E23" s="128"/>
+      <c r="E23" s="129"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B24" s="140"/>
-      <c r="C24" s="105"/>
-      <c r="D24" s="105"/>
-      <c r="E24" s="141"/>
+      <c r="B24" s="145"/>
+      <c r="C24" s="112"/>
+      <c r="D24" s="112"/>
+      <c r="E24" s="146"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B25" s="124" t="s">
+      <c r="B25" s="130" t="s">
         <v>2</v>
       </c>
       <c r="C25" s="45" t="s">
@@ -5474,7 +5496,7 @@
       </c>
     </row>
     <row r="26" spans="2:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="125"/>
+      <c r="B26" s="131"/>
       <c r="C26" s="45" t="s">
         <v>192</v>
       </c>
@@ -5486,7 +5508,7 @@
       </c>
     </row>
     <row r="27" spans="2:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="126"/>
+      <c r="B27" s="132"/>
       <c r="C27" s="45" t="s">
         <v>191</v>
       </c>
@@ -5498,10 +5520,10 @@
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B28" s="114"/>
-      <c r="C28" s="115"/>
-      <c r="D28" s="115"/>
-      <c r="E28" s="116"/>
+      <c r="B28" s="118"/>
+      <c r="C28" s="119"/>
+      <c r="D28" s="119"/>
+      <c r="E28" s="120"/>
     </row>
     <row r="29" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="49" t="s">
@@ -5519,13 +5541,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B25:B27"/>
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="B20:E20"/>
     <mergeCell ref="B21:E21"/>
@@ -5534,12 +5555,13 @@
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B4:B5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -5566,36 +5588,36 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="108" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="100"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="110"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="101" t="s">
+      <c r="B3" s="102" t="s">
         <v>224</v>
       </c>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="104"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="142" t="s">
+      <c r="C4" s="147" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="143"/>
-      <c r="E4" s="144"/>
+      <c r="D4" s="148"/>
+      <c r="E4" s="149"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="114"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="116"/>
+      <c r="B5" s="118"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="120"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="47" t="s">
@@ -5612,10 +5634,10 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="121"/>
-      <c r="C7" s="109"/>
-      <c r="D7" s="109"/>
-      <c r="E7" s="122"/>
+      <c r="B7" s="125"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="126"/>
     </row>
     <row r="8" spans="2:5" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="49" t="s">
@@ -5633,36 +5655,36 @@
     </row>
     <row r="10" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="2:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B11" s="98" t="s">
+      <c r="B11" s="108" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="99"/>
-      <c r="D11" s="99"/>
-      <c r="E11" s="100"/>
+      <c r="C11" s="109"/>
+      <c r="D11" s="109"/>
+      <c r="E11" s="110"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="101" t="s">
+      <c r="B12" s="102" t="s">
         <v>226</v>
       </c>
-      <c r="C12" s="102"/>
-      <c r="D12" s="102"/>
-      <c r="E12" s="103"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="104"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="142" t="s">
+      <c r="C13" s="147" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="143"/>
-      <c r="E13" s="144"/>
+      <c r="D13" s="148"/>
+      <c r="E13" s="149"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="114"/>
-      <c r="C14" s="115"/>
-      <c r="D14" s="115"/>
-      <c r="E14" s="116"/>
+      <c r="B14" s="118"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="120"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="17" t="s">
@@ -5679,13 +5701,13 @@
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="121"/>
-      <c r="C16" s="109"/>
-      <c r="D16" s="109"/>
-      <c r="E16" s="122"/>
+      <c r="B16" s="125"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="105"/>
+      <c r="E16" s="126"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="95" t="s">
+      <c r="B17" s="106" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -5699,7 +5721,7 @@
       </c>
     </row>
     <row r="18" spans="2:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B18" s="95"/>
+      <c r="B18" s="106"/>
       <c r="C18" s="2" t="s">
         <v>51</v>
       </c>
@@ -5712,17 +5734,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B16:E16"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="C13:E13"/>
     <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B16:E16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
